--- a/database/industries/ghand/ghesafha/product/monthly.xlsx
+++ b/database/industries/ghand/ghesafha/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghand\ghesafha\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8410C7F2-1992-4EEB-B51F-B885B926516C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تفاله تر</t>
   </si>
   <si>
@@ -285,7 +286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,7 +479,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -490,7 +491,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -537,6 +538,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -572,6 +590,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -723,17 +758,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -788,7 +823,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -845,7 +880,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -902,7 +937,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -957,7 +992,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +1049,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1071,7 +1106,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1126,7 +1161,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1338,7 +1373,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1395,7 +1430,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1493,48 +1528,48 @@
       <c r="AH11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI11" s="11" t="s">
-        <v>57</v>
+      <c r="AI11" s="11">
+        <v>633</v>
       </c>
       <c r="AJ11" s="11">
-        <v>633</v>
+        <v>1274</v>
       </c>
       <c r="AK11" s="11">
-        <v>1274</v>
+        <v>857</v>
       </c>
       <c r="AL11" s="11">
-        <v>857</v>
+        <v>634</v>
       </c>
       <c r="AM11" s="11">
-        <v>634</v>
+        <v>162</v>
       </c>
       <c r="AN11" s="11">
-        <v>162</v>
+        <v>2464</v>
       </c>
       <c r="AO11" s="11">
-        <v>2464</v>
+        <v>2825</v>
       </c>
       <c r="AP11" s="11">
-        <v>2825</v>
+        <v>3629</v>
       </c>
       <c r="AQ11" s="11">
-        <v>3629</v>
-      </c>
-      <c r="AR11" s="11">
         <v>2212</v>
       </c>
+      <c r="AR11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AS11" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AT11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV11" s="11">
+      <c r="AU11" s="11">
         <v>1070</v>
       </c>
+      <c r="AV11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AW11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1554,7 +1589,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1563,16 +1598,16 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>2069</v>
+        <v>2869</v>
       </c>
       <c r="F12" s="13">
-        <v>2869</v>
+        <v>6181</v>
       </c>
       <c r="G12" s="13">
-        <v>6181</v>
+        <v>5725</v>
       </c>
       <c r="H12" s="13">
-        <v>5725</v>
+        <v>0</v>
       </c>
       <c r="I12" s="13">
         <v>0</v>
@@ -1581,139 +1616,139 @@
         <v>0</v>
       </c>
       <c r="K12" s="13">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="L12" s="13">
-        <v>1050</v>
+        <v>4150</v>
       </c>
       <c r="M12" s="13">
-        <v>4150</v>
+        <v>1615</v>
       </c>
       <c r="N12" s="13">
-        <v>1615</v>
+        <v>170</v>
       </c>
       <c r="O12" s="13">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="P12" s="13">
-        <v>0</v>
+        <v>3680</v>
       </c>
       <c r="Q12" s="13">
-        <v>3680</v>
+        <v>6795</v>
       </c>
       <c r="R12" s="13">
-        <v>6795</v>
+        <v>2725</v>
       </c>
       <c r="S12" s="13">
-        <v>2725</v>
+        <v>1632</v>
       </c>
       <c r="T12" s="13">
-        <v>1632</v>
+        <v>0</v>
       </c>
       <c r="U12" s="13">
         <v>0</v>
       </c>
-      <c r="V12" s="13">
-        <v>0</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>57</v>
+      <c r="V12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W12" s="13">
+        <v>2576</v>
       </c>
       <c r="X12" s="13">
-        <v>2576</v>
+        <v>5692</v>
       </c>
       <c r="Y12" s="13">
-        <v>5692</v>
+        <v>1068</v>
       </c>
       <c r="Z12" s="13">
-        <v>1068</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="13">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="AB12" s="13">
+        <v>5957</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>7546</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>3513</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>2718</v>
+      </c>
+      <c r="AF12" s="13">
         <v>518</v>
       </c>
-      <c r="AC12" s="13">
-        <v>5957</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>7546</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>3513</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>2718</v>
-      </c>
       <c r="AG12" s="13">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="13">
         <v>0</v>
       </c>
       <c r="AI12" s="13">
-        <v>0</v>
+        <v>3950</v>
       </c>
       <c r="AJ12" s="13">
-        <v>3950</v>
+        <v>4883</v>
       </c>
       <c r="AK12" s="13">
-        <v>4883</v>
+        <v>1667</v>
       </c>
       <c r="AL12" s="13">
-        <v>1667</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="13">
-        <v>0</v>
+        <v>866</v>
       </c>
       <c r="AN12" s="13">
-        <v>866</v>
+        <v>5934</v>
       </c>
       <c r="AO12" s="13">
-        <v>5934</v>
+        <v>4084</v>
       </c>
       <c r="AP12" s="13">
-        <v>4084</v>
+        <v>5426</v>
       </c>
       <c r="AQ12" s="13">
-        <v>5426</v>
+        <v>3193</v>
       </c>
       <c r="AR12" s="13">
-        <v>3193</v>
+        <v>707</v>
       </c>
       <c r="AS12" s="13">
-        <v>707</v>
+        <v>1500</v>
       </c>
       <c r="AT12" s="13">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="13">
-        <v>0</v>
+        <v>1710</v>
       </c>
       <c r="AV12" s="13">
-        <v>1710</v>
+        <v>4738</v>
       </c>
       <c r="AW12" s="13">
-        <v>4738</v>
+        <v>3080</v>
       </c>
       <c r="AX12" s="13">
-        <v>3080</v>
+        <v>2</v>
       </c>
       <c r="AY12" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="13">
-        <v>0</v>
+        <v>5940</v>
       </c>
       <c r="BA12" s="13">
-        <v>5940</v>
+        <v>6358</v>
       </c>
       <c r="BB12" s="13">
-        <v>6358</v>
+        <v>6107</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1722,157 +1757,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>771</v>
+        <v>1179</v>
       </c>
       <c r="F13" s="11">
-        <v>1179</v>
+        <v>465</v>
       </c>
       <c r="G13" s="11">
-        <v>465</v>
+        <v>887</v>
       </c>
       <c r="H13" s="11">
-        <v>887</v>
+        <v>1853</v>
       </c>
       <c r="I13" s="11">
-        <v>1853</v>
+        <v>0</v>
       </c>
       <c r="J13" s="11">
         <v>0</v>
       </c>
       <c r="K13" s="11">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="L13" s="11">
-        <v>1050</v>
+        <v>1192</v>
       </c>
       <c r="M13" s="11">
-        <v>1192</v>
+        <v>1776</v>
       </c>
       <c r="N13" s="11">
-        <v>1776</v>
+        <v>0</v>
       </c>
       <c r="O13" s="11">
         <v>0</v>
       </c>
       <c r="P13" s="11">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="Q13" s="11">
-        <v>1040</v>
+        <v>1414</v>
       </c>
       <c r="R13" s="11">
-        <v>1414</v>
+        <v>2073</v>
       </c>
       <c r="S13" s="11">
-        <v>2073</v>
+        <v>366</v>
       </c>
       <c r="T13" s="11">
-        <v>366</v>
+        <v>136</v>
       </c>
       <c r="U13" s="11">
-        <v>136</v>
+        <v>659</v>
       </c>
       <c r="V13" s="11">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="W13" s="11">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="X13" s="11">
-        <v>900</v>
+        <v>2386</v>
       </c>
       <c r="Y13" s="11">
-        <v>2386</v>
+        <v>922</v>
       </c>
       <c r="Z13" s="11">
-        <v>922</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="11">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="AB13" s="11">
-        <v>332</v>
+        <v>1939</v>
       </c>
       <c r="AC13" s="11">
-        <v>1939</v>
+        <v>2561</v>
       </c>
       <c r="AD13" s="11">
-        <v>2561</v>
+        <v>1433</v>
       </c>
       <c r="AE13" s="11">
-        <v>1433</v>
+        <v>1727</v>
       </c>
       <c r="AF13" s="11">
-        <v>1727</v>
+        <v>563</v>
       </c>
       <c r="AG13" s="11">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="11">
         <v>0</v>
       </c>
       <c r="AI13" s="11">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="AJ13" s="11">
-        <v>591</v>
+        <v>3202</v>
       </c>
       <c r="AK13" s="11">
-        <v>3202</v>
+        <v>2577</v>
       </c>
       <c r="AL13" s="11">
-        <v>2577</v>
+        <v>1502</v>
       </c>
       <c r="AM13" s="11">
-        <v>1502</v>
+        <v>227</v>
       </c>
       <c r="AN13" s="11">
-        <v>227</v>
+        <v>1960</v>
       </c>
       <c r="AO13" s="11">
-        <v>1960</v>
+        <v>2030</v>
       </c>
       <c r="AP13" s="11">
-        <v>2030</v>
+        <v>1805</v>
       </c>
       <c r="AQ13" s="11">
-        <v>1805</v>
+        <v>2145</v>
       </c>
       <c r="AR13" s="11">
-        <v>2145</v>
+        <v>1348</v>
       </c>
       <c r="AS13" s="11">
-        <v>1348</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="11">
         <v>0</v>
       </c>
       <c r="AU13" s="11">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AV13" s="11">
-        <v>300</v>
+        <v>2035</v>
       </c>
       <c r="AW13" s="11">
-        <v>2035</v>
+        <v>3165</v>
       </c>
       <c r="AX13" s="11">
-        <v>3165</v>
+        <v>1648</v>
       </c>
       <c r="AY13" s="11">
-        <v>1648</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="11">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="BA13" s="11">
-        <v>1600</v>
+        <v>2060</v>
       </c>
       <c r="BB13" s="11">
-        <v>2060</v>
+        <v>2270</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1895,11 +1930,11 @@
       <c r="I14" s="13">
         <v>0</v>
       </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>57</v>
+      <c r="J14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0</v>
       </c>
       <c r="L14" s="13">
         <v>0</v>
@@ -1926,13 +1961,13 @@
         <v>0</v>
       </c>
       <c r="T14" s="13">
-        <v>0</v>
+        <v>20680</v>
       </c>
       <c r="U14" s="13">
-        <v>20680</v>
+        <v>8747</v>
       </c>
       <c r="V14" s="13">
-        <v>8747</v>
+        <v>0</v>
       </c>
       <c r="W14" s="13">
         <v>0</v>
@@ -2031,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2046,62 +2081,62 @@
         <v>0</v>
       </c>
       <c r="G15" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="11">
-        <v>2</v>
+        <v>9979</v>
       </c>
       <c r="I15" s="11">
-        <v>9979</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="11">
+        <v>18314</v>
       </c>
       <c r="L15" s="11">
-        <v>18314</v>
+        <v>14650</v>
       </c>
       <c r="M15" s="11">
-        <v>14650</v>
+        <v>18481</v>
       </c>
       <c r="N15" s="11">
-        <v>18481</v>
+        <v>11421</v>
       </c>
       <c r="O15" s="11">
-        <v>11421</v>
+        <v>0</v>
       </c>
       <c r="P15" s="11">
-        <v>0</v>
+        <v>2360</v>
       </c>
       <c r="Q15" s="11">
-        <v>2360</v>
+        <v>5655</v>
       </c>
       <c r="R15" s="11">
-        <v>5655</v>
+        <v>12362</v>
       </c>
       <c r="S15" s="11">
-        <v>12362</v>
+        <v>10018</v>
       </c>
       <c r="T15" s="11">
-        <v>10018</v>
+        <v>23</v>
       </c>
       <c r="U15" s="11">
-        <v>23</v>
-      </c>
-      <c r="V15" s="11">
         <v>42</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>57</v>
+      <c r="V15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W15" s="11">
+        <v>17494</v>
       </c>
       <c r="X15" s="11">
-        <v>17494</v>
-      </c>
-      <c r="Y15" s="11">
         <v>8340</v>
       </c>
+      <c r="Y15" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Z15" s="11" t="s">
         <v>57</v>
       </c>
@@ -2190,7 +2225,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2199,52 +2234,52 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>7297</v>
+        <v>14115</v>
       </c>
       <c r="F16" s="13">
-        <v>14115</v>
+        <v>13374</v>
       </c>
       <c r="G16" s="13">
-        <v>13374</v>
+        <v>11094</v>
       </c>
       <c r="H16" s="13">
-        <v>11094</v>
+        <v>3991</v>
       </c>
       <c r="I16" s="13">
-        <v>3991</v>
+        <v>0</v>
       </c>
       <c r="J16" s="13">
         <v>0</v>
       </c>
       <c r="K16" s="13">
-        <v>0</v>
+        <v>1645</v>
       </c>
       <c r="L16" s="13">
-        <v>1645</v>
+        <v>6622</v>
       </c>
       <c r="M16" s="13">
-        <v>6622</v>
+        <v>2663</v>
       </c>
       <c r="N16" s="13">
-        <v>2663</v>
+        <v>0</v>
       </c>
       <c r="O16" s="13">
         <v>0</v>
       </c>
       <c r="P16" s="13">
-        <v>0</v>
+        <v>6755</v>
       </c>
       <c r="Q16" s="13">
-        <v>6755</v>
+        <v>12156</v>
       </c>
       <c r="R16" s="13">
-        <v>12156</v>
+        <v>5736</v>
       </c>
       <c r="S16" s="13">
-        <v>5736</v>
+        <v>2921</v>
       </c>
       <c r="T16" s="13">
-        <v>2921</v>
+        <v>0</v>
       </c>
       <c r="U16" s="13">
         <v>0</v>
@@ -2253,103 +2288,103 @@
         <v>0</v>
       </c>
       <c r="W16" s="13">
-        <v>0</v>
+        <v>4489</v>
       </c>
       <c r="X16" s="13">
-        <v>4489</v>
+        <v>9534</v>
       </c>
       <c r="Y16" s="13">
-        <v>9534</v>
+        <v>2769</v>
       </c>
       <c r="Z16" s="13">
-        <v>2769</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="13">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="AB16" s="13">
-        <v>807</v>
+        <v>11956</v>
       </c>
       <c r="AC16" s="13">
-        <v>11956</v>
+        <v>13972</v>
       </c>
       <c r="AD16" s="13">
-        <v>13972</v>
+        <v>10135</v>
       </c>
       <c r="AE16" s="13">
-        <v>10135</v>
+        <v>6360</v>
       </c>
       <c r="AF16" s="13">
-        <v>6360</v>
+        <v>732</v>
       </c>
       <c r="AG16" s="13">
-        <v>732</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="13">
         <v>0</v>
       </c>
       <c r="AI16" s="13">
-        <v>0</v>
+        <v>7185</v>
       </c>
       <c r="AJ16" s="13">
-        <v>7185</v>
+        <v>8990</v>
       </c>
       <c r="AK16" s="13">
-        <v>8990</v>
+        <v>3513</v>
       </c>
       <c r="AL16" s="13">
-        <v>3513</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="13">
-        <v>0</v>
+        <v>1565</v>
       </c>
       <c r="AN16" s="13">
-        <v>1565</v>
+        <v>10585</v>
       </c>
       <c r="AO16" s="13">
-        <v>10585</v>
+        <v>14551</v>
       </c>
       <c r="AP16" s="13">
-        <v>14551</v>
+        <v>12171</v>
       </c>
       <c r="AQ16" s="13">
-        <v>12171</v>
+        <v>7298</v>
       </c>
       <c r="AR16" s="13">
-        <v>7298</v>
+        <v>479</v>
       </c>
       <c r="AS16" s="13">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="13">
         <v>0</v>
       </c>
       <c r="AU16" s="13">
-        <v>0</v>
+        <v>2852</v>
       </c>
       <c r="AV16" s="13">
-        <v>2852</v>
+        <v>8504</v>
       </c>
       <c r="AW16" s="13">
-        <v>8504</v>
+        <v>4447</v>
       </c>
       <c r="AX16" s="13">
-        <v>4447</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="13">
         <v>0</v>
       </c>
       <c r="AZ16" s="13">
-        <v>0</v>
+        <v>11159</v>
       </c>
       <c r="BA16" s="13">
-        <v>11159</v>
+        <v>12852</v>
       </c>
       <c r="BB16" s="13">
-        <v>12852</v>
+        <v>12892</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2372,8 +2407,8 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="11">
-        <v>0</v>
+      <c r="J17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>57</v>
@@ -2432,8 +2467,8 @@
       <c r="AC17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD17" s="11" t="s">
-        <v>57</v>
+      <c r="AD17" s="11">
+        <v>0</v>
       </c>
       <c r="AE17" s="11">
         <v>0</v>
@@ -2508,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2621,8 +2656,8 @@
       <c r="AM18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN18" s="13" t="s">
-        <v>57</v>
+      <c r="AN18" s="13">
+        <v>0</v>
       </c>
       <c r="AO18" s="13">
         <v>0</v>
@@ -2639,8 +2674,8 @@
       <c r="AS18" s="13">
         <v>0</v>
       </c>
-      <c r="AT18" s="13">
-        <v>0</v>
+      <c r="AT18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU18" s="13" t="s">
         <v>57</v>
@@ -2667,7 +2702,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2780,8 +2815,8 @@
       <c r="AM19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN19" s="11" t="s">
-        <v>57</v>
+      <c r="AN19" s="11">
+        <v>0</v>
       </c>
       <c r="AO19" s="11">
         <v>0</v>
@@ -2798,8 +2833,8 @@
       <c r="AS19" s="11">
         <v>0</v>
       </c>
-      <c r="AT19" s="11">
-        <v>0</v>
+      <c r="AT19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU19" s="11" t="s">
         <v>57</v>
@@ -2826,7 +2861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2939,8 +2974,8 @@
       <c r="AM20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN20" s="13" t="s">
-        <v>57</v>
+      <c r="AN20" s="13">
+        <v>0</v>
       </c>
       <c r="AO20" s="13">
         <v>0</v>
@@ -2957,8 +2992,8 @@
       <c r="AS20" s="13">
         <v>0</v>
       </c>
-      <c r="AT20" s="13">
-        <v>0</v>
+      <c r="AT20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU20" s="13" t="s">
         <v>57</v>
@@ -2985,7 +3020,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3008,8 +3043,8 @@
       <c r="I21" s="11">
         <v>0</v>
       </c>
-      <c r="J21" s="11">
-        <v>0</v>
+      <c r="J21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>57</v>
@@ -3080,8 +3115,8 @@
       <c r="AG21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH21" s="11" t="s">
-        <v>57</v>
+      <c r="AH21" s="11">
+        <v>0</v>
       </c>
       <c r="AI21" s="11">
         <v>0</v>
@@ -3095,8 +3130,8 @@
       <c r="AL21" s="11">
         <v>0</v>
       </c>
-      <c r="AM21" s="11">
-        <v>0</v>
+      <c r="AM21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN21" s="11" t="s">
         <v>57</v>
@@ -3144,7 +3179,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
@@ -3156,16 +3191,16 @@
         <v>2000</v>
       </c>
       <c r="F22" s="13">
-        <v>2000</v>
+        <v>1394</v>
       </c>
       <c r="G22" s="13">
-        <v>1394</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="13">
-        <v>1000</v>
+        <v>1114</v>
       </c>
       <c r="I22" s="13">
-        <v>1114</v>
+        <v>0</v>
       </c>
       <c r="J22" s="13">
         <v>0</v>
@@ -3203,11 +3238,11 @@
       <c r="U22" s="13">
         <v>0</v>
       </c>
-      <c r="V22" s="13">
-        <v>0</v>
-      </c>
-      <c r="W22" s="13" t="s">
-        <v>57</v>
+      <c r="V22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W22" s="13">
+        <v>0</v>
       </c>
       <c r="X22" s="13">
         <v>0</v>
@@ -3303,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
@@ -3359,11 +3394,11 @@
       <c r="T23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V23" s="11">
-        <v>0</v>
+      <c r="U23" s="11">
+        <v>0</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W23" s="11" t="s">
         <v>57</v>
@@ -3395,11 +3430,11 @@
       <c r="AF23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH23" s="11">
-        <v>0</v>
+      <c r="AG23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI23" s="11" t="s">
         <v>57</v>
@@ -3462,7 +3497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>70</v>
       </c>
@@ -3557,8 +3592,8 @@
       <c r="AG24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH24" s="13" t="s">
-        <v>57</v>
+      <c r="AH24" s="13">
+        <v>0</v>
       </c>
       <c r="AI24" s="13">
         <v>0</v>
@@ -3621,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>71</v>
       </c>
@@ -3678,7 +3713,7 @@
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>61</v>
       </c>
@@ -3746,98 +3781,98 @@
       <c r="X26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y26" s="11" t="s">
-        <v>57</v>
+      <c r="Y26" s="11">
+        <v>2076</v>
       </c>
       <c r="Z26" s="11">
-        <v>2076</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="11">
-        <v>0</v>
+        <v>7010</v>
       </c>
       <c r="AB26" s="11">
-        <v>7010</v>
+        <v>6676</v>
       </c>
       <c r="AC26" s="11">
-        <v>6676</v>
+        <v>1878</v>
       </c>
       <c r="AD26" s="11">
-        <v>1878</v>
+        <v>8293</v>
       </c>
       <c r="AE26" s="11">
-        <v>8293</v>
+        <v>13186</v>
       </c>
       <c r="AF26" s="11">
-        <v>13186</v>
+        <v>8970</v>
       </c>
       <c r="AG26" s="11">
-        <v>8970</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="11">
         <v>0</v>
       </c>
       <c r="AI26" s="11">
-        <v>0</v>
+        <v>10947</v>
       </c>
       <c r="AJ26" s="11">
-        <v>10947</v>
+        <v>7618</v>
       </c>
       <c r="AK26" s="11">
-        <v>7618</v>
+        <v>13197</v>
       </c>
       <c r="AL26" s="11">
-        <v>13197</v>
+        <v>17235</v>
       </c>
       <c r="AM26" s="11">
-        <v>17235</v>
+        <v>1690</v>
       </c>
       <c r="AN26" s="11">
-        <v>1690</v>
+        <v>6307</v>
       </c>
       <c r="AO26" s="11">
-        <v>6307</v>
+        <v>1678</v>
       </c>
       <c r="AP26" s="11">
-        <v>1678</v>
+        <v>4422</v>
       </c>
       <c r="AQ26" s="11">
-        <v>4422</v>
+        <v>10538</v>
       </c>
       <c r="AR26" s="11">
-        <v>10538</v>
-      </c>
-      <c r="AS26" s="11">
         <v>10082</v>
       </c>
+      <c r="AS26" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU26" s="11" t="s">
-        <v>57</v>
+      <c r="AU26" s="11">
+        <v>230</v>
       </c>
       <c r="AV26" s="11">
-        <v>230</v>
+        <v>5245</v>
       </c>
       <c r="AW26" s="11">
-        <v>5245</v>
+        <v>11469</v>
       </c>
       <c r="AX26" s="11">
-        <v>11469</v>
-      </c>
-      <c r="AY26" s="11">
         <v>18259</v>
       </c>
-      <c r="AZ26" s="11" t="s">
-        <v>57</v>
+      <c r="AY26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ26" s="11">
+        <v>1255</v>
       </c>
       <c r="BA26" s="11">
-        <v>1255</v>
+        <v>1342</v>
       </c>
       <c r="BB26" s="11">
-        <v>1342</v>
+        <v>2646</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>72</v>
       </c>
@@ -3903,8 +3938,8 @@
       <c r="X27" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y27" s="15" t="s">
-        <v>57</v>
+      <c r="Y27" s="15">
+        <v>0</v>
       </c>
       <c r="Z27" s="15">
         <v>0</v>
@@ -3994,164 +4029,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17">
-        <v>12137</v>
+        <v>20163</v>
       </c>
       <c r="F28" s="17">
-        <v>20163</v>
+        <v>21414</v>
       </c>
       <c r="G28" s="17">
-        <v>21414</v>
+        <v>18708</v>
       </c>
       <c r="H28" s="17">
-        <v>18708</v>
+        <v>16937</v>
       </c>
       <c r="I28" s="17">
-        <v>16937</v>
+        <v>0</v>
       </c>
       <c r="J28" s="17">
         <v>0</v>
       </c>
       <c r="K28" s="17">
-        <v>0</v>
+        <v>22059</v>
       </c>
       <c r="L28" s="17">
-        <v>22059</v>
+        <v>26614</v>
       </c>
       <c r="M28" s="17">
-        <v>26614</v>
+        <v>24535</v>
       </c>
       <c r="N28" s="17">
-        <v>24535</v>
+        <v>11591</v>
       </c>
       <c r="O28" s="17">
-        <v>11591</v>
+        <v>0</v>
       </c>
       <c r="P28" s="17">
-        <v>0</v>
+        <v>13835</v>
       </c>
       <c r="Q28" s="17">
-        <v>13835</v>
+        <v>26020</v>
       </c>
       <c r="R28" s="17">
-        <v>26020</v>
+        <v>22896</v>
       </c>
       <c r="S28" s="17">
-        <v>22896</v>
+        <v>14937</v>
       </c>
       <c r="T28" s="17">
-        <v>14937</v>
+        <v>20839</v>
       </c>
       <c r="U28" s="17">
-        <v>20839</v>
+        <v>9448</v>
       </c>
       <c r="V28" s="17">
-        <v>9448</v>
+        <v>0</v>
       </c>
       <c r="W28" s="17">
-        <v>0</v>
+        <v>25459</v>
       </c>
       <c r="X28" s="17">
-        <v>25459</v>
+        <v>25952</v>
       </c>
       <c r="Y28" s="17">
-        <v>25952</v>
+        <v>6835</v>
       </c>
       <c r="Z28" s="17">
-        <v>6835</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="17">
-        <v>0</v>
+        <v>8667</v>
       </c>
       <c r="AB28" s="17">
-        <v>8667</v>
+        <v>26528</v>
       </c>
       <c r="AC28" s="17">
-        <v>26528</v>
+        <v>25957</v>
       </c>
       <c r="AD28" s="17">
-        <v>25957</v>
+        <v>23374</v>
       </c>
       <c r="AE28" s="17">
-        <v>23374</v>
+        <v>23991</v>
       </c>
       <c r="AF28" s="17">
-        <v>23991</v>
+        <v>10783</v>
       </c>
       <c r="AG28" s="17">
-        <v>10783</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="17">
         <v>0</v>
       </c>
       <c r="AI28" s="17">
-        <v>0</v>
+        <v>23306</v>
       </c>
       <c r="AJ28" s="17">
-        <v>23306</v>
+        <v>25967</v>
       </c>
       <c r="AK28" s="17">
-        <v>25967</v>
+        <v>21811</v>
       </c>
       <c r="AL28" s="17">
-        <v>21811</v>
+        <v>19371</v>
       </c>
       <c r="AM28" s="17">
-        <v>19371</v>
+        <v>4510</v>
       </c>
       <c r="AN28" s="17">
-        <v>4510</v>
+        <v>27250</v>
       </c>
       <c r="AO28" s="17">
-        <v>27250</v>
+        <v>25168</v>
       </c>
       <c r="AP28" s="17">
-        <v>25168</v>
+        <v>27453</v>
       </c>
       <c r="AQ28" s="17">
-        <v>27453</v>
+        <v>25386</v>
       </c>
       <c r="AR28" s="17">
-        <v>25386</v>
+        <v>12616</v>
       </c>
       <c r="AS28" s="17">
-        <v>12616</v>
+        <v>1500</v>
       </c>
       <c r="AT28" s="17">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="17">
-        <v>0</v>
+        <v>6162</v>
       </c>
       <c r="AV28" s="17">
-        <v>6162</v>
+        <v>20522</v>
       </c>
       <c r="AW28" s="17">
-        <v>20522</v>
+        <v>22161</v>
       </c>
       <c r="AX28" s="17">
-        <v>22161</v>
+        <v>19909</v>
       </c>
       <c r="AY28" s="17">
-        <v>19909</v>
+        <v>0</v>
       </c>
       <c r="AZ28" s="17">
-        <v>0</v>
+        <v>19954</v>
       </c>
       <c r="BA28" s="17">
-        <v>19954</v>
+        <v>22612</v>
       </c>
       <c r="BB28" s="17">
-        <v>22612</v>
+        <v>23915</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4206,7 +4241,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4261,7 +4296,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4316,7 +4351,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>74</v>
       </c>
@@ -4473,7 +4508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4528,7 +4563,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>74</v>
       </c>
@@ -4585,7 +4620,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
@@ -4683,48 +4718,48 @@
       <c r="AH35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI35" s="11" t="s">
-        <v>57</v>
+      <c r="AI35" s="11">
+        <v>633</v>
       </c>
       <c r="AJ35" s="11">
-        <v>633</v>
+        <v>1274</v>
       </c>
       <c r="AK35" s="11">
-        <v>1274</v>
+        <v>857</v>
       </c>
       <c r="AL35" s="11">
-        <v>857</v>
+        <v>634</v>
       </c>
       <c r="AM35" s="11">
-        <v>634</v>
+        <v>162</v>
       </c>
       <c r="AN35" s="11">
-        <v>162</v>
+        <v>2464</v>
       </c>
       <c r="AO35" s="11">
-        <v>2464</v>
+        <v>2825</v>
       </c>
       <c r="AP35" s="11">
-        <v>2825</v>
+        <v>3629</v>
       </c>
       <c r="AQ35" s="11">
-        <v>3629</v>
-      </c>
-      <c r="AR35" s="11">
         <v>2212</v>
       </c>
+      <c r="AR35" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AS35" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AT35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV35" s="11">
+      <c r="AU35" s="11">
         <v>1070</v>
       </c>
+      <c r="AV35" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AW35" s="11" t="s">
         <v>57</v>
       </c>
@@ -4744,7 +4779,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>58</v>
       </c>
@@ -4753,157 +4788,157 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>3435</v>
+        <v>3631</v>
       </c>
       <c r="F36" s="13">
-        <v>3631</v>
+        <v>4927</v>
       </c>
       <c r="G36" s="13">
-        <v>4927</v>
+        <v>1616</v>
       </c>
       <c r="H36" s="13">
-        <v>1616</v>
+        <v>1824</v>
       </c>
       <c r="I36" s="13">
-        <v>1824</v>
+        <v>3205</v>
       </c>
       <c r="J36" s="13">
-        <v>3205</v>
+        <v>1335</v>
       </c>
       <c r="K36" s="13">
-        <v>1335</v>
+        <v>757</v>
       </c>
       <c r="L36" s="13">
-        <v>757</v>
+        <v>1574</v>
       </c>
       <c r="M36" s="13">
-        <v>1574</v>
+        <v>3196</v>
       </c>
       <c r="N36" s="13">
-        <v>3196</v>
+        <v>351</v>
       </c>
       <c r="O36" s="13">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="P36" s="13">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="Q36" s="13">
-        <v>481</v>
+        <v>3673</v>
       </c>
       <c r="R36" s="13">
-        <v>3673</v>
+        <v>3959</v>
       </c>
       <c r="S36" s="13">
-        <v>3959</v>
+        <v>1897</v>
       </c>
       <c r="T36" s="13">
-        <v>1897</v>
+        <v>442</v>
       </c>
       <c r="U36" s="13">
-        <v>442</v>
-      </c>
-      <c r="V36" s="13">
-        <v>0</v>
-      </c>
-      <c r="W36" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="V36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W36" s="13">
+        <v>364</v>
       </c>
       <c r="X36" s="13">
-        <v>364</v>
+        <v>1083</v>
       </c>
       <c r="Y36" s="13">
-        <v>1083</v>
+        <v>1782</v>
       </c>
       <c r="Z36" s="13">
-        <v>1782</v>
+        <v>1862</v>
       </c>
       <c r="AA36" s="13">
-        <v>1862</v>
+        <v>1802</v>
       </c>
       <c r="AB36" s="13">
-        <v>1802</v>
+        <v>2071</v>
       </c>
       <c r="AC36" s="13">
-        <v>2071</v>
+        <v>6210</v>
       </c>
       <c r="AD36" s="13">
-        <v>6210</v>
+        <v>4782</v>
       </c>
       <c r="AE36" s="13">
-        <v>4782</v>
+        <v>1067</v>
       </c>
       <c r="AF36" s="13">
-        <v>1067</v>
+        <v>63</v>
       </c>
       <c r="AG36" s="13">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="AH36" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AI36" s="13">
-        <v>2</v>
+        <v>1767</v>
       </c>
       <c r="AJ36" s="13">
-        <v>1767</v>
+        <v>2223</v>
       </c>
       <c r="AK36" s="13">
-        <v>2223</v>
+        <v>3230</v>
       </c>
       <c r="AL36" s="13">
-        <v>3230</v>
+        <v>547</v>
       </c>
       <c r="AM36" s="13">
-        <v>547</v>
+        <v>161</v>
       </c>
       <c r="AN36" s="13">
-        <v>161</v>
+        <v>1238</v>
       </c>
       <c r="AO36" s="13">
-        <v>1238</v>
+        <v>3671</v>
       </c>
       <c r="AP36" s="13">
-        <v>3671</v>
+        <v>4539</v>
       </c>
       <c r="AQ36" s="13">
-        <v>4539</v>
+        <v>3719</v>
       </c>
       <c r="AR36" s="13">
-        <v>3719</v>
+        <v>2887</v>
       </c>
       <c r="AS36" s="13">
-        <v>2887</v>
+        <v>261</v>
       </c>
       <c r="AT36" s="13">
-        <v>261</v>
+        <v>3</v>
       </c>
       <c r="AU36" s="13">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="AV36" s="13">
-        <v>195</v>
+        <v>3058</v>
       </c>
       <c r="AW36" s="13">
-        <v>3058</v>
+        <v>2259</v>
       </c>
       <c r="AX36" s="13">
-        <v>2259</v>
+        <v>333</v>
       </c>
       <c r="AY36" s="13">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="AZ36" s="13">
-        <v>0</v>
+        <v>1670</v>
       </c>
       <c r="BA36" s="13">
-        <v>1670</v>
+        <v>5536</v>
       </c>
       <c r="BB36" s="13">
-        <v>5536</v>
+        <v>8259</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>59</v>
       </c>
@@ -4912,157 +4947,157 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>494</v>
+        <v>1575</v>
       </c>
       <c r="F37" s="11">
-        <v>1575</v>
+        <v>678</v>
       </c>
       <c r="G37" s="11">
-        <v>678</v>
+        <v>181</v>
       </c>
       <c r="H37" s="11">
-        <v>181</v>
+        <v>865</v>
       </c>
       <c r="I37" s="11">
-        <v>865</v>
+        <v>1039</v>
       </c>
       <c r="J37" s="11">
-        <v>1039</v>
+        <v>151</v>
       </c>
       <c r="K37" s="11">
-        <v>151</v>
+        <v>728</v>
       </c>
       <c r="L37" s="11">
-        <v>728</v>
+        <v>333</v>
       </c>
       <c r="M37" s="11">
-        <v>333</v>
+        <v>1997</v>
       </c>
       <c r="N37" s="11">
-        <v>1997</v>
+        <v>740</v>
       </c>
       <c r="O37" s="11">
-        <v>740</v>
+        <v>1374</v>
       </c>
       <c r="P37" s="11">
-        <v>1374</v>
+        <v>339</v>
       </c>
       <c r="Q37" s="11">
-        <v>339</v>
+        <v>996</v>
       </c>
       <c r="R37" s="11">
-        <v>996</v>
+        <v>2462</v>
       </c>
       <c r="S37" s="11">
-        <v>2462</v>
+        <v>475</v>
       </c>
       <c r="T37" s="11">
-        <v>475</v>
+        <v>304</v>
       </c>
       <c r="U37" s="11">
-        <v>304</v>
+        <v>791</v>
       </c>
       <c r="V37" s="11">
-        <v>791</v>
+        <v>86</v>
       </c>
       <c r="W37" s="11">
-        <v>86</v>
+        <v>684</v>
       </c>
       <c r="X37" s="11">
-        <v>684</v>
+        <v>1818</v>
       </c>
       <c r="Y37" s="11">
-        <v>1818</v>
+        <v>867</v>
       </c>
       <c r="Z37" s="11">
-        <v>867</v>
+        <v>1040</v>
       </c>
       <c r="AA37" s="11">
-        <v>1040</v>
+        <v>220</v>
       </c>
       <c r="AB37" s="11">
-        <v>220</v>
+        <v>686</v>
       </c>
       <c r="AC37" s="11">
-        <v>686</v>
+        <v>1967</v>
       </c>
       <c r="AD37" s="11">
-        <v>1967</v>
+        <v>1948</v>
       </c>
       <c r="AE37" s="11">
-        <v>1948</v>
+        <v>1984</v>
       </c>
       <c r="AF37" s="11">
-        <v>1984</v>
+        <v>975</v>
       </c>
       <c r="AG37" s="11">
-        <v>975</v>
+        <v>656</v>
       </c>
       <c r="AH37" s="11">
-        <v>656</v>
+        <v>42</v>
       </c>
       <c r="AI37" s="11">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="AJ37" s="11">
-        <v>346</v>
+        <v>1299</v>
       </c>
       <c r="AK37" s="11">
-        <v>1299</v>
+        <v>2532</v>
       </c>
       <c r="AL37" s="11">
-        <v>2532</v>
+        <v>2267</v>
       </c>
       <c r="AM37" s="11">
-        <v>2267</v>
+        <v>1126</v>
       </c>
       <c r="AN37" s="11">
-        <v>1126</v>
+        <v>885</v>
       </c>
       <c r="AO37" s="11">
-        <v>885</v>
+        <v>3428</v>
       </c>
       <c r="AP37" s="11">
-        <v>3428</v>
+        <v>1607</v>
       </c>
       <c r="AQ37" s="11">
-        <v>1607</v>
+        <v>1700</v>
       </c>
       <c r="AR37" s="11">
-        <v>1700</v>
+        <v>831</v>
       </c>
       <c r="AS37" s="11">
-        <v>831</v>
+        <v>1011</v>
       </c>
       <c r="AT37" s="11">
-        <v>1011</v>
+        <v>323</v>
       </c>
       <c r="AU37" s="11">
-        <v>323</v>
+        <v>98</v>
       </c>
       <c r="AV37" s="11">
-        <v>98</v>
+        <v>1507</v>
       </c>
       <c r="AW37" s="11">
-        <v>1507</v>
+        <v>1876</v>
       </c>
       <c r="AX37" s="11">
-        <v>1876</v>
+        <v>1885</v>
       </c>
       <c r="AY37" s="11">
-        <v>1885</v>
+        <v>1326</v>
       </c>
       <c r="AZ37" s="11">
-        <v>1326</v>
+        <v>1706</v>
       </c>
       <c r="BA37" s="11">
-        <v>1706</v>
+        <v>1845</v>
       </c>
       <c r="BB37" s="11">
-        <v>1845</v>
+        <v>2418</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>60</v>
       </c>
@@ -5080,127 +5115,127 @@
         <v>0</v>
       </c>
       <c r="H38" s="13">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="I38" s="13">
-        <v>497</v>
-      </c>
-      <c r="J38" s="13">
-        <v>57</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>57</v>
+        <v>57</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="13">
+        <v>1</v>
       </c>
       <c r="L38" s="13">
+        <v>0</v>
+      </c>
+      <c r="M38" s="13">
+        <v>0</v>
+      </c>
+      <c r="N38" s="13">
+        <v>0</v>
+      </c>
+      <c r="O38" s="13">
+        <v>0</v>
+      </c>
+      <c r="P38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>0</v>
+      </c>
+      <c r="R38" s="13">
         <v>1</v>
       </c>
-      <c r="M38" s="13">
-        <v>0</v>
-      </c>
-      <c r="N38" s="13">
-        <v>0</v>
-      </c>
-      <c r="O38" s="13">
-        <v>0</v>
-      </c>
-      <c r="P38" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="13">
-        <v>0</v>
-      </c>
-      <c r="R38" s="13">
-        <v>0</v>
-      </c>
       <c r="S38" s="13">
+        <v>0</v>
+      </c>
+      <c r="T38" s="13">
+        <v>7338</v>
+      </c>
+      <c r="U38" s="13">
+        <v>17189</v>
+      </c>
+      <c r="V38" s="13">
+        <v>3533</v>
+      </c>
+      <c r="W38" s="13">
+        <v>527</v>
+      </c>
+      <c r="X38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="13">
+        <v>840</v>
+      </c>
+      <c r="AG38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="13">
+        <v>27</v>
+      </c>
+      <c r="AT38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="13">
         <v>1</v>
       </c>
-      <c r="T38" s="13">
-        <v>0</v>
-      </c>
-      <c r="U38" s="13">
-        <v>7338</v>
-      </c>
-      <c r="V38" s="13">
-        <v>17189</v>
-      </c>
-      <c r="W38" s="13">
-        <v>3533</v>
-      </c>
-      <c r="X38" s="13">
-        <v>527</v>
-      </c>
-      <c r="Y38" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="13">
-        <v>840</v>
-      </c>
-      <c r="AH38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT38" s="13">
-        <v>27</v>
-      </c>
-      <c r="AU38" s="13">
-        <v>0</v>
-      </c>
       <c r="AV38" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="13">
         <v>0</v>
@@ -5221,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>61</v>
       </c>
@@ -5236,62 +5271,62 @@
         <v>0</v>
       </c>
       <c r="G39" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" s="11">
-        <v>2</v>
+        <v>9979</v>
       </c>
       <c r="I39" s="11">
-        <v>9979</v>
-      </c>
-      <c r="J39" s="11">
-        <v>0</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="11">
+        <v>18314</v>
       </c>
       <c r="L39" s="11">
-        <v>18314</v>
+        <v>14650</v>
       </c>
       <c r="M39" s="11">
-        <v>14650</v>
+        <v>18481</v>
       </c>
       <c r="N39" s="11">
-        <v>18481</v>
+        <v>11421</v>
       </c>
       <c r="O39" s="11">
-        <v>11421</v>
+        <v>0</v>
       </c>
       <c r="P39" s="11">
-        <v>0</v>
+        <v>2360</v>
       </c>
       <c r="Q39" s="11">
-        <v>2360</v>
+        <v>5655</v>
       </c>
       <c r="R39" s="11">
-        <v>5655</v>
+        <v>12362</v>
       </c>
       <c r="S39" s="11">
-        <v>12362</v>
+        <v>10018</v>
       </c>
       <c r="T39" s="11">
-        <v>10018</v>
+        <v>23</v>
       </c>
       <c r="U39" s="11">
-        <v>23</v>
-      </c>
-      <c r="V39" s="11">
         <v>42</v>
       </c>
-      <c r="W39" s="11" t="s">
-        <v>57</v>
+      <c r="V39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W39" s="11">
+        <v>17494</v>
       </c>
       <c r="X39" s="11">
-        <v>17494</v>
-      </c>
-      <c r="Y39" s="11">
         <v>8340</v>
       </c>
+      <c r="Y39" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Z39" s="11" t="s">
         <v>57</v>
       </c>
@@ -5380,7 +5415,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>62</v>
       </c>
@@ -5389,157 +5424,157 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>4987</v>
+        <v>6720</v>
       </c>
       <c r="F40" s="13">
-        <v>6720</v>
+        <v>6510</v>
       </c>
       <c r="G40" s="13">
-        <v>6510</v>
+        <v>3184</v>
       </c>
       <c r="H40" s="13">
+        <v>5093</v>
+      </c>
+      <c r="I40" s="13">
+        <v>3862</v>
+      </c>
+      <c r="J40" s="13">
+        <v>1475</v>
+      </c>
+      <c r="K40" s="13">
+        <v>6587</v>
+      </c>
+      <c r="L40" s="13">
+        <v>1939</v>
+      </c>
+      <c r="M40" s="13">
+        <v>813</v>
+      </c>
+      <c r="N40" s="13">
+        <v>10825</v>
+      </c>
+      <c r="O40" s="13">
+        <v>7183</v>
+      </c>
+      <c r="P40" s="13">
+        <v>3808</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>7527</v>
+      </c>
+      <c r="R40" s="13">
+        <v>11155</v>
+      </c>
+      <c r="S40" s="13">
+        <v>6328</v>
+      </c>
+      <c r="T40" s="13">
+        <v>2163</v>
+      </c>
+      <c r="U40" s="13">
+        <v>358</v>
+      </c>
+      <c r="V40" s="13">
+        <v>14</v>
+      </c>
+      <c r="W40" s="13">
+        <v>240</v>
+      </c>
+      <c r="X40" s="13">
+        <v>5783</v>
+      </c>
+      <c r="Y40" s="13">
+        <v>9458</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>1290</v>
+      </c>
+      <c r="AA40" s="13">
+        <v>214</v>
+      </c>
+      <c r="AB40" s="13">
+        <v>9551</v>
+      </c>
+      <c r="AC40" s="13">
+        <v>8364</v>
+      </c>
+      <c r="AD40" s="13">
+        <v>8495</v>
+      </c>
+      <c r="AE40" s="13">
+        <v>10206</v>
+      </c>
+      <c r="AF40" s="13">
+        <v>4207</v>
+      </c>
+      <c r="AG40" s="13">
+        <v>225</v>
+      </c>
+      <c r="AH40" s="13">
+        <v>34</v>
+      </c>
+      <c r="AI40" s="13">
+        <v>3532</v>
+      </c>
+      <c r="AJ40" s="13">
+        <v>2265</v>
+      </c>
+      <c r="AK40" s="13">
+        <v>7358</v>
+      </c>
+      <c r="AL40" s="13">
+        <v>2371</v>
+      </c>
+      <c r="AM40" s="13">
+        <v>7817</v>
+      </c>
+      <c r="AN40" s="13">
+        <v>9186</v>
+      </c>
+      <c r="AO40" s="13">
+        <v>9120</v>
+      </c>
+      <c r="AP40" s="13">
+        <v>11262</v>
+      </c>
+      <c r="AQ40" s="13">
+        <v>14523</v>
+      </c>
+      <c r="AR40" s="13">
+        <v>965</v>
+      </c>
+      <c r="AS40" s="13">
+        <v>252</v>
+      </c>
+      <c r="AT40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="13">
+        <v>46</v>
+      </c>
+      <c r="AV40" s="13">
+        <v>5109</v>
+      </c>
+      <c r="AW40" s="13">
         <v>3184</v>
       </c>
-      <c r="I40" s="13">
-        <v>5093</v>
-      </c>
-      <c r="J40" s="13">
-        <v>3862</v>
-      </c>
-      <c r="K40" s="13">
-        <v>1475</v>
-      </c>
-      <c r="L40" s="13">
-        <v>6587</v>
-      </c>
-      <c r="M40" s="13">
-        <v>1939</v>
-      </c>
-      <c r="N40" s="13">
-        <v>813</v>
-      </c>
-      <c r="O40" s="13">
-        <v>10825</v>
-      </c>
-      <c r="P40" s="13">
-        <v>7183</v>
-      </c>
-      <c r="Q40" s="13">
-        <v>3808</v>
-      </c>
-      <c r="R40" s="13">
-        <v>7527</v>
-      </c>
-      <c r="S40" s="13">
-        <v>11155</v>
-      </c>
-      <c r="T40" s="13">
-        <v>6328</v>
-      </c>
-      <c r="U40" s="13">
-        <v>2163</v>
-      </c>
-      <c r="V40" s="13">
-        <v>358</v>
-      </c>
-      <c r="W40" s="13">
-        <v>14</v>
-      </c>
-      <c r="X40" s="13">
-        <v>240</v>
-      </c>
-      <c r="Y40" s="13">
-        <v>5783</v>
-      </c>
-      <c r="Z40" s="13">
-        <v>9458</v>
-      </c>
-      <c r="AA40" s="13">
-        <v>1290</v>
-      </c>
-      <c r="AB40" s="13">
-        <v>214</v>
-      </c>
-      <c r="AC40" s="13">
-        <v>9551</v>
-      </c>
-      <c r="AD40" s="13">
-        <v>8364</v>
-      </c>
-      <c r="AE40" s="13">
-        <v>8495</v>
-      </c>
-      <c r="AF40" s="13">
-        <v>10206</v>
-      </c>
-      <c r="AG40" s="13">
-        <v>4207</v>
-      </c>
-      <c r="AH40" s="13">
-        <v>225</v>
-      </c>
-      <c r="AI40" s="13">
-        <v>34</v>
-      </c>
-      <c r="AJ40" s="13">
-        <v>3532</v>
-      </c>
-      <c r="AK40" s="13">
-        <v>2265</v>
-      </c>
-      <c r="AL40" s="13">
-        <v>7358</v>
-      </c>
-      <c r="AM40" s="13">
-        <v>2371</v>
-      </c>
-      <c r="AN40" s="13">
-        <v>7817</v>
-      </c>
-      <c r="AO40" s="13">
-        <v>9186</v>
-      </c>
-      <c r="AP40" s="13">
-        <v>9120</v>
-      </c>
-      <c r="AQ40" s="13">
-        <v>11262</v>
-      </c>
-      <c r="AR40" s="13">
-        <v>14523</v>
-      </c>
-      <c r="AS40" s="13">
-        <v>965</v>
-      </c>
-      <c r="AT40" s="13">
-        <v>252</v>
-      </c>
-      <c r="AU40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV40" s="13">
-        <v>46</v>
-      </c>
-      <c r="AW40" s="13">
-        <v>5109</v>
-      </c>
       <c r="AX40" s="13">
-        <v>3184</v>
+        <v>3025</v>
       </c>
       <c r="AY40" s="13">
-        <v>3025</v>
+        <v>1983</v>
       </c>
       <c r="AZ40" s="13">
-        <v>1983</v>
+        <v>10560</v>
       </c>
       <c r="BA40" s="13">
-        <v>10560</v>
+        <v>7519</v>
       </c>
       <c r="BB40" s="13">
-        <v>7519</v>
+        <v>3538</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>63</v>
       </c>
@@ -5560,11 +5595,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="11">
-        <v>0</v>
-      </c>
-      <c r="J41" s="11">
         <v>1</v>
       </c>
+      <c r="J41" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="K41" s="11" t="s">
         <v>57</v>
       </c>
@@ -5622,11 +5657,11 @@
       <c r="AC41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD41" s="11" t="s">
-        <v>57</v>
+      <c r="AD41" s="11">
+        <v>1</v>
       </c>
       <c r="AE41" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="11">
         <v>0</v>
@@ -5698,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>64</v>
       </c>
@@ -5811,8 +5846,8 @@
       <c r="AM42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN42" s="13" t="s">
-        <v>57</v>
+      <c r="AN42" s="13">
+        <v>0</v>
       </c>
       <c r="AO42" s="13">
         <v>0</v>
@@ -5829,8 +5864,8 @@
       <c r="AS42" s="13">
         <v>0</v>
       </c>
-      <c r="AT42" s="13">
-        <v>0</v>
+      <c r="AT42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU42" s="13" t="s">
         <v>57</v>
@@ -5857,7 +5892,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>65</v>
       </c>
@@ -5970,8 +6005,8 @@
       <c r="AM43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN43" s="11" t="s">
-        <v>57</v>
+      <c r="AN43" s="11">
+        <v>0</v>
       </c>
       <c r="AO43" s="11">
         <v>0</v>
@@ -5988,8 +6023,8 @@
       <c r="AS43" s="11">
         <v>0</v>
       </c>
-      <c r="AT43" s="11">
-        <v>0</v>
+      <c r="AT43" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU43" s="11" t="s">
         <v>57</v>
@@ -6016,7 +6051,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>66</v>
       </c>
@@ -6129,8 +6164,8 @@
       <c r="AM44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN44" s="13" t="s">
-        <v>57</v>
+      <c r="AN44" s="13">
+        <v>0</v>
       </c>
       <c r="AO44" s="13">
         <v>0</v>
@@ -6147,8 +6182,8 @@
       <c r="AS44" s="13">
         <v>0</v>
       </c>
-      <c r="AT44" s="13">
-        <v>0</v>
+      <c r="AT44" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU44" s="13" t="s">
         <v>57</v>
@@ -6175,7 +6210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>67</v>
       </c>
@@ -6198,8 +6233,8 @@
       <c r="I45" s="11">
         <v>0</v>
       </c>
-      <c r="J45" s="11">
-        <v>0</v>
+      <c r="J45" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="K45" s="11" t="s">
         <v>57</v>
@@ -6270,8 +6305,8 @@
       <c r="AG45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH45" s="11" t="s">
-        <v>57</v>
+      <c r="AH45" s="11">
+        <v>0</v>
       </c>
       <c r="AI45" s="11">
         <v>0</v>
@@ -6285,8 +6320,8 @@
       <c r="AL45" s="11">
         <v>0</v>
       </c>
-      <c r="AM45" s="11">
-        <v>0</v>
+      <c r="AM45" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN45" s="11" t="s">
         <v>57</v>
@@ -6334,7 +6369,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>68</v>
       </c>
@@ -6343,148 +6378,148 @@
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13">
-        <v>384</v>
+        <v>11</v>
       </c>
       <c r="F46" s="13">
-        <v>11</v>
+        <v>670</v>
       </c>
       <c r="G46" s="13">
-        <v>670</v>
+        <v>1854</v>
       </c>
       <c r="H46" s="13">
-        <v>1854</v>
+        <v>1859</v>
       </c>
       <c r="I46" s="13">
-        <v>1859</v>
+        <v>1687</v>
       </c>
       <c r="J46" s="13">
-        <v>1687</v>
+        <v>1086</v>
       </c>
       <c r="K46" s="13">
-        <v>1086</v>
+        <v>720</v>
       </c>
       <c r="L46" s="13">
-        <v>720</v>
+        <v>125</v>
       </c>
       <c r="M46" s="13">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="N46" s="13">
-        <v>245</v>
+        <v>1335</v>
       </c>
       <c r="O46" s="13">
-        <v>1335</v>
+        <v>0</v>
       </c>
       <c r="P46" s="13">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="Q46" s="13">
-        <v>216</v>
+        <v>486</v>
       </c>
       <c r="R46" s="13">
-        <v>486</v>
+        <v>558</v>
       </c>
       <c r="S46" s="13">
-        <v>558</v>
+        <v>863</v>
       </c>
       <c r="T46" s="13">
-        <v>863</v>
+        <v>2216</v>
       </c>
       <c r="U46" s="13">
-        <v>2216</v>
-      </c>
-      <c r="V46" s="13">
-        <v>0</v>
-      </c>
-      <c r="W46" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="V46" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W46" s="13">
+        <v>119</v>
       </c>
       <c r="X46" s="13">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="Y46" s="13">
+        <v>39</v>
+      </c>
+      <c r="Z46" s="13">
+        <v>1236</v>
+      </c>
+      <c r="AA46" s="13">
+        <v>696</v>
+      </c>
+      <c r="AB46" s="13">
+        <v>545</v>
+      </c>
+      <c r="AC46" s="13">
+        <v>166</v>
+      </c>
+      <c r="AD46" s="13">
+        <v>190</v>
+      </c>
+      <c r="AE46" s="13">
+        <v>1572</v>
+      </c>
+      <c r="AF46" s="13">
+        <v>2747</v>
+      </c>
+      <c r="AG46" s="13">
+        <v>1421</v>
+      </c>
+      <c r="AH46" s="13">
+        <v>215</v>
+      </c>
+      <c r="AI46" s="13">
         <v>164</v>
       </c>
-      <c r="Z46" s="13">
-        <v>39</v>
-      </c>
-      <c r="AA46" s="13">
-        <v>1236</v>
-      </c>
-      <c r="AB46" s="13">
-        <v>696</v>
-      </c>
-      <c r="AC46" s="13">
-        <v>545</v>
-      </c>
-      <c r="AD46" s="13">
-        <v>166</v>
-      </c>
-      <c r="AE46" s="13">
-        <v>190</v>
-      </c>
-      <c r="AF46" s="13">
-        <v>1572</v>
-      </c>
-      <c r="AG46" s="13">
-        <v>2747</v>
-      </c>
-      <c r="AH46" s="13">
-        <v>1421</v>
-      </c>
-      <c r="AI46" s="13">
-        <v>215</v>
-      </c>
       <c r="AJ46" s="13">
-        <v>164</v>
+        <v>297</v>
       </c>
       <c r="AK46" s="13">
-        <v>297</v>
+        <v>1074</v>
       </c>
       <c r="AL46" s="13">
-        <v>1074</v>
+        <v>883</v>
       </c>
       <c r="AM46" s="13">
-        <v>883</v>
+        <v>1019</v>
       </c>
       <c r="AN46" s="13">
-        <v>1019</v>
+        <v>1</v>
       </c>
       <c r="AO46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="13">
+        <v>85</v>
+      </c>
+      <c r="AQ46" s="13">
+        <v>875</v>
+      </c>
+      <c r="AR46" s="13">
+        <v>1821</v>
+      </c>
+      <c r="AS46" s="13">
+        <v>4289</v>
+      </c>
+      <c r="AT46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="13">
         <v>1</v>
       </c>
-      <c r="AP46" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ46" s="13">
-        <v>85</v>
-      </c>
-      <c r="AR46" s="13">
-        <v>875</v>
-      </c>
-      <c r="AS46" s="13">
-        <v>1821</v>
-      </c>
-      <c r="AT46" s="13">
-        <v>4289</v>
-      </c>
-      <c r="AU46" s="13">
-        <v>0</v>
-      </c>
       <c r="AV46" s="13">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="AW46" s="13">
-        <v>120</v>
+        <v>621</v>
       </c>
       <c r="AX46" s="13">
-        <v>621</v>
+        <v>810</v>
       </c>
       <c r="AY46" s="13">
-        <v>810</v>
+        <v>1294</v>
       </c>
       <c r="AZ46" s="13">
-        <v>1294</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="13">
         <v>0</v>
@@ -6493,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>69</v>
       </c>
@@ -6549,11 +6584,11 @@
       <c r="T47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V47" s="11">
-        <v>0</v>
+      <c r="U47" s="11">
+        <v>0</v>
+      </c>
+      <c r="V47" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W47" s="11" t="s">
         <v>57</v>
@@ -6585,11 +6620,11 @@
       <c r="AF47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH47" s="11">
-        <v>0</v>
+      <c r="AG47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI47" s="11" t="s">
         <v>57</v>
@@ -6652,7 +6687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>70</v>
       </c>
@@ -6747,38 +6782,38 @@
       <c r="AG48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH48" s="13" t="s">
-        <v>57</v>
+      <c r="AH48" s="13">
+        <v>3</v>
       </c>
       <c r="AI48" s="13">
+        <v>16</v>
+      </c>
+      <c r="AJ48" s="13">
+        <v>4</v>
+      </c>
+      <c r="AK48" s="13">
+        <v>326</v>
+      </c>
+      <c r="AL48" s="13">
         <v>3</v>
       </c>
-      <c r="AJ48" s="13">
-        <v>16</v>
-      </c>
-      <c r="AK48" s="13">
-        <v>4</v>
-      </c>
-      <c r="AL48" s="13">
-        <v>326</v>
-      </c>
       <c r="AM48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="13">
         <v>3</v>
       </c>
-      <c r="AN48" s="13">
-        <v>0</v>
-      </c>
       <c r="AO48" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP48" s="13">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="AQ48" s="13">
-        <v>613</v>
+        <v>120</v>
       </c>
       <c r="AR48" s="13">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AS48" s="13">
         <v>0</v>
@@ -6796,10 +6831,10 @@
         <v>0</v>
       </c>
       <c r="AX48" s="13">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="AY48" s="13">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="AZ48" s="13">
         <v>0</v>
@@ -6808,10 +6843,10 @@
         <v>0</v>
       </c>
       <c r="BB48" s="13">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>71</v>
       </c>
@@ -6868,7 +6903,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>61</v>
       </c>
@@ -6936,98 +6971,98 @@
       <c r="X50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y50" s="11" t="s">
-        <v>57</v>
+      <c r="Y50" s="11">
+        <v>2076</v>
       </c>
       <c r="Z50" s="11">
-        <v>2076</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="11">
-        <v>0</v>
+        <v>7010</v>
       </c>
       <c r="AB50" s="11">
-        <v>7010</v>
+        <v>6676</v>
       </c>
       <c r="AC50" s="11">
-        <v>6676</v>
+        <v>1878</v>
       </c>
       <c r="AD50" s="11">
-        <v>1878</v>
+        <v>8293</v>
       </c>
       <c r="AE50" s="11">
-        <v>8293</v>
+        <v>13186</v>
       </c>
       <c r="AF50" s="11">
-        <v>13186</v>
+        <v>8970</v>
       </c>
       <c r="AG50" s="11">
-        <v>8970</v>
+        <v>0</v>
       </c>
       <c r="AH50" s="11">
         <v>0</v>
       </c>
       <c r="AI50" s="11">
-        <v>0</v>
+        <v>10947</v>
       </c>
       <c r="AJ50" s="11">
-        <v>10947</v>
+        <v>7618</v>
       </c>
       <c r="AK50" s="11">
-        <v>7618</v>
+        <v>13197</v>
       </c>
       <c r="AL50" s="11">
-        <v>13197</v>
+        <v>17235</v>
       </c>
       <c r="AM50" s="11">
-        <v>17235</v>
+        <v>1690</v>
       </c>
       <c r="AN50" s="11">
-        <v>1690</v>
+        <v>6307</v>
       </c>
       <c r="AO50" s="11">
-        <v>6307</v>
+        <v>1678</v>
       </c>
       <c r="AP50" s="11">
-        <v>1678</v>
+        <v>4422</v>
       </c>
       <c r="AQ50" s="11">
-        <v>4422</v>
+        <v>10538</v>
       </c>
       <c r="AR50" s="11">
-        <v>10538</v>
-      </c>
-      <c r="AS50" s="11">
         <v>10082</v>
       </c>
+      <c r="AS50" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU50" s="11" t="s">
-        <v>57</v>
+      <c r="AU50" s="11">
+        <v>230</v>
       </c>
       <c r="AV50" s="11">
-        <v>230</v>
+        <v>5245</v>
       </c>
       <c r="AW50" s="11">
-        <v>5245</v>
+        <v>11469</v>
       </c>
       <c r="AX50" s="11">
-        <v>11469</v>
-      </c>
-      <c r="AY50" s="11">
         <v>18259</v>
       </c>
-      <c r="AZ50" s="11" t="s">
-        <v>57</v>
+      <c r="AY50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ50" s="11">
+        <v>1255</v>
       </c>
       <c r="BA50" s="11">
-        <v>1255</v>
+        <v>1342</v>
       </c>
       <c r="BB50" s="11">
-        <v>1342</v>
+        <v>2646</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>72</v>
       </c>
@@ -7093,98 +7128,98 @@
       <c r="X51" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y51" s="15" t="s">
-        <v>57</v>
+      <c r="Y51" s="15">
+        <v>2076</v>
       </c>
       <c r="Z51" s="15">
-        <v>2076</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="15">
-        <v>0</v>
+        <v>7010</v>
       </c>
       <c r="AB51" s="15">
-        <v>7010</v>
+        <v>6676</v>
       </c>
       <c r="AC51" s="15">
-        <v>6676</v>
+        <v>1878</v>
       </c>
       <c r="AD51" s="15">
-        <v>1878</v>
+        <v>8293</v>
       </c>
       <c r="AE51" s="15">
-        <v>8293</v>
+        <v>13186</v>
       </c>
       <c r="AF51" s="15">
-        <v>13186</v>
+        <v>8970</v>
       </c>
       <c r="AG51" s="15">
-        <v>8970</v>
+        <v>0</v>
       </c>
       <c r="AH51" s="15">
         <v>0</v>
       </c>
       <c r="AI51" s="15">
-        <v>0</v>
+        <v>10947</v>
       </c>
       <c r="AJ51" s="15">
-        <v>10947</v>
+        <v>7618</v>
       </c>
       <c r="AK51" s="15">
-        <v>7618</v>
+        <v>13197</v>
       </c>
       <c r="AL51" s="15">
-        <v>13197</v>
+        <v>17235</v>
       </c>
       <c r="AM51" s="15">
-        <v>17235</v>
+        <v>1690</v>
       </c>
       <c r="AN51" s="15">
-        <v>1690</v>
+        <v>6307</v>
       </c>
       <c r="AO51" s="15">
-        <v>6307</v>
+        <v>1678</v>
       </c>
       <c r="AP51" s="15">
-        <v>1678</v>
+        <v>4422</v>
       </c>
       <c r="AQ51" s="15">
-        <v>4422</v>
+        <v>10538</v>
       </c>
       <c r="AR51" s="15">
-        <v>10538</v>
+        <v>10082</v>
       </c>
       <c r="AS51" s="15">
-        <v>10082</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="15">
         <v>0</v>
       </c>
       <c r="AU51" s="15">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AV51" s="15">
-        <v>230</v>
+        <v>5245</v>
       </c>
       <c r="AW51" s="15">
-        <v>5245</v>
+        <v>11469</v>
       </c>
       <c r="AX51" s="15">
-        <v>11469</v>
+        <v>18259</v>
       </c>
       <c r="AY51" s="15">
-        <v>18259</v>
+        <v>0</v>
       </c>
       <c r="AZ51" s="15">
-        <v>0</v>
+        <v>1255</v>
       </c>
       <c r="BA51" s="15">
-        <v>1255</v>
+        <v>1342</v>
       </c>
       <c r="BB51" s="15">
-        <v>1342</v>
+        <v>2646</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>75</v>
       </c>
@@ -7241,7 +7276,7 @@
       <c r="BA52" s="19"/>
       <c r="BB52" s="19"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="16" t="s">
         <v>76</v>
       </c>
@@ -7307,8 +7342,8 @@
       <c r="X53" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y53" s="17" t="s">
-        <v>57</v>
+      <c r="Y53" s="17">
+        <v>0</v>
       </c>
       <c r="Z53" s="17">
         <v>0</v>
@@ -7398,164 +7433,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>73</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
-        <v>9300</v>
+        <v>11937</v>
       </c>
       <c r="F54" s="15">
-        <v>11937</v>
+        <v>12785</v>
       </c>
       <c r="G54" s="15">
-        <v>12785</v>
+        <v>6837</v>
       </c>
       <c r="H54" s="15">
-        <v>6837</v>
+        <v>20117</v>
       </c>
       <c r="I54" s="15">
-        <v>20117</v>
+        <v>9851</v>
       </c>
       <c r="J54" s="15">
-        <v>9851</v>
+        <v>4047</v>
       </c>
       <c r="K54" s="15">
-        <v>4047</v>
+        <v>27107</v>
       </c>
       <c r="L54" s="15">
-        <v>27107</v>
+        <v>18621</v>
       </c>
       <c r="M54" s="15">
-        <v>18621</v>
+        <v>24732</v>
       </c>
       <c r="N54" s="15">
-        <v>24732</v>
+        <v>24672</v>
       </c>
       <c r="O54" s="15">
-        <v>24672</v>
+        <v>8557</v>
       </c>
       <c r="P54" s="15">
-        <v>8557</v>
+        <v>7204</v>
       </c>
       <c r="Q54" s="15">
-        <v>7204</v>
+        <v>18337</v>
       </c>
       <c r="R54" s="15">
-        <v>18337</v>
+        <v>30497</v>
       </c>
       <c r="S54" s="15">
-        <v>30497</v>
+        <v>19581</v>
       </c>
       <c r="T54" s="15">
-        <v>19581</v>
+        <v>12486</v>
       </c>
       <c r="U54" s="15">
-        <v>12486</v>
+        <v>18380</v>
       </c>
       <c r="V54" s="15">
-        <v>18380</v>
+        <v>3633</v>
       </c>
       <c r="W54" s="15">
-        <v>3633</v>
+        <v>19428</v>
       </c>
       <c r="X54" s="15">
-        <v>19428</v>
+        <v>17188</v>
       </c>
       <c r="Y54" s="15">
-        <v>17188</v>
+        <v>14222</v>
       </c>
       <c r="Z54" s="15">
-        <v>14222</v>
+        <v>5428</v>
       </c>
       <c r="AA54" s="15">
-        <v>5428</v>
+        <v>9942</v>
       </c>
       <c r="AB54" s="15">
-        <v>9942</v>
+        <v>19529</v>
       </c>
       <c r="AC54" s="15">
-        <v>19529</v>
+        <v>18585</v>
       </c>
       <c r="AD54" s="15">
-        <v>18585</v>
+        <v>23709</v>
       </c>
       <c r="AE54" s="15">
-        <v>23709</v>
+        <v>28015</v>
       </c>
       <c r="AF54" s="15">
-        <v>28015</v>
+        <v>17802</v>
       </c>
       <c r="AG54" s="15">
-        <v>17802</v>
+        <v>2312</v>
       </c>
       <c r="AH54" s="15">
-        <v>2312</v>
+        <v>296</v>
       </c>
       <c r="AI54" s="15">
-        <v>296</v>
+        <v>17405</v>
       </c>
       <c r="AJ54" s="15">
-        <v>17405</v>
+        <v>14980</v>
       </c>
       <c r="AK54" s="15">
-        <v>14980</v>
+        <v>28574</v>
       </c>
       <c r="AL54" s="15">
-        <v>28574</v>
+        <v>23940</v>
       </c>
       <c r="AM54" s="15">
-        <v>23940</v>
+        <v>11975</v>
       </c>
       <c r="AN54" s="15">
-        <v>11975</v>
+        <v>20084</v>
       </c>
       <c r="AO54" s="15">
-        <v>20084</v>
+        <v>20722</v>
       </c>
       <c r="AP54" s="15">
-        <v>20722</v>
+        <v>26157</v>
       </c>
       <c r="AQ54" s="15">
-        <v>26157</v>
+        <v>33687</v>
       </c>
       <c r="AR54" s="15">
-        <v>33687</v>
+        <v>16586</v>
       </c>
       <c r="AS54" s="15">
-        <v>16586</v>
+        <v>5840</v>
       </c>
       <c r="AT54" s="15">
-        <v>5840</v>
+        <v>326</v>
       </c>
       <c r="AU54" s="15">
-        <v>326</v>
+        <v>1641</v>
       </c>
       <c r="AV54" s="15">
-        <v>1641</v>
+        <v>15039</v>
       </c>
       <c r="AW54" s="15">
-        <v>15039</v>
+        <v>19409</v>
       </c>
       <c r="AX54" s="15">
-        <v>19409</v>
+        <v>24596</v>
       </c>
       <c r="AY54" s="15">
-        <v>24596</v>
+        <v>4603</v>
       </c>
       <c r="AZ54" s="15">
-        <v>4603</v>
+        <v>15191</v>
       </c>
       <c r="BA54" s="15">
-        <v>15191</v>
+        <v>16242</v>
       </c>
       <c r="BB54" s="15">
-        <v>16242</v>
+        <v>16961</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7610,7 +7645,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -7665,7 +7700,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -7720,7 +7755,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>77</v>
       </c>
@@ -7877,7 +7912,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7932,7 +7967,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>77</v>
       </c>
@@ -7989,7 +8024,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>55</v>
       </c>
@@ -8087,48 +8122,48 @@
       <c r="AH61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI61" s="11" t="s">
-        <v>57</v>
+      <c r="AI61" s="11">
+        <v>2693</v>
       </c>
       <c r="AJ61" s="11">
+        <v>9989</v>
+      </c>
+      <c r="AK61" s="11">
+        <v>5693</v>
+      </c>
+      <c r="AL61" s="11">
         <v>2693</v>
       </c>
-      <c r="AK61" s="11">
-        <v>9989</v>
-      </c>
-      <c r="AL61" s="11">
-        <v>5693</v>
-      </c>
       <c r="AM61" s="11">
-        <v>2693</v>
+        <v>1194</v>
       </c>
       <c r="AN61" s="11">
-        <v>1194</v>
+        <v>17149</v>
       </c>
       <c r="AO61" s="11">
-        <v>17149</v>
+        <v>21718</v>
       </c>
       <c r="AP61" s="11">
-        <v>21718</v>
+        <v>29949</v>
       </c>
       <c r="AQ61" s="11">
-        <v>29949</v>
-      </c>
-      <c r="AR61" s="11">
         <v>19778</v>
       </c>
+      <c r="AR61" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AS61" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AT61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU61" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV61" s="11">
+      <c r="AU61" s="11">
         <v>11342</v>
       </c>
+      <c r="AV61" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AW61" s="11" t="s">
         <v>57</v>
       </c>
@@ -8148,7 +8183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>58</v>
       </c>
@@ -8157,157 +8192,157 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>41850</v>
+        <v>47385</v>
       </c>
       <c r="F62" s="13">
-        <v>47385</v>
+        <v>69137</v>
       </c>
       <c r="G62" s="13">
-        <v>69137</v>
+        <v>26830</v>
       </c>
       <c r="H62" s="13">
-        <v>26830</v>
+        <v>31067</v>
       </c>
       <c r="I62" s="13">
-        <v>31067</v>
+        <v>54625</v>
       </c>
       <c r="J62" s="13">
-        <v>54625</v>
+        <v>22693</v>
       </c>
       <c r="K62" s="13">
-        <v>22693</v>
+        <v>14015</v>
       </c>
       <c r="L62" s="13">
-        <v>14015</v>
+        <v>33968</v>
       </c>
       <c r="M62" s="13">
-        <v>33968</v>
+        <v>68675</v>
       </c>
       <c r="N62" s="13">
-        <v>68675</v>
+        <v>7543</v>
       </c>
       <c r="O62" s="13">
-        <v>7543</v>
+        <v>0</v>
       </c>
       <c r="P62" s="13">
-        <v>0</v>
+        <v>11668</v>
       </c>
       <c r="Q62" s="13">
-        <v>11668</v>
+        <v>90278</v>
       </c>
       <c r="R62" s="13">
-        <v>90278</v>
+        <v>97247</v>
       </c>
       <c r="S62" s="13">
-        <v>97247</v>
+        <v>46770</v>
       </c>
       <c r="T62" s="13">
-        <v>46770</v>
+        <v>10935</v>
       </c>
       <c r="U62" s="13">
-        <v>10935</v>
-      </c>
-      <c r="V62" s="13">
-        <v>0</v>
-      </c>
-      <c r="W62" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="V62" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W62" s="13">
+        <v>10236</v>
       </c>
       <c r="X62" s="13">
-        <v>10236</v>
+        <v>30607</v>
       </c>
       <c r="Y62" s="13">
-        <v>30607</v>
+        <v>50266</v>
       </c>
       <c r="Z62" s="13">
-        <v>50266</v>
+        <v>52177</v>
       </c>
       <c r="AA62" s="13">
-        <v>52177</v>
+        <v>50452</v>
       </c>
       <c r="AB62" s="13">
-        <v>50452</v>
+        <v>56896</v>
       </c>
       <c r="AC62" s="13">
-        <v>56896</v>
+        <v>182991</v>
       </c>
       <c r="AD62" s="13">
-        <v>182991</v>
+        <v>145463</v>
       </c>
       <c r="AE62" s="13">
-        <v>145463</v>
+        <v>32396</v>
       </c>
       <c r="AF62" s="13">
-        <v>32396</v>
+        <v>1934</v>
       </c>
       <c r="AG62" s="13">
-        <v>1934</v>
+        <v>336</v>
       </c>
       <c r="AH62" s="13">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="AI62" s="13">
-        <v>79</v>
+        <v>79781</v>
       </c>
       <c r="AJ62" s="13">
-        <v>79781</v>
+        <v>107061</v>
       </c>
       <c r="AK62" s="13">
-        <v>107061</v>
+        <v>151197</v>
       </c>
       <c r="AL62" s="13">
-        <v>151197</v>
+        <v>25440</v>
       </c>
       <c r="AM62" s="13">
-        <v>25440</v>
+        <v>7509</v>
       </c>
       <c r="AN62" s="13">
-        <v>7509</v>
+        <v>64340</v>
       </c>
       <c r="AO62" s="13">
-        <v>64340</v>
+        <v>190961</v>
       </c>
       <c r="AP62" s="13">
-        <v>190961</v>
+        <v>236074</v>
       </c>
       <c r="AQ62" s="13">
-        <v>236074</v>
+        <v>193434</v>
       </c>
       <c r="AR62" s="13">
-        <v>193434</v>
+        <v>150143</v>
       </c>
       <c r="AS62" s="13">
-        <v>150143</v>
+        <v>13636</v>
       </c>
       <c r="AT62" s="13">
-        <v>13636</v>
+        <v>156</v>
       </c>
       <c r="AU62" s="13">
-        <v>156</v>
+        <v>14421</v>
       </c>
       <c r="AV62" s="13">
-        <v>14421</v>
+        <v>250579</v>
       </c>
       <c r="AW62" s="13">
-        <v>250579</v>
+        <v>187481</v>
       </c>
       <c r="AX62" s="13">
-        <v>187481</v>
+        <v>27650</v>
       </c>
       <c r="AY62" s="13">
-        <v>27650</v>
+        <v>0</v>
       </c>
       <c r="AZ62" s="13">
-        <v>0</v>
+        <v>141984</v>
       </c>
       <c r="BA62" s="13">
-        <v>141984</v>
+        <v>470489</v>
       </c>
       <c r="BB62" s="13">
-        <v>470489</v>
+        <v>702021</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>59</v>
       </c>
@@ -8316,157 +8351,157 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>2246</v>
+        <v>6770</v>
       </c>
       <c r="F63" s="11">
-        <v>6770</v>
+        <v>3275</v>
       </c>
       <c r="G63" s="11">
-        <v>3275</v>
+        <v>1506</v>
       </c>
       <c r="H63" s="11">
-        <v>1506</v>
+        <v>10697</v>
       </c>
       <c r="I63" s="11">
-        <v>10697</v>
+        <v>13297</v>
       </c>
       <c r="J63" s="11">
-        <v>13297</v>
+        <v>2339</v>
       </c>
       <c r="K63" s="11">
-        <v>2339</v>
+        <v>12402</v>
       </c>
       <c r="L63" s="11">
-        <v>12402</v>
+        <v>6926</v>
       </c>
       <c r="M63" s="11">
-        <v>6926</v>
+        <v>42289</v>
       </c>
       <c r="N63" s="11">
-        <v>42289</v>
+        <v>16921</v>
       </c>
       <c r="O63" s="11">
-        <v>16921</v>
+        <v>30055</v>
       </c>
       <c r="P63" s="11">
-        <v>30055</v>
+        <v>7494</v>
       </c>
       <c r="Q63" s="11">
-        <v>7494</v>
+        <v>22827</v>
       </c>
       <c r="R63" s="11">
-        <v>22827</v>
+        <v>56529</v>
       </c>
       <c r="S63" s="11">
-        <v>56529</v>
+        <v>10922</v>
       </c>
       <c r="T63" s="11">
-        <v>10922</v>
+        <v>6989</v>
       </c>
       <c r="U63" s="11">
-        <v>6989</v>
+        <v>18094</v>
       </c>
       <c r="V63" s="11">
-        <v>18094</v>
+        <v>1989</v>
       </c>
       <c r="W63" s="11">
-        <v>1989</v>
+        <v>17311</v>
       </c>
       <c r="X63" s="11">
-        <v>17311</v>
+        <v>47077</v>
       </c>
       <c r="Y63" s="11">
-        <v>47077</v>
+        <v>22457</v>
       </c>
       <c r="Z63" s="11">
-        <v>22457</v>
+        <v>27047</v>
       </c>
       <c r="AA63" s="11">
-        <v>27047</v>
+        <v>5741</v>
       </c>
       <c r="AB63" s="11">
-        <v>5741</v>
+        <v>18367</v>
       </c>
       <c r="AC63" s="11">
-        <v>18367</v>
+        <v>53117</v>
       </c>
       <c r="AD63" s="11">
-        <v>53117</v>
+        <v>55129</v>
       </c>
       <c r="AE63" s="11">
-        <v>55129</v>
+        <v>61475</v>
       </c>
       <c r="AF63" s="11">
-        <v>61475</v>
+        <v>30465</v>
       </c>
       <c r="AG63" s="11">
-        <v>30465</v>
+        <v>21233</v>
       </c>
       <c r="AH63" s="11">
-        <v>21233</v>
+        <v>1381</v>
       </c>
       <c r="AI63" s="11">
-        <v>1381</v>
+        <v>13305</v>
       </c>
       <c r="AJ63" s="11">
-        <v>13305</v>
+        <v>50903</v>
       </c>
       <c r="AK63" s="11">
-        <v>50903</v>
+        <v>89627</v>
       </c>
       <c r="AL63" s="11">
-        <v>89627</v>
+        <v>78725</v>
       </c>
       <c r="AM63" s="11">
-        <v>78725</v>
+        <v>40157</v>
       </c>
       <c r="AN63" s="11">
-        <v>40157</v>
+        <v>31079</v>
       </c>
       <c r="AO63" s="11">
-        <v>31079</v>
+        <v>114048</v>
       </c>
       <c r="AP63" s="11">
-        <v>114048</v>
+        <v>51454</v>
       </c>
       <c r="AQ63" s="11">
-        <v>51454</v>
+        <v>56038</v>
       </c>
       <c r="AR63" s="11">
-        <v>56038</v>
+        <v>30704</v>
       </c>
       <c r="AS63" s="11">
-        <v>30704</v>
+        <v>40155</v>
       </c>
       <c r="AT63" s="11">
-        <v>40155</v>
+        <v>16095</v>
       </c>
       <c r="AU63" s="11">
-        <v>16095</v>
+        <v>5201</v>
       </c>
       <c r="AV63" s="11">
-        <v>5201</v>
+        <v>82896</v>
       </c>
       <c r="AW63" s="11">
-        <v>82896</v>
+        <v>103319</v>
       </c>
       <c r="AX63" s="11">
-        <v>103319</v>
+        <v>103885</v>
       </c>
       <c r="AY63" s="11">
-        <v>103885</v>
+        <v>73942</v>
       </c>
       <c r="AZ63" s="11">
-        <v>73942</v>
+        <v>96172</v>
       </c>
       <c r="BA63" s="11">
-        <v>96172</v>
+        <v>103721</v>
       </c>
       <c r="BB63" s="11">
-        <v>103721</v>
+        <v>135885</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>60</v>
       </c>
@@ -8484,19 +8519,19 @@
         <v>0</v>
       </c>
       <c r="H64" s="13">
-        <v>0</v>
+        <v>14916</v>
       </c>
       <c r="I64" s="13">
-        <v>14916</v>
-      </c>
-      <c r="J64" s="13">
         <v>1436</v>
       </c>
-      <c r="K64" s="13" t="s">
-        <v>57</v>
+      <c r="J64" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K64" s="13">
+        <v>24</v>
       </c>
       <c r="L64" s="13">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M64" s="13">
         <v>0</v>
@@ -8514,25 +8549,25 @@
         <v>0</v>
       </c>
       <c r="R64" s="13">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S64" s="13">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="T64" s="13">
-        <v>0</v>
+        <v>327201</v>
       </c>
       <c r="U64" s="13">
-        <v>327201</v>
+        <v>766134</v>
       </c>
       <c r="V64" s="13">
-        <v>766134</v>
+        <v>143071</v>
       </c>
       <c r="W64" s="13">
-        <v>143071</v>
+        <v>21379</v>
       </c>
       <c r="X64" s="13">
-        <v>21379</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="13">
         <v>0</v>
@@ -8556,10 +8591,10 @@
         <v>0</v>
       </c>
       <c r="AF64" s="13">
-        <v>0</v>
+        <v>33980</v>
       </c>
       <c r="AG64" s="13">
-        <v>33980</v>
+        <v>0</v>
       </c>
       <c r="AH64" s="13">
         <v>0</v>
@@ -8595,16 +8630,16 @@
         <v>0</v>
       </c>
       <c r="AS64" s="13">
-        <v>0</v>
+        <v>3405</v>
       </c>
       <c r="AT64" s="13">
-        <v>3405</v>
+        <v>0</v>
       </c>
       <c r="AU64" s="13">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AV64" s="13">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AW64" s="13">
         <v>0</v>
@@ -8625,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>61</v>
       </c>
@@ -8640,62 +8675,62 @@
         <v>0</v>
       </c>
       <c r="G65" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H65" s="11">
-        <v>3</v>
+        <v>12475</v>
       </c>
       <c r="I65" s="11">
-        <v>12475</v>
-      </c>
-      <c r="J65" s="11">
-        <v>0</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K65" s="11">
+        <v>22893</v>
       </c>
       <c r="L65" s="11">
-        <v>22893</v>
+        <v>18312</v>
       </c>
       <c r="M65" s="11">
-        <v>18312</v>
+        <v>23178</v>
       </c>
       <c r="N65" s="11">
-        <v>23178</v>
+        <v>26318</v>
       </c>
       <c r="O65" s="11">
-        <v>26318</v>
+        <v>0</v>
       </c>
       <c r="P65" s="11">
-        <v>0</v>
+        <v>3791</v>
       </c>
       <c r="Q65" s="11">
-        <v>3791</v>
+        <v>9021</v>
       </c>
       <c r="R65" s="11">
-        <v>9021</v>
+        <v>24766</v>
       </c>
       <c r="S65" s="11">
-        <v>24766</v>
+        <v>20393</v>
       </c>
       <c r="T65" s="11">
-        <v>20393</v>
+        <v>51</v>
       </c>
       <c r="U65" s="11">
-        <v>51</v>
-      </c>
-      <c r="V65" s="11">
         <v>91</v>
       </c>
-      <c r="W65" s="11" t="s">
-        <v>57</v>
+      <c r="V65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W65" s="11">
+        <v>35863</v>
       </c>
       <c r="X65" s="11">
-        <v>35863</v>
-      </c>
-      <c r="Y65" s="11">
         <v>17097</v>
       </c>
+      <c r="Y65" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Z65" s="11" t="s">
         <v>57</v>
       </c>
@@ -8784,7 +8819,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>62</v>
       </c>
@@ -8793,157 +8828,157 @@
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
-        <v>154953</v>
+        <v>204293</v>
       </c>
       <c r="F66" s="13">
-        <v>204293</v>
+        <v>208161</v>
       </c>
       <c r="G66" s="13">
-        <v>208161</v>
+        <v>100714</v>
       </c>
       <c r="H66" s="13">
-        <v>100714</v>
+        <v>149023</v>
       </c>
       <c r="I66" s="13">
-        <v>149023</v>
+        <v>108971</v>
       </c>
       <c r="J66" s="13">
-        <v>108971</v>
+        <v>43957</v>
       </c>
       <c r="K66" s="13">
-        <v>43957</v>
+        <v>196857</v>
       </c>
       <c r="L66" s="13">
-        <v>196857</v>
+        <v>57978</v>
       </c>
       <c r="M66" s="13">
-        <v>57978</v>
+        <v>23888</v>
       </c>
       <c r="N66" s="13">
-        <v>23888</v>
+        <v>323558</v>
       </c>
       <c r="O66" s="13">
-        <v>323558</v>
+        <v>281797</v>
       </c>
       <c r="P66" s="13">
-        <v>281797</v>
+        <v>150375</v>
       </c>
       <c r="Q66" s="13">
-        <v>150375</v>
+        <v>304794</v>
       </c>
       <c r="R66" s="13">
-        <v>304794</v>
+        <v>491559</v>
       </c>
       <c r="S66" s="13">
-        <v>491559</v>
+        <v>280275</v>
       </c>
       <c r="T66" s="13">
-        <v>280275</v>
+        <v>95904</v>
       </c>
       <c r="U66" s="13">
-        <v>95904</v>
+        <v>14541</v>
       </c>
       <c r="V66" s="13">
-        <v>14541</v>
+        <v>105</v>
       </c>
       <c r="W66" s="13">
-        <v>105</v>
+        <v>9382</v>
       </c>
       <c r="X66" s="13">
-        <v>9382</v>
+        <v>360589</v>
       </c>
       <c r="Y66" s="13">
-        <v>360589</v>
+        <v>606128</v>
       </c>
       <c r="Z66" s="13">
-        <v>606128</v>
+        <v>81213</v>
       </c>
       <c r="AA66" s="13">
-        <v>81213</v>
+        <v>13271</v>
       </c>
       <c r="AB66" s="13">
-        <v>13271</v>
+        <v>611787</v>
       </c>
       <c r="AC66" s="13">
-        <v>611787</v>
+        <v>539366</v>
       </c>
       <c r="AD66" s="13">
-        <v>539366</v>
+        <v>570507</v>
       </c>
       <c r="AE66" s="13">
-        <v>570507</v>
+        <v>663193</v>
       </c>
       <c r="AF66" s="13">
-        <v>663193</v>
+        <v>264458</v>
       </c>
       <c r="AG66" s="13">
-        <v>264458</v>
+        <v>1684</v>
       </c>
       <c r="AH66" s="13">
-        <v>1684</v>
+        <v>2314</v>
       </c>
       <c r="AI66" s="13">
-        <v>2314</v>
+        <v>240514</v>
       </c>
       <c r="AJ66" s="13">
-        <v>240514</v>
+        <v>259358</v>
       </c>
       <c r="AK66" s="13">
-        <v>259358</v>
+        <v>890212</v>
       </c>
       <c r="AL66" s="13">
-        <v>890212</v>
+        <v>289045</v>
       </c>
       <c r="AM66" s="13">
-        <v>289045</v>
+        <v>977169</v>
       </c>
       <c r="AN66" s="13">
-        <v>977169</v>
+        <v>1153295</v>
       </c>
       <c r="AO66" s="13">
-        <v>1153295</v>
+        <v>1147469</v>
       </c>
       <c r="AP66" s="13">
-        <v>1147469</v>
+        <v>1435950</v>
       </c>
       <c r="AQ66" s="13">
-        <v>1435950</v>
+        <v>1846357</v>
       </c>
       <c r="AR66" s="13">
-        <v>1846357</v>
+        <v>148597</v>
       </c>
       <c r="AS66" s="13">
-        <v>148597</v>
+        <v>32839</v>
       </c>
       <c r="AT66" s="13">
-        <v>32839</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="13">
-        <v>0</v>
+        <v>5970</v>
       </c>
       <c r="AV66" s="13">
-        <v>5970</v>
+        <v>919568</v>
       </c>
       <c r="AW66" s="13">
-        <v>919568</v>
+        <v>573239</v>
       </c>
       <c r="AX66" s="13">
-        <v>573239</v>
+        <v>576681</v>
       </c>
       <c r="AY66" s="13">
-        <v>576681</v>
+        <v>356301</v>
       </c>
       <c r="AZ66" s="13">
-        <v>356301</v>
+        <v>1870288</v>
       </c>
       <c r="BA66" s="13">
-        <v>1870288</v>
+        <v>1328364</v>
       </c>
       <c r="BB66" s="13">
-        <v>1328364</v>
+        <v>629506</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>63</v>
       </c>
@@ -8964,11 +8999,11 @@
         <v>0</v>
       </c>
       <c r="I67" s="11">
-        <v>0</v>
-      </c>
-      <c r="J67" s="11">
         <v>17</v>
       </c>
+      <c r="J67" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="K67" s="11" t="s">
         <v>57</v>
       </c>
@@ -9026,11 +9061,11 @@
       <c r="AC67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD67" s="11" t="s">
-        <v>57</v>
+      <c r="AD67" s="11">
+        <v>42</v>
       </c>
       <c r="AE67" s="11">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="11">
         <v>0</v>
@@ -9102,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>64</v>
       </c>
@@ -9215,8 +9250,8 @@
       <c r="AM68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN68" s="13" t="s">
-        <v>57</v>
+      <c r="AN68" s="13">
+        <v>0</v>
       </c>
       <c r="AO68" s="13">
         <v>0</v>
@@ -9233,8 +9268,8 @@
       <c r="AS68" s="13">
         <v>0</v>
       </c>
-      <c r="AT68" s="13">
-        <v>0</v>
+      <c r="AT68" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU68" s="13" t="s">
         <v>57</v>
@@ -9261,7 +9296,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>65</v>
       </c>
@@ -9374,8 +9409,8 @@
       <c r="AM69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN69" s="11" t="s">
-        <v>57</v>
+      <c r="AN69" s="11">
+        <v>0</v>
       </c>
       <c r="AO69" s="11">
         <v>0</v>
@@ -9392,8 +9427,8 @@
       <c r="AS69" s="11">
         <v>0</v>
       </c>
-      <c r="AT69" s="11">
-        <v>0</v>
+      <c r="AT69" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU69" s="11" t="s">
         <v>57</v>
@@ -9420,7 +9455,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>66</v>
       </c>
@@ -9533,8 +9568,8 @@
       <c r="AM70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN70" s="13" t="s">
-        <v>57</v>
+      <c r="AN70" s="13">
+        <v>0</v>
       </c>
       <c r="AO70" s="13">
         <v>0</v>
@@ -9551,8 +9586,8 @@
       <c r="AS70" s="13">
         <v>0</v>
       </c>
-      <c r="AT70" s="13">
-        <v>0</v>
+      <c r="AT70" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU70" s="13" t="s">
         <v>57</v>
@@ -9579,7 +9614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>67</v>
       </c>
@@ -9602,8 +9637,8 @@
       <c r="I71" s="11">
         <v>0</v>
       </c>
-      <c r="J71" s="11">
-        <v>0</v>
+      <c r="J71" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="K71" s="11" t="s">
         <v>57</v>
@@ -9674,8 +9709,8 @@
       <c r="AG71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH71" s="11" t="s">
-        <v>57</v>
+      <c r="AH71" s="11">
+        <v>0</v>
       </c>
       <c r="AI71" s="11">
         <v>0</v>
@@ -9689,8 +9724,8 @@
       <c r="AL71" s="11">
         <v>0</v>
       </c>
-      <c r="AM71" s="11">
-        <v>0</v>
+      <c r="AM71" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN71" s="11" t="s">
         <v>57</v>
@@ -9738,7 +9773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>68</v>
       </c>
@@ -9747,148 +9782,148 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>384</v>
+        <v>13</v>
       </c>
       <c r="F72" s="13">
-        <v>13</v>
+        <v>801</v>
       </c>
       <c r="G72" s="13">
-        <v>801</v>
+        <v>2223</v>
       </c>
       <c r="H72" s="13">
-        <v>2223</v>
+        <v>2230</v>
       </c>
       <c r="I72" s="13">
-        <v>2230</v>
+        <v>2023</v>
       </c>
       <c r="J72" s="13">
-        <v>2023</v>
+        <v>1303</v>
       </c>
       <c r="K72" s="13">
-        <v>1303</v>
+        <v>864</v>
       </c>
       <c r="L72" s="13">
-        <v>864</v>
+        <v>151</v>
       </c>
       <c r="M72" s="13">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="N72" s="13">
-        <v>260</v>
+        <v>1335</v>
       </c>
       <c r="O72" s="13">
-        <v>1335</v>
+        <v>0</v>
       </c>
       <c r="P72" s="13">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="Q72" s="13">
-        <v>221</v>
+        <v>524</v>
       </c>
       <c r="R72" s="13">
-        <v>524</v>
+        <v>656</v>
       </c>
       <c r="S72" s="13">
-        <v>656</v>
+        <v>1035</v>
       </c>
       <c r="T72" s="13">
-        <v>1035</v>
+        <v>2659</v>
       </c>
       <c r="U72" s="13">
-        <v>2659</v>
-      </c>
-      <c r="V72" s="13">
-        <v>0</v>
-      </c>
-      <c r="W72" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="V72" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W72" s="13">
+        <v>143</v>
       </c>
       <c r="X72" s="13">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="Y72" s="13">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="Z72" s="13">
-        <v>46</v>
+        <v>1238</v>
       </c>
       <c r="AA72" s="13">
-        <v>1238</v>
+        <v>696</v>
       </c>
       <c r="AB72" s="13">
-        <v>696</v>
+        <v>546</v>
       </c>
       <c r="AC72" s="13">
-        <v>546</v>
+        <v>167</v>
       </c>
       <c r="AD72" s="13">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="AE72" s="13">
-        <v>223</v>
+        <v>1882</v>
       </c>
       <c r="AF72" s="13">
-        <v>1882</v>
+        <v>3295</v>
       </c>
       <c r="AG72" s="13">
-        <v>3295</v>
+        <v>1705</v>
       </c>
       <c r="AH72" s="13">
-        <v>1705</v>
+        <v>258</v>
       </c>
       <c r="AI72" s="13">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="AJ72" s="13">
-        <v>196</v>
+        <v>1896</v>
       </c>
       <c r="AK72" s="13">
-        <v>1896</v>
+        <v>7435</v>
       </c>
       <c r="AL72" s="13">
-        <v>7435</v>
+        <v>6182</v>
       </c>
       <c r="AM72" s="13">
-        <v>6182</v>
+        <v>6999</v>
       </c>
       <c r="AN72" s="13">
-        <v>6999</v>
+        <v>1</v>
       </c>
       <c r="AO72" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP72" s="13">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AQ72" s="13">
-        <v>600</v>
+        <v>6120</v>
       </c>
       <c r="AR72" s="13">
-        <v>6120</v>
+        <v>12752</v>
       </c>
       <c r="AS72" s="13">
-        <v>12752</v>
+        <v>30020</v>
       </c>
       <c r="AT72" s="13">
-        <v>30020</v>
+        <v>0</v>
       </c>
       <c r="AU72" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV72" s="13">
-        <v>2</v>
+        <v>960</v>
       </c>
       <c r="AW72" s="13">
-        <v>960</v>
+        <v>4966</v>
       </c>
       <c r="AX72" s="13">
-        <v>4966</v>
+        <v>6480</v>
       </c>
       <c r="AY72" s="13">
-        <v>6480</v>
+        <v>10346</v>
       </c>
       <c r="AZ72" s="13">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="BA72" s="13">
         <v>0</v>
@@ -9897,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>69</v>
       </c>
@@ -9953,12 +9988,12 @@
       <c r="T73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U73" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V73" s="11">
+      <c r="U73" s="11">
         <v>114512</v>
       </c>
+      <c r="V73" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W73" s="11" t="s">
         <v>57</v>
       </c>
@@ -9989,11 +10024,11 @@
       <c r="AF73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG73" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH73" s="11">
-        <v>0</v>
+      <c r="AG73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI73" s="11" t="s">
         <v>57</v>
@@ -10056,7 +10091,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>70</v>
       </c>
@@ -10151,38 +10186,38 @@
       <c r="AG74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH74" s="13" t="s">
-        <v>57</v>
+      <c r="AH74" s="13">
+        <v>23</v>
       </c>
       <c r="AI74" s="13">
+        <v>121</v>
+      </c>
+      <c r="AJ74" s="13">
+        <v>27</v>
+      </c>
+      <c r="AK74" s="13">
+        <v>6450</v>
+      </c>
+      <c r="AL74" s="13">
+        <v>26</v>
+      </c>
+      <c r="AM74" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN74" s="13">
         <v>23</v>
       </c>
-      <c r="AJ74" s="13">
-        <v>121</v>
-      </c>
-      <c r="AK74" s="13">
-        <v>27</v>
-      </c>
-      <c r="AL74" s="13">
-        <v>6450</v>
-      </c>
-      <c r="AM74" s="13">
-        <v>26</v>
-      </c>
-      <c r="AN74" s="13">
-        <v>0</v>
-      </c>
       <c r="AO74" s="13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AP74" s="13">
-        <v>0</v>
+        <v>12064</v>
       </c>
       <c r="AQ74" s="13">
-        <v>12064</v>
+        <v>2400</v>
       </c>
       <c r="AR74" s="13">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="AS74" s="13">
         <v>0</v>
@@ -10200,10 +10235,10 @@
         <v>0</v>
       </c>
       <c r="AX74" s="13">
-        <v>0</v>
+        <v>6257</v>
       </c>
       <c r="AY74" s="13">
-        <v>6257</v>
+        <v>0</v>
       </c>
       <c r="AZ74" s="13">
         <v>0</v>
@@ -10212,10 +10247,10 @@
         <v>0</v>
       </c>
       <c r="BB74" s="13">
-        <v>0</v>
+        <v>2200</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>79</v>
       </c>
@@ -10272,7 +10307,7 @@
       <c r="BA75" s="9"/>
       <c r="BB75" s="9"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>61</v>
       </c>
@@ -10340,98 +10375,98 @@
       <c r="X76" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y76" s="11" t="s">
-        <v>57</v>
+      <c r="Y76" s="11">
+        <v>5515</v>
       </c>
       <c r="Z76" s="11">
-        <v>5515</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="11">
-        <v>0</v>
+        <v>15211</v>
       </c>
       <c r="AB76" s="11">
-        <v>15211</v>
+        <v>14487</v>
       </c>
       <c r="AC76" s="11">
-        <v>14487</v>
+        <v>4076</v>
       </c>
       <c r="AD76" s="11">
-        <v>4076</v>
+        <v>18000</v>
       </c>
       <c r="AE76" s="11">
-        <v>18000</v>
+        <v>28613</v>
       </c>
       <c r="AF76" s="11">
-        <v>28613</v>
+        <v>19466</v>
       </c>
       <c r="AG76" s="11">
-        <v>19466</v>
+        <v>0</v>
       </c>
       <c r="AH76" s="11">
         <v>0</v>
       </c>
       <c r="AI76" s="11">
-        <v>0</v>
+        <v>36155</v>
       </c>
       <c r="AJ76" s="11">
-        <v>36155</v>
+        <v>30141</v>
       </c>
       <c r="AK76" s="11">
-        <v>30141</v>
+        <v>52685</v>
       </c>
       <c r="AL76" s="11">
-        <v>52685</v>
+        <v>62501</v>
       </c>
       <c r="AM76" s="11">
-        <v>62501</v>
+        <v>5999</v>
       </c>
       <c r="AN76" s="11">
-        <v>5999</v>
+        <v>25228</v>
       </c>
       <c r="AO76" s="11">
-        <v>25228</v>
+        <v>6712</v>
       </c>
       <c r="AP76" s="11">
-        <v>6712</v>
+        <v>17688</v>
       </c>
       <c r="AQ76" s="11">
-        <v>17688</v>
+        <v>42178</v>
       </c>
       <c r="AR76" s="11">
-        <v>42178</v>
+        <v>40330</v>
       </c>
       <c r="AS76" s="11">
-        <v>40330</v>
-      </c>
-      <c r="AT76" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU76" s="11" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AT76" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU76" s="11">
+        <v>1500</v>
       </c>
       <c r="AV76" s="11">
-        <v>1500</v>
+        <v>32323</v>
       </c>
       <c r="AW76" s="11">
-        <v>32323</v>
+        <v>71050</v>
       </c>
       <c r="AX76" s="11">
-        <v>71050</v>
+        <v>139562</v>
       </c>
       <c r="AY76" s="11">
-        <v>139562</v>
+        <v>0</v>
       </c>
       <c r="AZ76" s="11">
-        <v>0</v>
+        <v>10417</v>
       </c>
       <c r="BA76" s="11">
-        <v>10417</v>
+        <v>10834</v>
       </c>
       <c r="BB76" s="11">
-        <v>10834</v>
+        <v>22162</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>72</v>
       </c>
@@ -10499,98 +10534,98 @@
       <c r="X77" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y77" s="15" t="s">
-        <v>57</v>
+      <c r="Y77" s="15">
+        <v>5515</v>
       </c>
       <c r="Z77" s="15">
-        <v>5515</v>
+        <v>0</v>
       </c>
       <c r="AA77" s="15">
-        <v>0</v>
+        <v>15211</v>
       </c>
       <c r="AB77" s="15">
-        <v>15211</v>
+        <v>14487</v>
       </c>
       <c r="AC77" s="15">
-        <v>14487</v>
+        <v>4076</v>
       </c>
       <c r="AD77" s="15">
-        <v>4076</v>
+        <v>18000</v>
       </c>
       <c r="AE77" s="15">
-        <v>18000</v>
+        <v>28613</v>
       </c>
       <c r="AF77" s="15">
-        <v>28613</v>
+        <v>19466</v>
       </c>
       <c r="AG77" s="15">
-        <v>19466</v>
+        <v>0</v>
       </c>
       <c r="AH77" s="15">
         <v>0</v>
       </c>
       <c r="AI77" s="15">
-        <v>0</v>
+        <v>36155</v>
       </c>
       <c r="AJ77" s="15">
-        <v>36155</v>
+        <v>30141</v>
       </c>
       <c r="AK77" s="15">
-        <v>30141</v>
+        <v>52685</v>
       </c>
       <c r="AL77" s="15">
-        <v>52685</v>
+        <v>62501</v>
       </c>
       <c r="AM77" s="15">
-        <v>62501</v>
+        <v>5999</v>
       </c>
       <c r="AN77" s="15">
-        <v>5999</v>
+        <v>25228</v>
       </c>
       <c r="AO77" s="15">
-        <v>25228</v>
+        <v>6712</v>
       </c>
       <c r="AP77" s="15">
-        <v>6712</v>
+        <v>17688</v>
       </c>
       <c r="AQ77" s="15">
-        <v>17688</v>
+        <v>42178</v>
       </c>
       <c r="AR77" s="15">
-        <v>42178</v>
+        <v>40330</v>
       </c>
       <c r="AS77" s="15">
-        <v>40330</v>
+        <v>0</v>
       </c>
       <c r="AT77" s="15">
         <v>0</v>
       </c>
       <c r="AU77" s="15">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AV77" s="15">
-        <v>1500</v>
+        <v>32323</v>
       </c>
       <c r="AW77" s="15">
-        <v>32323</v>
+        <v>71050</v>
       </c>
       <c r="AX77" s="15">
-        <v>71050</v>
+        <v>139562</v>
       </c>
       <c r="AY77" s="15">
-        <v>139562</v>
+        <v>0</v>
       </c>
       <c r="AZ77" s="15">
-        <v>0</v>
+        <v>10417</v>
       </c>
       <c r="BA77" s="15">
-        <v>10417</v>
+        <v>10834</v>
       </c>
       <c r="BB77" s="15">
-        <v>10834</v>
+        <v>22162</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="18" t="s">
         <v>80</v>
       </c>
@@ -10647,7 +10682,7 @@
       <c r="BA78" s="19"/>
       <c r="BB78" s="19"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
         <v>76</v>
       </c>
@@ -10715,8 +10750,8 @@
       <c r="X79" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y79" s="17" t="s">
-        <v>57</v>
+      <c r="Y79" s="17">
+        <v>0</v>
       </c>
       <c r="Z79" s="17">
         <v>0</v>
@@ -10806,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>81</v>
       </c>
@@ -10863,7 +10898,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>82</v>
       </c>
@@ -10931,8 +10966,8 @@
       <c r="X81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y81" s="11" t="s">
-        <v>57</v>
+      <c r="Y81" s="11">
+        <v>0</v>
       </c>
       <c r="Z81" s="11">
         <v>0</v>
@@ -11022,164 +11057,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>73</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15">
-        <v>199433</v>
+        <v>258461</v>
       </c>
       <c r="F82" s="15">
-        <v>258461</v>
+        <v>281374</v>
       </c>
       <c r="G82" s="15">
-        <v>281374</v>
+        <v>131276</v>
       </c>
       <c r="H82" s="15">
-        <v>131276</v>
+        <v>220408</v>
       </c>
       <c r="I82" s="15">
-        <v>220408</v>
+        <v>180369</v>
       </c>
       <c r="J82" s="15">
-        <v>180369</v>
+        <v>70292</v>
       </c>
       <c r="K82" s="15">
-        <v>70292</v>
+        <v>247055</v>
       </c>
       <c r="L82" s="15">
-        <v>247055</v>
+        <v>117335</v>
       </c>
       <c r="M82" s="15">
-        <v>117335</v>
+        <v>158290</v>
       </c>
       <c r="N82" s="15">
-        <v>158290</v>
+        <v>375675</v>
       </c>
       <c r="O82" s="15">
-        <v>375675</v>
+        <v>311852</v>
       </c>
       <c r="P82" s="15">
-        <v>311852</v>
+        <v>173549</v>
       </c>
       <c r="Q82" s="15">
-        <v>173549</v>
+        <v>427444</v>
       </c>
       <c r="R82" s="15">
-        <v>427444</v>
+        <v>670804</v>
       </c>
       <c r="S82" s="15">
-        <v>670804</v>
+        <v>359395</v>
       </c>
       <c r="T82" s="15">
-        <v>359395</v>
+        <v>443739</v>
       </c>
       <c r="U82" s="15">
-        <v>443739</v>
+        <v>913372</v>
       </c>
       <c r="V82" s="15">
-        <v>913372</v>
+        <v>145165</v>
       </c>
       <c r="W82" s="15">
-        <v>145165</v>
+        <v>94314</v>
       </c>
       <c r="X82" s="15">
-        <v>94314</v>
+        <v>455567</v>
       </c>
       <c r="Y82" s="15">
-        <v>455567</v>
+        <v>684412</v>
       </c>
       <c r="Z82" s="15">
-        <v>684412</v>
+        <v>161675</v>
       </c>
       <c r="AA82" s="15">
-        <v>161675</v>
+        <v>85371</v>
       </c>
       <c r="AB82" s="15">
-        <v>85371</v>
+        <v>702083</v>
       </c>
       <c r="AC82" s="15">
-        <v>702083</v>
+        <v>779717</v>
       </c>
       <c r="AD82" s="15">
-        <v>779717</v>
+        <v>789364</v>
       </c>
       <c r="AE82" s="15">
-        <v>789364</v>
+        <v>787559</v>
       </c>
       <c r="AF82" s="15">
-        <v>787559</v>
+        <v>353598</v>
       </c>
       <c r="AG82" s="15">
-        <v>353598</v>
+        <v>24958</v>
       </c>
       <c r="AH82" s="15">
-        <v>24958</v>
+        <v>4055</v>
       </c>
       <c r="AI82" s="15">
-        <v>4055</v>
+        <v>372765</v>
       </c>
       <c r="AJ82" s="15">
-        <v>372765</v>
+        <v>459375</v>
       </c>
       <c r="AK82" s="15">
-        <v>459375</v>
+        <v>1203299</v>
       </c>
       <c r="AL82" s="15">
-        <v>1203299</v>
+        <v>464612</v>
       </c>
       <c r="AM82" s="15">
-        <v>464612</v>
+        <v>1039027</v>
       </c>
       <c r="AN82" s="15">
-        <v>1039027</v>
+        <v>1291115</v>
       </c>
       <c r="AO82" s="15">
-        <v>1291115</v>
+        <v>1480908</v>
       </c>
       <c r="AP82" s="15">
-        <v>1480908</v>
+        <v>1783779</v>
       </c>
       <c r="AQ82" s="15">
-        <v>1783779</v>
+        <v>2166305</v>
       </c>
       <c r="AR82" s="15">
-        <v>2166305</v>
+        <v>382526</v>
       </c>
       <c r="AS82" s="15">
-        <v>382526</v>
+        <v>120055</v>
       </c>
       <c r="AT82" s="15">
-        <v>120055</v>
+        <v>16251</v>
       </c>
       <c r="AU82" s="15">
-        <v>16251</v>
+        <v>38506</v>
       </c>
       <c r="AV82" s="15">
-        <v>38506</v>
+        <v>1286326</v>
       </c>
       <c r="AW82" s="15">
-        <v>1286326</v>
+        <v>940055</v>
       </c>
       <c r="AX82" s="15">
-        <v>940055</v>
+        <v>860515</v>
       </c>
       <c r="AY82" s="15">
-        <v>860515</v>
+        <v>440589</v>
       </c>
       <c r="AZ82" s="15">
-        <v>440589</v>
+        <v>2118861</v>
       </c>
       <c r="BA82" s="15">
-        <v>2118861</v>
+        <v>1913408</v>
       </c>
       <c r="BB82" s="15">
-        <v>1913408</v>
+        <v>1491774</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -11234,7 +11269,7 @@
       <c r="BA83" s="1"/>
       <c r="BB83" s="1"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -11289,7 +11324,7 @@
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -11344,7 +11379,7 @@
       <c r="BA85" s="1"/>
       <c r="BB85" s="1"/>
     </row>
-    <row r="86" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
         <v>83</v>
       </c>
@@ -11501,7 +11536,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -11556,7 +11591,7 @@
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>84</v>
       </c>
@@ -11613,7 +11648,7 @@
       <c r="BA88" s="9"/>
       <c r="BB88" s="9"/>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>55</v>
       </c>
@@ -11711,48 +11746,48 @@
       <c r="AH89" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI89" s="11" t="s">
-        <v>57</v>
+      <c r="AI89" s="11">
+        <v>4254344</v>
       </c>
       <c r="AJ89" s="11">
-        <v>4254344</v>
+        <v>7840659</v>
       </c>
       <c r="AK89" s="11">
-        <v>7840659</v>
+        <v>6642940</v>
       </c>
       <c r="AL89" s="11">
-        <v>6642940</v>
+        <v>4247634</v>
       </c>
       <c r="AM89" s="11">
-        <v>4247634</v>
+        <v>7370370</v>
       </c>
       <c r="AN89" s="11">
-        <v>7370370</v>
+        <v>6959821</v>
       </c>
       <c r="AO89" s="11">
-        <v>6959821</v>
+        <v>7687788</v>
       </c>
       <c r="AP89" s="11">
-        <v>7687788</v>
+        <v>8252687</v>
       </c>
       <c r="AQ89" s="11">
-        <v>8252687</v>
-      </c>
-      <c r="AR89" s="11">
         <v>8941230</v>
       </c>
+      <c r="AR89" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AS89" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AT89" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU89" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV89" s="11">
+      <c r="AU89" s="11">
         <v>10600000</v>
       </c>
+      <c r="AV89" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AW89" s="11" t="s">
         <v>57</v>
       </c>
@@ -11772,7 +11807,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>58</v>
       </c>
@@ -11781,157 +11816,157 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>12183406</v>
+        <v>13050124</v>
       </c>
       <c r="F90" s="13">
-        <v>13050124</v>
+        <v>14032271</v>
       </c>
       <c r="G90" s="13">
-        <v>14032271</v>
+        <v>16602723</v>
       </c>
       <c r="H90" s="13">
-        <v>16602723</v>
+        <v>17032346</v>
       </c>
       <c r="I90" s="13">
-        <v>17032346</v>
+        <v>17043682</v>
       </c>
       <c r="J90" s="13">
-        <v>17043682</v>
+        <v>16998502</v>
       </c>
       <c r="K90" s="13">
-        <v>16998502</v>
+        <v>18513871</v>
       </c>
       <c r="L90" s="13">
-        <v>18513871</v>
+        <v>21580686</v>
       </c>
       <c r="M90" s="13">
-        <v>21580686</v>
+        <v>21487797</v>
       </c>
       <c r="N90" s="13">
-        <v>21487797</v>
+        <v>21490028</v>
       </c>
       <c r="O90" s="13">
-        <v>21490028</v>
+        <v>0</v>
       </c>
       <c r="P90" s="13">
-        <v>0</v>
+        <v>24257796</v>
       </c>
       <c r="Q90" s="13">
-        <v>24257796</v>
+        <v>24578818</v>
       </c>
       <c r="R90" s="13">
-        <v>24578818</v>
+        <v>24563526</v>
       </c>
       <c r="S90" s="13">
-        <v>24563526</v>
+        <v>24654718</v>
       </c>
       <c r="T90" s="13">
-        <v>24654718</v>
+        <v>24739819</v>
       </c>
       <c r="U90" s="13">
-        <v>24739819</v>
-      </c>
-      <c r="V90" s="13">
-        <v>0</v>
-      </c>
-      <c r="W90" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="V90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W90" s="13">
+        <v>28120879</v>
       </c>
       <c r="X90" s="13">
-        <v>28120879</v>
+        <v>28261311</v>
       </c>
       <c r="Y90" s="13">
-        <v>28261311</v>
+        <v>28207632</v>
       </c>
       <c r="Z90" s="13">
-        <v>28207632</v>
+        <v>28022019</v>
       </c>
       <c r="AA90" s="13">
-        <v>28022019</v>
+        <v>27997780</v>
       </c>
       <c r="AB90" s="13">
-        <v>27997780</v>
+        <v>27472718</v>
       </c>
       <c r="AC90" s="13">
-        <v>27472718</v>
+        <v>29467150</v>
       </c>
       <c r="AD90" s="13">
-        <v>29467150</v>
+        <v>30418862</v>
       </c>
       <c r="AE90" s="13">
-        <v>30418862</v>
+        <v>30361762</v>
       </c>
       <c r="AF90" s="13">
-        <v>30361762</v>
+        <v>30698413</v>
       </c>
       <c r="AG90" s="13">
-        <v>30698413</v>
+        <v>33600000</v>
       </c>
       <c r="AH90" s="13">
-        <v>33600000</v>
+        <v>39500000</v>
       </c>
       <c r="AI90" s="13">
-        <v>39500000</v>
+        <v>45150538</v>
       </c>
       <c r="AJ90" s="13">
-        <v>45150538</v>
+        <v>48160594</v>
       </c>
       <c r="AK90" s="13">
-        <v>48160594</v>
+        <v>46810217</v>
       </c>
       <c r="AL90" s="13">
-        <v>46810217</v>
+        <v>46508227</v>
       </c>
       <c r="AM90" s="13">
-        <v>46508227</v>
+        <v>46639752</v>
       </c>
       <c r="AN90" s="13">
-        <v>46639752</v>
+        <v>51970921</v>
       </c>
       <c r="AO90" s="13">
-        <v>51970921</v>
+        <v>52018796</v>
       </c>
       <c r="AP90" s="13">
-        <v>52018796</v>
+        <v>52010134</v>
       </c>
       <c r="AQ90" s="13">
-        <v>52010134</v>
+        <v>52012369</v>
       </c>
       <c r="AR90" s="13">
-        <v>52012369</v>
+        <v>52006581</v>
       </c>
       <c r="AS90" s="13">
-        <v>52006581</v>
+        <v>52245211</v>
       </c>
       <c r="AT90" s="13">
-        <v>52245211</v>
+        <v>52000000</v>
       </c>
       <c r="AU90" s="13">
-        <v>52000000</v>
+        <v>73953846</v>
       </c>
       <c r="AV90" s="13">
-        <v>73953846</v>
+        <v>81942119</v>
       </c>
       <c r="AW90" s="13">
-        <v>81942119</v>
+        <v>82992917</v>
       </c>
       <c r="AX90" s="13">
-        <v>82992917</v>
-      </c>
-      <c r="AY90" s="13">
         <v>83033033</v>
       </c>
-      <c r="AZ90" s="13" t="s">
-        <v>57</v>
+      <c r="AY90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ90" s="13">
+        <v>85020359</v>
       </c>
       <c r="BA90" s="13">
-        <v>85020359</v>
+        <v>84987175</v>
       </c>
       <c r="BB90" s="13">
-        <v>84987175</v>
+        <v>85000726</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>59</v>
       </c>
@@ -11940,157 +11975,157 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>4546559</v>
+        <v>4298413</v>
       </c>
       <c r="F91" s="11">
-        <v>4298413</v>
+        <v>4830383</v>
       </c>
       <c r="G91" s="11">
-        <v>4830383</v>
+        <v>8320442</v>
       </c>
       <c r="H91" s="11">
-        <v>8320442</v>
+        <v>12366474</v>
       </c>
       <c r="I91" s="11">
-        <v>12366474</v>
+        <v>12797883</v>
       </c>
       <c r="J91" s="11">
-        <v>12797883</v>
+        <v>15490066</v>
       </c>
       <c r="K91" s="11">
-        <v>15490066</v>
+        <v>17035714</v>
       </c>
       <c r="L91" s="11">
-        <v>17035714</v>
+        <v>20798799</v>
       </c>
       <c r="M91" s="11">
-        <v>20798799</v>
+        <v>21176264</v>
       </c>
       <c r="N91" s="11">
-        <v>21176264</v>
+        <v>22866216</v>
       </c>
       <c r="O91" s="11">
-        <v>22866216</v>
+        <v>21874090</v>
       </c>
       <c r="P91" s="11">
-        <v>21874090</v>
+        <v>22106195</v>
       </c>
       <c r="Q91" s="11">
-        <v>22106195</v>
+        <v>22918675</v>
       </c>
       <c r="R91" s="11">
-        <v>22918675</v>
+        <v>22960601</v>
       </c>
       <c r="S91" s="11">
-        <v>22960601</v>
+        <v>22993684</v>
       </c>
       <c r="T91" s="11">
-        <v>22993684</v>
+        <v>22990132</v>
       </c>
       <c r="U91" s="11">
-        <v>22990132</v>
+        <v>22874842</v>
       </c>
       <c r="V91" s="11">
-        <v>22874842</v>
+        <v>23127907</v>
       </c>
       <c r="W91" s="11">
-        <v>23127907</v>
+        <v>25308480</v>
       </c>
       <c r="X91" s="11">
-        <v>25308480</v>
+        <v>25894940</v>
       </c>
       <c r="Y91" s="11">
-        <v>25894940</v>
+        <v>25901961</v>
       </c>
       <c r="Z91" s="11">
-        <v>25901961</v>
+        <v>26006731</v>
       </c>
       <c r="AA91" s="11">
-        <v>26006731</v>
+        <v>26095455</v>
       </c>
       <c r="AB91" s="11">
-        <v>26095455</v>
+        <v>26774052</v>
       </c>
       <c r="AC91" s="11">
-        <v>26774052</v>
+        <v>27004067</v>
       </c>
       <c r="AD91" s="11">
-        <v>27004067</v>
+        <v>28300308</v>
       </c>
       <c r="AE91" s="11">
-        <v>28300308</v>
+        <v>30985383</v>
       </c>
       <c r="AF91" s="11">
-        <v>30985383</v>
+        <v>31246154</v>
       </c>
       <c r="AG91" s="11">
-        <v>31246154</v>
+        <v>32367378</v>
       </c>
       <c r="AH91" s="11">
-        <v>32367378</v>
+        <v>32880952</v>
       </c>
       <c r="AI91" s="11">
-        <v>32880952</v>
+        <v>38453757</v>
       </c>
       <c r="AJ91" s="11">
-        <v>38453757</v>
+        <v>39186297</v>
       </c>
       <c r="AK91" s="11">
-        <v>39186297</v>
+        <v>35397709</v>
       </c>
       <c r="AL91" s="11">
-        <v>35397709</v>
+        <v>34726511</v>
       </c>
       <c r="AM91" s="11">
-        <v>34726511</v>
+        <v>35663410</v>
       </c>
       <c r="AN91" s="11">
-        <v>35663410</v>
+        <v>35117514</v>
       </c>
       <c r="AO91" s="11">
-        <v>35117514</v>
+        <v>33269545</v>
       </c>
       <c r="AP91" s="11">
-        <v>33269545</v>
+        <v>32018668</v>
       </c>
       <c r="AQ91" s="11">
-        <v>32018668</v>
+        <v>32963529</v>
       </c>
       <c r="AR91" s="11">
-        <v>32963529</v>
+        <v>36948255</v>
       </c>
       <c r="AS91" s="11">
-        <v>36948255</v>
+        <v>39718101</v>
       </c>
       <c r="AT91" s="11">
-        <v>39718101</v>
+        <v>49829721</v>
       </c>
       <c r="AU91" s="11">
-        <v>49829721</v>
+        <v>53071429</v>
       </c>
       <c r="AV91" s="11">
-        <v>53071429</v>
+        <v>55007299</v>
       </c>
       <c r="AW91" s="11">
-        <v>55007299</v>
+        <v>55074094</v>
       </c>
       <c r="AX91" s="11">
-        <v>55074094</v>
+        <v>55111406</v>
       </c>
       <c r="AY91" s="11">
-        <v>55111406</v>
+        <v>55763198</v>
       </c>
       <c r="AZ91" s="11">
-        <v>55763198</v>
+        <v>56372802</v>
       </c>
       <c r="BA91" s="11">
-        <v>56372802</v>
+        <v>56217344</v>
       </c>
       <c r="BB91" s="11">
-        <v>56217344</v>
+        <v>56197270</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>60</v>
       </c>
@@ -12108,19 +12143,19 @@
         <v>0</v>
       </c>
       <c r="H92" s="13">
-        <v>0</v>
+        <v>30012072</v>
       </c>
       <c r="I92" s="13">
-        <v>30012072</v>
-      </c>
-      <c r="J92" s="13">
         <v>25192982</v>
       </c>
-      <c r="K92" s="13" t="s">
-        <v>57</v>
+      <c r="J92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K92" s="13">
+        <v>24000000</v>
       </c>
       <c r="L92" s="13">
-        <v>24000000</v>
+        <v>0</v>
       </c>
       <c r="M92" s="13">
         <v>0</v>
@@ -12138,26 +12173,26 @@
         <v>0</v>
       </c>
       <c r="R92" s="13">
-        <v>0</v>
+        <v>47000000</v>
       </c>
       <c r="S92" s="13">
-        <v>47000000</v>
+        <v>0</v>
       </c>
       <c r="T92" s="13">
-        <v>0</v>
+        <v>44589943</v>
       </c>
       <c r="U92" s="13">
-        <v>44589943</v>
+        <v>44571179</v>
       </c>
       <c r="V92" s="13">
-        <v>44571179</v>
+        <v>40495613</v>
       </c>
       <c r="W92" s="13">
-        <v>40495613</v>
-      </c>
-      <c r="X92" s="13">
         <v>40567362</v>
       </c>
+      <c r="X92" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y92" s="13" t="s">
         <v>57</v>
       </c>
@@ -12179,12 +12214,12 @@
       <c r="AE92" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF92" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG92" s="13">
+      <c r="AF92" s="13">
         <v>40452381</v>
       </c>
+      <c r="AG92" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH92" s="13" t="s">
         <v>57</v>
       </c>
@@ -12218,26 +12253,26 @@
       <c r="AR92" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS92" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT92" s="13">
+      <c r="AS92" s="13">
         <v>126111111</v>
       </c>
-      <c r="AU92" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV92" s="13">
+      <c r="AT92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU92" s="13">
         <v>70000000</v>
       </c>
-      <c r="AW92" s="13" t="s">
-        <v>57</v>
+      <c r="AV92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW92" s="13">
+        <v>0</v>
       </c>
       <c r="AX92" s="13">
         <v>0</v>
       </c>
-      <c r="AY92" s="13">
-        <v>0</v>
+      <c r="AY92" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AZ92" s="13" t="s">
         <v>57</v>
@@ -12249,7 +12284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>61</v>
       </c>
@@ -12264,62 +12299,62 @@
         <v>0</v>
       </c>
       <c r="G93" s="11">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="H93" s="11">
-        <v>1500000</v>
+        <v>1250125</v>
       </c>
       <c r="I93" s="11">
-        <v>1250125</v>
-      </c>
-      <c r="J93" s="11">
-        <v>0</v>
-      </c>
-      <c r="K93" s="11" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K93" s="11">
+        <v>1250027</v>
       </c>
       <c r="L93" s="11">
-        <v>1250027</v>
+        <v>1249966</v>
       </c>
       <c r="M93" s="11">
-        <v>1249966</v>
+        <v>1254153</v>
       </c>
       <c r="N93" s="11">
-        <v>1254153</v>
+        <v>2304352</v>
       </c>
       <c r="O93" s="11">
-        <v>2304352</v>
+        <v>0</v>
       </c>
       <c r="P93" s="11">
-        <v>0</v>
+        <v>1606356</v>
       </c>
       <c r="Q93" s="11">
-        <v>1606356</v>
+        <v>1595225</v>
       </c>
       <c r="R93" s="11">
-        <v>1595225</v>
+        <v>2003398</v>
       </c>
       <c r="S93" s="11">
-        <v>2003398</v>
+        <v>2035636</v>
       </c>
       <c r="T93" s="11">
-        <v>2035636</v>
+        <v>2217391</v>
       </c>
       <c r="U93" s="11">
-        <v>2217391</v>
-      </c>
-      <c r="V93" s="11">
         <v>2166667</v>
       </c>
-      <c r="W93" s="11" t="s">
-        <v>57</v>
+      <c r="V93" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W93" s="11">
+        <v>2050017</v>
       </c>
       <c r="X93" s="11">
-        <v>2050017</v>
-      </c>
-      <c r="Y93" s="11">
         <v>2050000</v>
       </c>
+      <c r="Y93" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Z93" s="11" t="s">
         <v>57</v>
       </c>
@@ -12408,7 +12443,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>62</v>
       </c>
@@ -12417,157 +12452,157 @@
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
-        <v>31071386</v>
+        <v>30400744</v>
       </c>
       <c r="F94" s="13">
-        <v>30400744</v>
+        <v>31975576</v>
       </c>
       <c r="G94" s="13">
-        <v>31975576</v>
+        <v>31631281</v>
       </c>
       <c r="H94" s="13">
-        <v>31631281</v>
+        <v>29260357</v>
       </c>
       <c r="I94" s="13">
-        <v>29260357</v>
+        <v>28216209</v>
       </c>
       <c r="J94" s="13">
-        <v>28216209</v>
+        <v>29801356</v>
       </c>
       <c r="K94" s="13">
-        <v>29801356</v>
+        <v>29885684</v>
       </c>
       <c r="L94" s="13">
-        <v>29885684</v>
+        <v>29900980</v>
       </c>
       <c r="M94" s="13">
-        <v>29900980</v>
+        <v>29382534</v>
       </c>
       <c r="N94" s="13">
-        <v>29382534</v>
+        <v>29889885</v>
       </c>
       <c r="O94" s="13">
-        <v>29889885</v>
+        <v>39231101</v>
       </c>
       <c r="P94" s="13">
-        <v>39231101</v>
+        <v>39489233</v>
       </c>
       <c r="Q94" s="13">
-        <v>39489233</v>
+        <v>40493424</v>
       </c>
       <c r="R94" s="13">
-        <v>40493424</v>
+        <v>44066248</v>
       </c>
       <c r="S94" s="13">
-        <v>44066248</v>
+        <v>44291245</v>
       </c>
       <c r="T94" s="13">
-        <v>44291245</v>
+        <v>44338419</v>
       </c>
       <c r="U94" s="13">
-        <v>44338419</v>
+        <v>40617318</v>
       </c>
       <c r="V94" s="13">
-        <v>40617318</v>
+        <v>7500000</v>
       </c>
       <c r="W94" s="13">
-        <v>7500000</v>
+        <v>39091667</v>
       </c>
       <c r="X94" s="13">
-        <v>39091667</v>
+        <v>62353277</v>
       </c>
       <c r="Y94" s="13">
-        <v>62353277</v>
+        <v>64086276</v>
       </c>
       <c r="Z94" s="13">
-        <v>64086276</v>
+        <v>62955814</v>
       </c>
       <c r="AA94" s="13">
-        <v>62955814</v>
+        <v>62014019</v>
       </c>
       <c r="AB94" s="13">
-        <v>62014019</v>
+        <v>64054759</v>
       </c>
       <c r="AC94" s="13">
-        <v>64054759</v>
+        <v>64486609</v>
       </c>
       <c r="AD94" s="13">
-        <v>64486609</v>
+        <v>67157975</v>
       </c>
       <c r="AE94" s="13">
-        <v>67157975</v>
+        <v>64980698</v>
       </c>
       <c r="AF94" s="13">
-        <v>64980698</v>
+        <v>62861421</v>
       </c>
       <c r="AG94" s="13">
-        <v>62861421</v>
+        <v>7484444</v>
       </c>
       <c r="AH94" s="13">
-        <v>7484444</v>
+        <v>68058824</v>
       </c>
       <c r="AI94" s="13">
-        <v>68058824</v>
+        <v>68095696</v>
       </c>
       <c r="AJ94" s="13">
-        <v>68095696</v>
+        <v>114506843</v>
       </c>
       <c r="AK94" s="13">
-        <v>114506843</v>
+        <v>120985594</v>
       </c>
       <c r="AL94" s="13">
-        <v>120985594</v>
+        <v>121908477</v>
       </c>
       <c r="AM94" s="13">
-        <v>121908477</v>
+        <v>125005629</v>
       </c>
       <c r="AN94" s="13">
-        <v>125005629</v>
+        <v>125549205</v>
       </c>
       <c r="AO94" s="13">
-        <v>125549205</v>
+        <v>125818969</v>
       </c>
       <c r="AP94" s="13">
-        <v>125818969</v>
+        <v>127503996</v>
       </c>
       <c r="AQ94" s="13">
-        <v>127503996</v>
+        <v>127133306</v>
       </c>
       <c r="AR94" s="13">
-        <v>127133306</v>
+        <v>129977598</v>
       </c>
       <c r="AS94" s="13">
-        <v>129977598</v>
-      </c>
-      <c r="AT94" s="13">
         <v>130313492</v>
       </c>
-      <c r="AU94" s="13" t="s">
-        <v>57</v>
+      <c r="AT94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU94" s="13">
+        <v>129782609</v>
       </c>
       <c r="AV94" s="13">
-        <v>129782609</v>
+        <v>179989822</v>
       </c>
       <c r="AW94" s="13">
-        <v>179989822</v>
+        <v>180037374</v>
       </c>
       <c r="AX94" s="13">
-        <v>180037374</v>
+        <v>182807822</v>
       </c>
       <c r="AY94" s="13">
-        <v>182807822</v>
+        <v>179677761</v>
       </c>
       <c r="AZ94" s="13">
-        <v>179677761</v>
+        <v>177110606</v>
       </c>
       <c r="BA94" s="13">
-        <v>177110606</v>
+        <v>176667642</v>
       </c>
       <c r="BB94" s="13">
-        <v>176667642</v>
+        <v>177927077</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>63</v>
       </c>
@@ -12588,11 +12623,11 @@
         <v>0</v>
       </c>
       <c r="I95" s="11">
-        <v>0</v>
-      </c>
-      <c r="J95" s="11">
         <v>17000000</v>
       </c>
+      <c r="J95" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="K95" s="11" t="s">
         <v>57</v>
       </c>
@@ -12650,12 +12685,12 @@
       <c r="AC95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD95" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE95" s="11">
+      <c r="AD95" s="11">
         <v>42000000</v>
       </c>
+      <c r="AE95" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AF95" s="11" t="s">
         <v>57</v>
       </c>
@@ -12726,7 +12761,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>67</v>
       </c>
@@ -12749,8 +12784,8 @@
       <c r="I96" s="13">
         <v>0</v>
       </c>
-      <c r="J96" s="13">
-        <v>0</v>
+      <c r="J96" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="K96" s="13" t="s">
         <v>57</v>
@@ -12885,7 +12920,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>68</v>
       </c>
@@ -12894,149 +12929,149 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
+        <v>1181818</v>
+      </c>
+      <c r="F97" s="11">
+        <v>1195522</v>
+      </c>
+      <c r="G97" s="11">
+        <v>1199029</v>
+      </c>
+      <c r="H97" s="11">
+        <v>1199570</v>
+      </c>
+      <c r="I97" s="11">
+        <v>1199170</v>
+      </c>
+      <c r="J97" s="11">
+        <v>1199816</v>
+      </c>
+      <c r="K97" s="11">
+        <v>1200000</v>
+      </c>
+      <c r="L97" s="11">
+        <v>1208000</v>
+      </c>
+      <c r="M97" s="11">
+        <v>1061224</v>
+      </c>
+      <c r="N97" s="11">
         <v>1000000</v>
       </c>
-      <c r="F97" s="11">
-        <v>1181818</v>
-      </c>
-      <c r="G97" s="11">
-        <v>1195522</v>
-      </c>
-      <c r="H97" s="11">
-        <v>1199029</v>
-      </c>
-      <c r="I97" s="11">
-        <v>1199570</v>
-      </c>
-      <c r="J97" s="11">
-        <v>1199170</v>
-      </c>
-      <c r="K97" s="11">
-        <v>1199816</v>
-      </c>
-      <c r="L97" s="11">
+      <c r="O97" s="11">
+        <v>0</v>
+      </c>
+      <c r="P97" s="11">
+        <v>1023148</v>
+      </c>
+      <c r="Q97" s="11">
+        <v>1078189</v>
+      </c>
+      <c r="R97" s="11">
+        <v>1175627</v>
+      </c>
+      <c r="S97" s="11">
+        <v>1199305</v>
+      </c>
+      <c r="T97" s="11">
+        <v>1199910</v>
+      </c>
+      <c r="U97" s="11">
+        <v>0</v>
+      </c>
+      <c r="V97" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W97" s="11">
+        <v>1201681</v>
+      </c>
+      <c r="X97" s="11">
+        <v>1201220</v>
+      </c>
+      <c r="Y97" s="11">
+        <v>1179487</v>
+      </c>
+      <c r="Z97" s="11">
+        <v>1001618</v>
+      </c>
+      <c r="AA97" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="AB97" s="11">
+        <v>1001835</v>
+      </c>
+      <c r="AC97" s="11">
+        <v>1006024</v>
+      </c>
+      <c r="AD97" s="11">
+        <v>1173684</v>
+      </c>
+      <c r="AE97" s="11">
+        <v>1197201</v>
+      </c>
+      <c r="AF97" s="11">
+        <v>1199490</v>
+      </c>
+      <c r="AG97" s="11">
+        <v>1199859</v>
+      </c>
+      <c r="AH97" s="11">
         <v>1200000</v>
       </c>
-      <c r="M97" s="11">
-        <v>1208000</v>
-      </c>
-      <c r="N97" s="11">
-        <v>1061224</v>
-      </c>
-      <c r="O97" s="11">
+      <c r="AI97" s="11">
+        <v>1195122</v>
+      </c>
+      <c r="AJ97" s="11">
+        <v>6383838</v>
+      </c>
+      <c r="AK97" s="11">
+        <v>6922719</v>
+      </c>
+      <c r="AL97" s="11">
+        <v>7001133</v>
+      </c>
+      <c r="AM97" s="11">
+        <v>6868499</v>
+      </c>
+      <c r="AN97" s="11">
         <v>1000000</v>
       </c>
-      <c r="P97" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="11">
-        <v>1023148</v>
-      </c>
-      <c r="R97" s="11">
-        <v>1078189</v>
-      </c>
-      <c r="S97" s="11">
-        <v>1175627</v>
-      </c>
-      <c r="T97" s="11">
-        <v>1199305</v>
-      </c>
-      <c r="U97" s="11">
-        <v>1199910</v>
-      </c>
-      <c r="V97" s="11">
-        <v>0</v>
-      </c>
-      <c r="W97" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X97" s="11">
-        <v>1201681</v>
-      </c>
-      <c r="Y97" s="11">
-        <v>1201220</v>
-      </c>
-      <c r="Z97" s="11">
-        <v>1179487</v>
-      </c>
-      <c r="AA97" s="11">
-        <v>1001618</v>
-      </c>
-      <c r="AB97" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="AC97" s="11">
-        <v>1001835</v>
-      </c>
-      <c r="AD97" s="11">
-        <v>1006024</v>
-      </c>
-      <c r="AE97" s="11">
-        <v>1173684</v>
-      </c>
-      <c r="AF97" s="11">
-        <v>1197201</v>
-      </c>
-      <c r="AG97" s="11">
-        <v>1199490</v>
-      </c>
-      <c r="AH97" s="11">
-        <v>1199859</v>
-      </c>
-      <c r="AI97" s="11">
-        <v>1200000</v>
-      </c>
-      <c r="AJ97" s="11">
-        <v>1195122</v>
-      </c>
-      <c r="AK97" s="11">
-        <v>6383838</v>
-      </c>
-      <c r="AL97" s="11">
-        <v>6922719</v>
-      </c>
-      <c r="AM97" s="11">
-        <v>7001133</v>
-      </c>
-      <c r="AN97" s="11">
-        <v>6868499</v>
-      </c>
-      <c r="AO97" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="AP97" s="11" t="s">
-        <v>57</v>
+      <c r="AO97" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP97" s="11">
+        <v>7058824</v>
       </c>
       <c r="AQ97" s="11">
-        <v>7058824</v>
+        <v>6994286</v>
       </c>
       <c r="AR97" s="11">
-        <v>6994286</v>
+        <v>7002746</v>
       </c>
       <c r="AS97" s="11">
-        <v>7002746</v>
-      </c>
-      <c r="AT97" s="11">
         <v>6999301</v>
       </c>
-      <c r="AU97" s="11" t="s">
-        <v>57</v>
+      <c r="AT97" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU97" s="11">
+        <v>2000000</v>
       </c>
       <c r="AV97" s="11">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="AW97" s="11">
+        <v>7996779</v>
+      </c>
+      <c r="AX97" s="11">
         <v>8000000</v>
       </c>
-      <c r="AX97" s="11">
-        <v>7996779</v>
-      </c>
       <c r="AY97" s="11">
-        <v>8000000</v>
-      </c>
-      <c r="AZ97" s="11">
         <v>7995363</v>
       </c>
+      <c r="AZ97" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="BA97" s="11" t="s">
         <v>57</v>
       </c>
@@ -13044,7 +13079,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>69</v>
       </c>
@@ -13100,11 +13135,11 @@
       <c r="T98" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U98" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V98" s="13">
-        <v>0</v>
+      <c r="U98" s="13">
+        <v>0</v>
+      </c>
+      <c r="V98" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="W98" s="13" t="s">
         <v>57</v>
@@ -13203,7 +13238,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>70</v>
       </c>
@@ -13298,41 +13333,41 @@
       <c r="AG99" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH99" s="11" t="s">
-        <v>57</v>
+      <c r="AH99" s="11">
+        <v>7666667</v>
       </c>
       <c r="AI99" s="11">
+        <v>7562500</v>
+      </c>
+      <c r="AJ99" s="11">
+        <v>6750000</v>
+      </c>
+      <c r="AK99" s="11">
+        <v>19785276</v>
+      </c>
+      <c r="AL99" s="11">
+        <v>8666667</v>
+      </c>
+      <c r="AM99" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN99" s="11">
         <v>7666667</v>
       </c>
-      <c r="AJ99" s="11">
-        <v>7562500</v>
-      </c>
-      <c r="AK99" s="11">
-        <v>6750000</v>
-      </c>
-      <c r="AL99" s="11">
-        <v>19785276</v>
-      </c>
-      <c r="AM99" s="11">
-        <v>8666667</v>
-      </c>
-      <c r="AN99" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO99" s="11">
-        <v>7666667</v>
-      </c>
-      <c r="AP99" s="11" t="s">
-        <v>57</v>
+      <c r="AO99" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP99" s="11">
+        <v>19680261</v>
       </c>
       <c r="AQ99" s="11">
-        <v>19680261</v>
+        <v>20000000</v>
       </c>
       <c r="AR99" s="11">
-        <v>20000000</v>
-      </c>
-      <c r="AS99" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS99" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT99" s="11" t="s">
         <v>57</v>
@@ -13346,23 +13381,23 @@
       <c r="AW99" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX99" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY99" s="11">
+      <c r="AX99" s="11">
         <v>22031690</v>
       </c>
+      <c r="AY99" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AZ99" s="11" t="s">
         <v>57</v>
       </c>
       <c r="BA99" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BB99" s="11" t="s">
-        <v>57</v>
+      <c r="BB99" s="11">
+        <v>22000000</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>86</v>
       </c>
@@ -13419,7 +13454,7 @@
       <c r="BA100" s="9"/>
       <c r="BB100" s="9"/>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>61</v>
       </c>
@@ -13487,53 +13522,53 @@
       <c r="X101" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y101" s="11" t="s">
-        <v>57</v>
+      <c r="Y101" s="11">
+        <v>2656551</v>
       </c>
       <c r="Z101" s="11">
-        <v>2656551</v>
+        <v>0</v>
       </c>
       <c r="AA101" s="11">
-        <v>0</v>
+        <v>2169900</v>
       </c>
       <c r="AB101" s="11">
-        <v>2169900</v>
+        <v>2170012</v>
       </c>
       <c r="AC101" s="11">
-        <v>2170012</v>
+        <v>2170394</v>
       </c>
       <c r="AD101" s="11">
-        <v>2170394</v>
+        <v>2170505</v>
       </c>
       <c r="AE101" s="11">
-        <v>2170505</v>
+        <v>2169953</v>
       </c>
       <c r="AF101" s="11">
-        <v>2169953</v>
+        <v>2170123</v>
       </c>
       <c r="AG101" s="11">
-        <v>2170123</v>
+        <v>0</v>
       </c>
       <c r="AH101" s="11">
         <v>0</v>
       </c>
       <c r="AI101" s="11">
-        <v>0</v>
+        <v>3302731</v>
       </c>
       <c r="AJ101" s="11">
-        <v>3302731</v>
+        <v>3956550</v>
       </c>
       <c r="AK101" s="11">
-        <v>3956550</v>
+        <v>3992195</v>
       </c>
       <c r="AL101" s="11">
-        <v>3992195</v>
+        <v>3626400</v>
       </c>
       <c r="AM101" s="11">
-        <v>3626400</v>
+        <v>3549704</v>
       </c>
       <c r="AN101" s="11">
-        <v>3549704</v>
+        <v>4000000</v>
       </c>
       <c r="AO101" s="11">
         <v>4000000</v>
@@ -13542,40 +13577,40 @@
         <v>4000000</v>
       </c>
       <c r="AQ101" s="11">
-        <v>4000000</v>
+        <v>4002467</v>
       </c>
       <c r="AR101" s="11">
-        <v>4002467</v>
+        <v>4000198</v>
       </c>
       <c r="AS101" s="11">
-        <v>4000198</v>
-      </c>
-      <c r="AT101" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU101" s="11" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AT101" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU101" s="11">
+        <v>6521739</v>
       </c>
       <c r="AV101" s="11">
-        <v>6521739</v>
+        <v>6162631</v>
       </c>
       <c r="AW101" s="11">
-        <v>6162631</v>
+        <v>6194960</v>
       </c>
       <c r="AX101" s="11">
-        <v>6194960</v>
+        <v>7643463</v>
       </c>
       <c r="AY101" s="11">
-        <v>7643463</v>
+        <v>0</v>
       </c>
       <c r="AZ101" s="11">
-        <v>0</v>
+        <v>8300398</v>
       </c>
       <c r="BA101" s="11">
-        <v>8300398</v>
+        <v>8073025</v>
       </c>
       <c r="BB101" s="11">
-        <v>8073025</v>
+        <v>8375661</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghand/ghesafha/product/monthly.xlsx
+++ b/database/industries/ghand/ghesafha/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghand\ghesafha\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8410C7F2-1992-4EEB-B51F-B885B926516C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB587E24-C9DD-4096-8F3A-73B0C61A87EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قصفها-قنداصفهان‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>تفاله تر</t>
@@ -763,12 +763,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -823,7 +823,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -992,7 +992,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1161,7 +1161,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1373,7 +1373,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1522,50 +1522,50 @@
       <c r="AF11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH11" s="11" t="s">
-        <v>57</v>
+      <c r="AG11" s="11">
+        <v>633</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>1274</v>
       </c>
       <c r="AI11" s="11">
-        <v>633</v>
+        <v>857</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1274</v>
+        <v>634</v>
       </c>
       <c r="AK11" s="11">
-        <v>857</v>
+        <v>162</v>
       </c>
       <c r="AL11" s="11">
-        <v>634</v>
+        <v>2464</v>
       </c>
       <c r="AM11" s="11">
-        <v>162</v>
+        <v>2825</v>
       </c>
       <c r="AN11" s="11">
-        <v>2464</v>
+        <v>3629</v>
       </c>
       <c r="AO11" s="11">
-        <v>2825</v>
+        <v>2212</v>
       </c>
       <c r="AP11" s="11">
-        <v>3629</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>2212</v>
+        <v>99</v>
+      </c>
+      <c r="AQ11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS11" s="11" t="s">
-        <v>57</v>
+      <c r="AS11" s="11">
+        <v>1070</v>
       </c>
       <c r="AT11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU11" s="11">
-        <v>1070</v>
+      <c r="AU11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV11" s="11" t="s">
         <v>57</v>
@@ -1589,7 +1589,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1598,157 +1598,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>2869</v>
+        <v>5725</v>
       </c>
       <c r="F12" s="13">
-        <v>6181</v>
+        <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>5725</v>
+        <v>0</v>
       </c>
       <c r="H12" s="13">
         <v>0</v>
       </c>
       <c r="I12" s="13">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="J12" s="13">
-        <v>0</v>
+        <v>4150</v>
       </c>
       <c r="K12" s="13">
-        <v>1050</v>
+        <v>1615</v>
       </c>
       <c r="L12" s="13">
-        <v>4150</v>
+        <v>170</v>
       </c>
       <c r="M12" s="13">
-        <v>1615</v>
+        <v>0</v>
       </c>
       <c r="N12" s="13">
-        <v>170</v>
+        <v>3680</v>
       </c>
       <c r="O12" s="13">
-        <v>0</v>
+        <v>6795</v>
       </c>
       <c r="P12" s="13">
-        <v>3680</v>
+        <v>2725</v>
       </c>
       <c r="Q12" s="13">
-        <v>6795</v>
+        <v>1632</v>
       </c>
       <c r="R12" s="13">
-        <v>2725</v>
+        <v>0</v>
       </c>
       <c r="S12" s="13">
-        <v>1632</v>
-      </c>
-      <c r="T12" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="U12" s="13">
-        <v>0</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>57</v>
+        <v>2576</v>
+      </c>
+      <c r="V12" s="13">
+        <v>5692</v>
       </c>
       <c r="W12" s="13">
-        <v>2576</v>
+        <v>1068</v>
       </c>
       <c r="X12" s="13">
-        <v>5692</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="13">
-        <v>1068</v>
+        <v>518</v>
       </c>
       <c r="Z12" s="13">
-        <v>0</v>
+        <v>5957</v>
       </c>
       <c r="AA12" s="13">
+        <v>7546</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>3513</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>2718</v>
+      </c>
+      <c r="AD12" s="13">
         <v>518</v>
       </c>
-      <c r="AB12" s="13">
-        <v>5957</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>7546</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>3513</v>
-      </c>
       <c r="AE12" s="13">
-        <v>2718</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="13">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="13">
-        <v>0</v>
+        <v>3950</v>
       </c>
       <c r="AH12" s="13">
-        <v>0</v>
+        <v>4883</v>
       </c>
       <c r="AI12" s="13">
-        <v>3950</v>
+        <v>1667</v>
       </c>
       <c r="AJ12" s="13">
-        <v>4883</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="13">
-        <v>1667</v>
+        <v>866</v>
       </c>
       <c r="AL12" s="13">
-        <v>0</v>
+        <v>5934</v>
       </c>
       <c r="AM12" s="13">
-        <v>866</v>
+        <v>4084</v>
       </c>
       <c r="AN12" s="13">
-        <v>5934</v>
+        <v>5426</v>
       </c>
       <c r="AO12" s="13">
-        <v>4084</v>
+        <v>3193</v>
       </c>
       <c r="AP12" s="13">
-        <v>5426</v>
+        <v>707</v>
       </c>
       <c r="AQ12" s="13">
-        <v>3193</v>
+        <v>1500</v>
       </c>
       <c r="AR12" s="13">
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="13">
-        <v>1500</v>
+        <v>1710</v>
       </c>
       <c r="AT12" s="13">
-        <v>0</v>
+        <v>4738</v>
       </c>
       <c r="AU12" s="13">
-        <v>1710</v>
+        <v>3080</v>
       </c>
       <c r="AV12" s="13">
-        <v>4738</v>
+        <v>2</v>
       </c>
       <c r="AW12" s="13">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="13">
-        <v>2</v>
+        <v>5940</v>
       </c>
       <c r="AY12" s="13">
-        <v>0</v>
+        <v>6358</v>
       </c>
       <c r="AZ12" s="13">
-        <v>5940</v>
+        <v>6107</v>
       </c>
       <c r="BA12" s="13">
-        <v>6358</v>
+        <v>3363</v>
       </c>
       <c r="BB12" s="13">
-        <v>6107</v>
+        <v>1908</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1757,157 +1757,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>1179</v>
+        <v>887</v>
       </c>
       <c r="F13" s="11">
-        <v>465</v>
+        <v>1853</v>
       </c>
       <c r="G13" s="11">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11">
-        <v>1853</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="J13" s="11">
-        <v>0</v>
+        <v>1192</v>
       </c>
       <c r="K13" s="11">
-        <v>1050</v>
+        <v>1776</v>
       </c>
       <c r="L13" s="11">
-        <v>1192</v>
+        <v>0</v>
       </c>
       <c r="M13" s="11">
-        <v>1776</v>
+        <v>0</v>
       </c>
       <c r="N13" s="11">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="O13" s="11">
-        <v>0</v>
+        <v>1414</v>
       </c>
       <c r="P13" s="11">
-        <v>1040</v>
+        <v>2073</v>
       </c>
       <c r="Q13" s="11">
-        <v>1414</v>
+        <v>366</v>
       </c>
       <c r="R13" s="11">
-        <v>2073</v>
+        <v>136</v>
       </c>
       <c r="S13" s="11">
-        <v>366</v>
+        <v>659</v>
       </c>
       <c r="T13" s="11">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="U13" s="11">
-        <v>659</v>
+        <v>900</v>
       </c>
       <c r="V13" s="11">
-        <v>0</v>
+        <v>2386</v>
       </c>
       <c r="W13" s="11">
-        <v>900</v>
+        <v>922</v>
       </c>
       <c r="X13" s="11">
-        <v>2386</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="11">
-        <v>922</v>
+        <v>332</v>
       </c>
       <c r="Z13" s="11">
-        <v>0</v>
+        <v>1939</v>
       </c>
       <c r="AA13" s="11">
-        <v>332</v>
+        <v>2561</v>
       </c>
       <c r="AB13" s="11">
-        <v>1939</v>
+        <v>1433</v>
       </c>
       <c r="AC13" s="11">
-        <v>2561</v>
+        <v>1727</v>
       </c>
       <c r="AD13" s="11">
-        <v>1433</v>
+        <v>563</v>
       </c>
       <c r="AE13" s="11">
-        <v>1727</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="11">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="11">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="AH13" s="11">
-        <v>0</v>
+        <v>3202</v>
       </c>
       <c r="AI13" s="11">
-        <v>591</v>
+        <v>2577</v>
       </c>
       <c r="AJ13" s="11">
-        <v>3202</v>
+        <v>1502</v>
       </c>
       <c r="AK13" s="11">
-        <v>2577</v>
+        <v>227</v>
       </c>
       <c r="AL13" s="11">
-        <v>1502</v>
+        <v>1960</v>
       </c>
       <c r="AM13" s="11">
-        <v>227</v>
+        <v>2030</v>
       </c>
       <c r="AN13" s="11">
-        <v>1960</v>
+        <v>1805</v>
       </c>
       <c r="AO13" s="11">
-        <v>2030</v>
+        <v>2145</v>
       </c>
       <c r="AP13" s="11">
-        <v>1805</v>
+        <v>1348</v>
       </c>
       <c r="AQ13" s="11">
-        <v>2145</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="11">
-        <v>1348</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="11">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AT13" s="11">
-        <v>0</v>
+        <v>2035</v>
       </c>
       <c r="AU13" s="11">
-        <v>300</v>
+        <v>3165</v>
       </c>
       <c r="AV13" s="11">
-        <v>2035</v>
+        <v>1648</v>
       </c>
       <c r="AW13" s="11">
-        <v>3165</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="11">
-        <v>1648</v>
+        <v>1600</v>
       </c>
       <c r="AY13" s="11">
-        <v>0</v>
+        <v>2060</v>
       </c>
       <c r="AZ13" s="11">
-        <v>1600</v>
+        <v>2270</v>
       </c>
       <c r="BA13" s="11">
-        <v>2060</v>
+        <v>2870</v>
       </c>
       <c r="BB13" s="11">
-        <v>2270</v>
+        <v>1778</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1924,14 +1924,14 @@
       <c r="G14" s="13">
         <v>0</v>
       </c>
-      <c r="H14" s="13">
-        <v>0</v>
+      <c r="H14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="I14" s="13">
         <v>0</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>57</v>
+      <c r="J14" s="13">
+        <v>0</v>
       </c>
       <c r="K14" s="13">
         <v>0</v>
@@ -1955,16 +1955,16 @@
         <v>0</v>
       </c>
       <c r="R14" s="13">
-        <v>0</v>
+        <v>20680</v>
       </c>
       <c r="S14" s="13">
-        <v>0</v>
+        <v>8747</v>
       </c>
       <c r="T14" s="13">
-        <v>20680</v>
+        <v>0</v>
       </c>
       <c r="U14" s="13">
-        <v>8747</v>
+        <v>0</v>
       </c>
       <c r="V14" s="13">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2075,65 +2075,65 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="11">
-        <v>0</v>
+        <v>9979</v>
       </c>
       <c r="G15" s="11">
-        <v>2</v>
-      </c>
-      <c r="H15" s="11">
-        <v>9979</v>
+        <v>0</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>57</v>
+        <v>18314</v>
+      </c>
+      <c r="J15" s="11">
+        <v>14650</v>
       </c>
       <c r="K15" s="11">
-        <v>18314</v>
+        <v>18481</v>
       </c>
       <c r="L15" s="11">
-        <v>14650</v>
+        <v>11421</v>
       </c>
       <c r="M15" s="11">
-        <v>18481</v>
+        <v>0</v>
       </c>
       <c r="N15" s="11">
-        <v>11421</v>
+        <v>2360</v>
       </c>
       <c r="O15" s="11">
-        <v>0</v>
+        <v>5655</v>
       </c>
       <c r="P15" s="11">
-        <v>2360</v>
+        <v>12362</v>
       </c>
       <c r="Q15" s="11">
-        <v>5655</v>
+        <v>10018</v>
       </c>
       <c r="R15" s="11">
-        <v>12362</v>
+        <v>23</v>
       </c>
       <c r="S15" s="11">
-        <v>10018</v>
-      </c>
-      <c r="T15" s="11">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U15" s="11">
-        <v>42</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W15" s="11">
         <v>17494</v>
       </c>
-      <c r="X15" s="11">
+      <c r="V15" s="11">
         <v>8340</v>
       </c>
+      <c r="W15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y15" s="11" t="s">
         <v>57</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2234,157 +2234,157 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>14115</v>
+        <v>11094</v>
       </c>
       <c r="F16" s="13">
-        <v>13374</v>
+        <v>3991</v>
       </c>
       <c r="G16" s="13">
-        <v>11094</v>
+        <v>0</v>
       </c>
       <c r="H16" s="13">
-        <v>3991</v>
+        <v>0</v>
       </c>
       <c r="I16" s="13">
-        <v>0</v>
+        <v>1645</v>
       </c>
       <c r="J16" s="13">
-        <v>0</v>
+        <v>6622</v>
       </c>
       <c r="K16" s="13">
-        <v>1645</v>
+        <v>2663</v>
       </c>
       <c r="L16" s="13">
-        <v>6622</v>
+        <v>0</v>
       </c>
       <c r="M16" s="13">
-        <v>2663</v>
+        <v>0</v>
       </c>
       <c r="N16" s="13">
-        <v>0</v>
+        <v>6755</v>
       </c>
       <c r="O16" s="13">
-        <v>0</v>
+        <v>12156</v>
       </c>
       <c r="P16" s="13">
-        <v>6755</v>
+        <v>5736</v>
       </c>
       <c r="Q16" s="13">
-        <v>12156</v>
+        <v>2921</v>
       </c>
       <c r="R16" s="13">
-        <v>5736</v>
+        <v>0</v>
       </c>
       <c r="S16" s="13">
-        <v>2921</v>
+        <v>0</v>
       </c>
       <c r="T16" s="13">
         <v>0</v>
       </c>
       <c r="U16" s="13">
-        <v>0</v>
+        <v>4489</v>
       </c>
       <c r="V16" s="13">
-        <v>0</v>
+        <v>9534</v>
       </c>
       <c r="W16" s="13">
-        <v>4489</v>
+        <v>2769</v>
       </c>
       <c r="X16" s="13">
-        <v>9534</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="13">
-        <v>2769</v>
+        <v>807</v>
       </c>
       <c r="Z16" s="13">
-        <v>0</v>
+        <v>11956</v>
       </c>
       <c r="AA16" s="13">
-        <v>807</v>
+        <v>13972</v>
       </c>
       <c r="AB16" s="13">
-        <v>11956</v>
+        <v>10135</v>
       </c>
       <c r="AC16" s="13">
-        <v>13972</v>
+        <v>6360</v>
       </c>
       <c r="AD16" s="13">
-        <v>10135</v>
+        <v>732</v>
       </c>
       <c r="AE16" s="13">
-        <v>6360</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="13">
-        <v>732</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="13">
-        <v>0</v>
+        <v>7185</v>
       </c>
       <c r="AH16" s="13">
-        <v>0</v>
+        <v>8990</v>
       </c>
       <c r="AI16" s="13">
-        <v>7185</v>
+        <v>3513</v>
       </c>
       <c r="AJ16" s="13">
-        <v>8990</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="13">
-        <v>3513</v>
+        <v>1565</v>
       </c>
       <c r="AL16" s="13">
-        <v>0</v>
+        <v>10585</v>
       </c>
       <c r="AM16" s="13">
-        <v>1565</v>
+        <v>14551</v>
       </c>
       <c r="AN16" s="13">
-        <v>10585</v>
+        <v>12171</v>
       </c>
       <c r="AO16" s="13">
-        <v>14551</v>
+        <v>7298</v>
       </c>
       <c r="AP16" s="13">
-        <v>12171</v>
+        <v>479</v>
       </c>
       <c r="AQ16" s="13">
-        <v>7298</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="13">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="AS16" s="13">
-        <v>0</v>
+        <v>2852</v>
       </c>
       <c r="AT16" s="13">
-        <v>0</v>
+        <v>8504</v>
       </c>
       <c r="AU16" s="13">
-        <v>2852</v>
+        <v>4796</v>
       </c>
       <c r="AV16" s="13">
-        <v>8504</v>
+        <v>0</v>
       </c>
       <c r="AW16" s="13">
-        <v>4447</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="13">
-        <v>0</v>
+        <v>11159</v>
       </c>
       <c r="AY16" s="13">
-        <v>0</v>
+        <v>12852</v>
       </c>
       <c r="AZ16" s="13">
-        <v>11159</v>
+        <v>12892</v>
       </c>
       <c r="BA16" s="13">
-        <v>12852</v>
+        <v>7436</v>
       </c>
       <c r="BB16" s="13">
-        <v>12892</v>
+        <v>2573</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2401,11 +2401,11 @@
       <c r="G17" s="11">
         <v>0</v>
       </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
+      <c r="H17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>57</v>
@@ -2461,11 +2461,11 @@
       <c r="AA17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC17" s="11" t="s">
-        <v>57</v>
+      <c r="AB17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="11">
+        <v>0</v>
       </c>
       <c r="AD17" s="11">
         <v>0</v>
@@ -2540,10 +2540,10 @@
         <v>0</v>
       </c>
       <c r="BB17" s="11">
-        <v>0</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2650,11 +2650,11 @@
       <c r="AK18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM18" s="13" t="s">
-        <v>57</v>
+      <c r="AL18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>0</v>
       </c>
       <c r="AN18" s="13">
         <v>0</v>
@@ -2668,11 +2668,11 @@
       <c r="AQ18" s="13">
         <v>0</v>
       </c>
-      <c r="AR18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="13">
-        <v>0</v>
+      <c r="AR18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT18" s="13" t="s">
         <v>57</v>
@@ -2702,7 +2702,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2809,11 +2809,11 @@
       <c r="AK19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AL19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM19" s="11" t="s">
-        <v>57</v>
+      <c r="AL19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="11">
+        <v>0</v>
       </c>
       <c r="AN19" s="11">
         <v>0</v>
@@ -2827,11 +2827,11 @@
       <c r="AQ19" s="11">
         <v>0</v>
       </c>
-      <c r="AR19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>0</v>
+      <c r="AR19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT19" s="11" t="s">
         <v>57</v>
@@ -2861,7 +2861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2968,11 +2968,11 @@
       <c r="AK20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM20" s="13" t="s">
-        <v>57</v>
+      <c r="AL20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>0</v>
       </c>
       <c r="AN20" s="13">
         <v>0</v>
@@ -2986,11 +2986,11 @@
       <c r="AQ20" s="13">
         <v>0</v>
       </c>
-      <c r="AR20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="13">
-        <v>0</v>
+      <c r="AR20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT20" s="13" t="s">
         <v>57</v>
@@ -3020,7 +3020,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3037,11 +3037,11 @@
       <c r="G21" s="11">
         <v>0</v>
       </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0</v>
+      <c r="H21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>57</v>
@@ -3109,11 +3109,11 @@
       <c r="AE21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG21" s="11" t="s">
-        <v>57</v>
+      <c r="AF21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>0</v>
       </c>
       <c r="AH21" s="11">
         <v>0</v>
@@ -3124,11 +3124,11 @@
       <c r="AJ21" s="11">
         <v>0</v>
       </c>
-      <c r="AK21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="11">
-        <v>0</v>
+      <c r="AK21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AM21" s="11" t="s">
         <v>57</v>
@@ -3179,7 +3179,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
@@ -3188,16 +3188,16 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="13">
-        <v>1394</v>
+        <v>1114</v>
       </c>
       <c r="G22" s="13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H22" s="13">
-        <v>1114</v>
+        <v>0</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
@@ -3232,14 +3232,14 @@
       <c r="S22" s="13">
         <v>0</v>
       </c>
-      <c r="T22" s="13">
-        <v>0</v>
+      <c r="T22" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="U22" s="13">
         <v>0</v>
       </c>
-      <c r="V22" s="13" t="s">
-        <v>57</v>
+      <c r="V22" s="13">
+        <v>0</v>
       </c>
       <c r="W22" s="13">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
@@ -3388,14 +3388,14 @@
       <c r="R23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S23" s="11" t="s">
-        <v>57</v>
+      <c r="S23" s="11">
+        <v>0</v>
       </c>
       <c r="T23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U23" s="11">
-        <v>0</v>
+      <c r="U23" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V23" s="11" t="s">
         <v>57</v>
@@ -3424,14 +3424,14 @@
       <c r="AD23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE23" s="11" t="s">
-        <v>57</v>
+      <c r="AE23" s="11">
+        <v>0</v>
       </c>
       <c r="AF23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG23" s="11">
-        <v>0</v>
+      <c r="AG23" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH23" s="11" t="s">
         <v>57</v>
@@ -3497,7 +3497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>70</v>
       </c>
@@ -3586,11 +3586,11 @@
       <c r="AE24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG24" s="13" t="s">
-        <v>57</v>
+      <c r="AF24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="13">
+        <v>0</v>
       </c>
       <c r="AH24" s="13">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>71</v>
       </c>
@@ -3713,7 +3713,7 @@
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>61</v>
       </c>
@@ -3775,104 +3775,104 @@
       <c r="V26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W26" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X26" s="11" t="s">
-        <v>57</v>
+      <c r="W26" s="11">
+        <v>2076</v>
+      </c>
+      <c r="X26" s="11">
+        <v>0</v>
       </c>
       <c r="Y26" s="11">
-        <v>2076</v>
+        <v>7010</v>
       </c>
       <c r="Z26" s="11">
-        <v>0</v>
+        <v>6676</v>
       </c>
       <c r="AA26" s="11">
-        <v>7010</v>
+        <v>1878</v>
       </c>
       <c r="AB26" s="11">
-        <v>6676</v>
+        <v>8293</v>
       </c>
       <c r="AC26" s="11">
-        <v>1878</v>
+        <v>13186</v>
       </c>
       <c r="AD26" s="11">
-        <v>8293</v>
+        <v>8970</v>
       </c>
       <c r="AE26" s="11">
-        <v>13186</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="11">
-        <v>8970</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="11">
-        <v>0</v>
+        <v>10947</v>
       </c>
       <c r="AH26" s="11">
-        <v>0</v>
+        <v>7618</v>
       </c>
       <c r="AI26" s="11">
-        <v>10947</v>
+        <v>13197</v>
       </c>
       <c r="AJ26" s="11">
-        <v>7618</v>
+        <v>17235</v>
       </c>
       <c r="AK26" s="11">
-        <v>13197</v>
+        <v>1690</v>
       </c>
       <c r="AL26" s="11">
-        <v>17235</v>
+        <v>6307</v>
       </c>
       <c r="AM26" s="11">
-        <v>1690</v>
+        <v>1678</v>
       </c>
       <c r="AN26" s="11">
-        <v>6307</v>
+        <v>4422</v>
       </c>
       <c r="AO26" s="11">
-        <v>1678</v>
+        <v>10538</v>
       </c>
       <c r="AP26" s="11">
-        <v>4422</v>
-      </c>
-      <c r="AQ26" s="11">
-        <v>10538</v>
-      </c>
-      <c r="AR26" s="11">
         <v>10082</v>
       </c>
-      <c r="AS26" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT26" s="11" t="s">
-        <v>57</v>
+      <c r="AQ26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS26" s="11">
+        <v>230</v>
+      </c>
+      <c r="AT26" s="11">
+        <v>5245</v>
       </c>
       <c r="AU26" s="11">
-        <v>230</v>
+        <v>11469</v>
       </c>
       <c r="AV26" s="11">
-        <v>5245</v>
-      </c>
-      <c r="AW26" s="11">
-        <v>11469</v>
+        <v>18259</v>
+      </c>
+      <c r="AW26" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX26" s="11">
-        <v>18259</v>
-      </c>
-      <c r="AY26" s="11" t="s">
-        <v>57</v>
+        <v>1255</v>
+      </c>
+      <c r="AY26" s="11">
+        <v>1342</v>
       </c>
       <c r="AZ26" s="11">
-        <v>1255</v>
+        <v>2646</v>
       </c>
       <c r="BA26" s="11">
-        <v>1342</v>
+        <v>6857</v>
       </c>
       <c r="BB26" s="11">
-        <v>2646</v>
+        <v>14455</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>72</v>
       </c>
@@ -3932,11 +3932,11 @@
       <c r="V27" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W27" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X27" s="15" t="s">
-        <v>57</v>
+      <c r="W27" s="15">
+        <v>0</v>
+      </c>
+      <c r="X27" s="15">
+        <v>0</v>
       </c>
       <c r="Y27" s="15">
         <v>0</v>
@@ -4029,164 +4029,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17">
-        <v>20163</v>
+        <v>18708</v>
       </c>
       <c r="F28" s="17">
-        <v>21414</v>
+        <v>16937</v>
       </c>
       <c r="G28" s="17">
-        <v>18708</v>
+        <v>0</v>
       </c>
       <c r="H28" s="17">
-        <v>16937</v>
+        <v>0</v>
       </c>
       <c r="I28" s="17">
-        <v>0</v>
+        <v>22059</v>
       </c>
       <c r="J28" s="17">
-        <v>0</v>
+        <v>26614</v>
       </c>
       <c r="K28" s="17">
-        <v>22059</v>
+        <v>24535</v>
       </c>
       <c r="L28" s="17">
-        <v>26614</v>
+        <v>11591</v>
       </c>
       <c r="M28" s="17">
-        <v>24535</v>
+        <v>0</v>
       </c>
       <c r="N28" s="17">
-        <v>11591</v>
+        <v>13835</v>
       </c>
       <c r="O28" s="17">
-        <v>0</v>
+        <v>26020</v>
       </c>
       <c r="P28" s="17">
-        <v>13835</v>
+        <v>22896</v>
       </c>
       <c r="Q28" s="17">
-        <v>26020</v>
+        <v>14937</v>
       </c>
       <c r="R28" s="17">
-        <v>22896</v>
+        <v>20839</v>
       </c>
       <c r="S28" s="17">
-        <v>14937</v>
+        <v>9448</v>
       </c>
       <c r="T28" s="17">
-        <v>20839</v>
+        <v>0</v>
       </c>
       <c r="U28" s="17">
-        <v>9448</v>
+        <v>25459</v>
       </c>
       <c r="V28" s="17">
-        <v>0</v>
+        <v>25952</v>
       </c>
       <c r="W28" s="17">
-        <v>25459</v>
+        <v>6835</v>
       </c>
       <c r="X28" s="17">
-        <v>25952</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="17">
-        <v>6835</v>
+        <v>8667</v>
       </c>
       <c r="Z28" s="17">
-        <v>0</v>
+        <v>26528</v>
       </c>
       <c r="AA28" s="17">
-        <v>8667</v>
+        <v>25957</v>
       </c>
       <c r="AB28" s="17">
-        <v>26528</v>
+        <v>23374</v>
       </c>
       <c r="AC28" s="17">
-        <v>25957</v>
+        <v>23991</v>
       </c>
       <c r="AD28" s="17">
-        <v>23374</v>
+        <v>10783</v>
       </c>
       <c r="AE28" s="17">
-        <v>23991</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="17">
-        <v>10783</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="17">
-        <v>0</v>
+        <v>23306</v>
       </c>
       <c r="AH28" s="17">
-        <v>0</v>
+        <v>25967</v>
       </c>
       <c r="AI28" s="17">
-        <v>23306</v>
+        <v>21811</v>
       </c>
       <c r="AJ28" s="17">
-        <v>25967</v>
+        <v>19371</v>
       </c>
       <c r="AK28" s="17">
-        <v>21811</v>
+        <v>4510</v>
       </c>
       <c r="AL28" s="17">
-        <v>19371</v>
+        <v>27250</v>
       </c>
       <c r="AM28" s="17">
-        <v>4510</v>
+        <v>25168</v>
       </c>
       <c r="AN28" s="17">
-        <v>27250</v>
+        <v>27453</v>
       </c>
       <c r="AO28" s="17">
-        <v>25168</v>
+        <v>25386</v>
       </c>
       <c r="AP28" s="17">
-        <v>27453</v>
+        <v>12715</v>
       </c>
       <c r="AQ28" s="17">
-        <v>25386</v>
+        <v>1500</v>
       </c>
       <c r="AR28" s="17">
-        <v>12616</v>
+        <v>0</v>
       </c>
       <c r="AS28" s="17">
-        <v>1500</v>
+        <v>6162</v>
       </c>
       <c r="AT28" s="17">
-        <v>0</v>
+        <v>20522</v>
       </c>
       <c r="AU28" s="17">
-        <v>6162</v>
+        <v>22510</v>
       </c>
       <c r="AV28" s="17">
-        <v>20522</v>
+        <v>19909</v>
       </c>
       <c r="AW28" s="17">
-        <v>22161</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="17">
-        <v>19909</v>
+        <v>19954</v>
       </c>
       <c r="AY28" s="17">
-        <v>0</v>
+        <v>22612</v>
       </c>
       <c r="AZ28" s="17">
-        <v>19954</v>
+        <v>23915</v>
       </c>
       <c r="BA28" s="17">
-        <v>22612</v>
+        <v>20526</v>
       </c>
       <c r="BB28" s="17">
-        <v>23915</v>
+        <v>20961</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4241,7 +4241,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4296,7 +4296,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4351,7 +4351,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>74</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4563,7 +4563,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>74</v>
       </c>
@@ -4620,7 +4620,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
@@ -4712,50 +4712,50 @@
       <c r="AF35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH35" s="11" t="s">
-        <v>57</v>
+      <c r="AG35" s="11">
+        <v>633</v>
+      </c>
+      <c r="AH35" s="11">
+        <v>1274</v>
       </c>
       <c r="AI35" s="11">
-        <v>633</v>
+        <v>857</v>
       </c>
       <c r="AJ35" s="11">
-        <v>1274</v>
+        <v>634</v>
       </c>
       <c r="AK35" s="11">
-        <v>857</v>
+        <v>162</v>
       </c>
       <c r="AL35" s="11">
-        <v>634</v>
+        <v>2464</v>
       </c>
       <c r="AM35" s="11">
-        <v>162</v>
+        <v>2825</v>
       </c>
       <c r="AN35" s="11">
-        <v>2464</v>
+        <v>3629</v>
       </c>
       <c r="AO35" s="11">
-        <v>2825</v>
+        <v>2212</v>
       </c>
       <c r="AP35" s="11">
-        <v>3629</v>
-      </c>
-      <c r="AQ35" s="11">
-        <v>2212</v>
+        <v>99</v>
+      </c>
+      <c r="AQ35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS35" s="11" t="s">
-        <v>57</v>
+      <c r="AS35" s="11">
+        <v>1070</v>
       </c>
       <c r="AT35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU35" s="11">
-        <v>1070</v>
+      <c r="AU35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV35" s="11" t="s">
         <v>57</v>
@@ -4779,7 +4779,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>58</v>
       </c>
@@ -4788,157 +4788,157 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>3631</v>
+        <v>1616</v>
       </c>
       <c r="F36" s="13">
-        <v>4927</v>
+        <v>1824</v>
       </c>
       <c r="G36" s="13">
-        <v>1616</v>
+        <v>3205</v>
       </c>
       <c r="H36" s="13">
-        <v>1824</v>
+        <v>1335</v>
       </c>
       <c r="I36" s="13">
-        <v>3205</v>
+        <v>757</v>
       </c>
       <c r="J36" s="13">
-        <v>1335</v>
+        <v>1574</v>
       </c>
       <c r="K36" s="13">
-        <v>757</v>
+        <v>3196</v>
       </c>
       <c r="L36" s="13">
-        <v>1574</v>
+        <v>351</v>
       </c>
       <c r="M36" s="13">
-        <v>3196</v>
+        <v>0</v>
       </c>
       <c r="N36" s="13">
-        <v>351</v>
+        <v>481</v>
       </c>
       <c r="O36" s="13">
-        <v>0</v>
+        <v>3673</v>
       </c>
       <c r="P36" s="13">
-        <v>481</v>
+        <v>3959</v>
       </c>
       <c r="Q36" s="13">
-        <v>3673</v>
+        <v>1897</v>
       </c>
       <c r="R36" s="13">
-        <v>3959</v>
+        <v>442</v>
       </c>
       <c r="S36" s="13">
-        <v>1897</v>
-      </c>
-      <c r="T36" s="13">
-        <v>442</v>
+        <v>0</v>
+      </c>
+      <c r="T36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="U36" s="13">
-        <v>0</v>
-      </c>
-      <c r="V36" s="13" t="s">
-        <v>57</v>
+        <v>364</v>
+      </c>
+      <c r="V36" s="13">
+        <v>1083</v>
       </c>
       <c r="W36" s="13">
-        <v>364</v>
+        <v>1782</v>
       </c>
       <c r="X36" s="13">
-        <v>1083</v>
+        <v>1862</v>
       </c>
       <c r="Y36" s="13">
-        <v>1782</v>
+        <v>1802</v>
       </c>
       <c r="Z36" s="13">
-        <v>1862</v>
+        <v>2071</v>
       </c>
       <c r="AA36" s="13">
-        <v>1802</v>
+        <v>6210</v>
       </c>
       <c r="AB36" s="13">
-        <v>2071</v>
+        <v>4782</v>
       </c>
       <c r="AC36" s="13">
-        <v>6210</v>
+        <v>1067</v>
       </c>
       <c r="AD36" s="13">
-        <v>4782</v>
+        <v>63</v>
       </c>
       <c r="AE36" s="13">
-        <v>1067</v>
+        <v>10</v>
       </c>
       <c r="AF36" s="13">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="AG36" s="13">
-        <v>10</v>
+        <v>1767</v>
       </c>
       <c r="AH36" s="13">
-        <v>2</v>
+        <v>2223</v>
       </c>
       <c r="AI36" s="13">
-        <v>1767</v>
+        <v>3230</v>
       </c>
       <c r="AJ36" s="13">
-        <v>2223</v>
+        <v>547</v>
       </c>
       <c r="AK36" s="13">
-        <v>3230</v>
+        <v>161</v>
       </c>
       <c r="AL36" s="13">
-        <v>547</v>
+        <v>1238</v>
       </c>
       <c r="AM36" s="13">
-        <v>161</v>
+        <v>3671</v>
       </c>
       <c r="AN36" s="13">
-        <v>1238</v>
+        <v>4539</v>
       </c>
       <c r="AO36" s="13">
-        <v>3671</v>
+        <v>3719</v>
       </c>
       <c r="AP36" s="13">
-        <v>4539</v>
+        <v>2887</v>
       </c>
       <c r="AQ36" s="13">
-        <v>3719</v>
+        <v>261</v>
       </c>
       <c r="AR36" s="13">
-        <v>2887</v>
+        <v>3</v>
       </c>
       <c r="AS36" s="13">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="AT36" s="13">
-        <v>3</v>
+        <v>3058</v>
       </c>
       <c r="AU36" s="13">
-        <v>195</v>
+        <v>2259</v>
       </c>
       <c r="AV36" s="13">
-        <v>3058</v>
+        <v>333</v>
       </c>
       <c r="AW36" s="13">
-        <v>2259</v>
+        <v>0</v>
       </c>
       <c r="AX36" s="13">
-        <v>333</v>
+        <v>1670</v>
       </c>
       <c r="AY36" s="13">
-        <v>0</v>
+        <v>5536</v>
       </c>
       <c r="AZ36" s="13">
-        <v>1670</v>
+        <v>8259</v>
       </c>
       <c r="BA36" s="13">
-        <v>5536</v>
+        <v>432</v>
       </c>
       <c r="BB36" s="13">
-        <v>8259</v>
+        <v>923</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>59</v>
       </c>
@@ -4947,157 +4947,157 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>1575</v>
+        <v>181</v>
       </c>
       <c r="F37" s="11">
-        <v>678</v>
+        <v>865</v>
       </c>
       <c r="G37" s="11">
-        <v>181</v>
+        <v>1039</v>
       </c>
       <c r="H37" s="11">
-        <v>865</v>
+        <v>151</v>
       </c>
       <c r="I37" s="11">
-        <v>1039</v>
+        <v>728</v>
       </c>
       <c r="J37" s="11">
-        <v>151</v>
+        <v>333</v>
       </c>
       <c r="K37" s="11">
-        <v>728</v>
+        <v>1997</v>
       </c>
       <c r="L37" s="11">
-        <v>333</v>
+        <v>740</v>
       </c>
       <c r="M37" s="11">
-        <v>1997</v>
+        <v>1374</v>
       </c>
       <c r="N37" s="11">
-        <v>740</v>
+        <v>339</v>
       </c>
       <c r="O37" s="11">
-        <v>1374</v>
+        <v>996</v>
       </c>
       <c r="P37" s="11">
-        <v>339</v>
+        <v>2462</v>
       </c>
       <c r="Q37" s="11">
-        <v>996</v>
+        <v>475</v>
       </c>
       <c r="R37" s="11">
-        <v>2462</v>
+        <v>304</v>
       </c>
       <c r="S37" s="11">
-        <v>475</v>
+        <v>791</v>
       </c>
       <c r="T37" s="11">
-        <v>304</v>
+        <v>86</v>
       </c>
       <c r="U37" s="11">
-        <v>791</v>
+        <v>684</v>
       </c>
       <c r="V37" s="11">
-        <v>86</v>
+        <v>1818</v>
       </c>
       <c r="W37" s="11">
-        <v>684</v>
+        <v>867</v>
       </c>
       <c r="X37" s="11">
-        <v>1818</v>
+        <v>1040</v>
       </c>
       <c r="Y37" s="11">
-        <v>867</v>
+        <v>220</v>
       </c>
       <c r="Z37" s="11">
-        <v>1040</v>
+        <v>686</v>
       </c>
       <c r="AA37" s="11">
-        <v>220</v>
+        <v>1967</v>
       </c>
       <c r="AB37" s="11">
-        <v>686</v>
+        <v>1948</v>
       </c>
       <c r="AC37" s="11">
-        <v>1967</v>
+        <v>1984</v>
       </c>
       <c r="AD37" s="11">
-        <v>1948</v>
+        <v>975</v>
       </c>
       <c r="AE37" s="11">
-        <v>1984</v>
+        <v>656</v>
       </c>
       <c r="AF37" s="11">
-        <v>975</v>
+        <v>42</v>
       </c>
       <c r="AG37" s="11">
-        <v>656</v>
+        <v>346</v>
       </c>
       <c r="AH37" s="11">
-        <v>42</v>
+        <v>1299</v>
       </c>
       <c r="AI37" s="11">
-        <v>346</v>
+        <v>2532</v>
       </c>
       <c r="AJ37" s="11">
-        <v>1299</v>
+        <v>2267</v>
       </c>
       <c r="AK37" s="11">
-        <v>2532</v>
+        <v>1126</v>
       </c>
       <c r="AL37" s="11">
-        <v>2267</v>
+        <v>885</v>
       </c>
       <c r="AM37" s="11">
-        <v>1126</v>
+        <v>3428</v>
       </c>
       <c r="AN37" s="11">
-        <v>885</v>
+        <v>1607</v>
       </c>
       <c r="AO37" s="11">
-        <v>3428</v>
+        <v>1700</v>
       </c>
       <c r="AP37" s="11">
-        <v>1607</v>
+        <v>831</v>
       </c>
       <c r="AQ37" s="11">
-        <v>1700</v>
+        <v>1011</v>
       </c>
       <c r="AR37" s="11">
-        <v>831</v>
+        <v>323</v>
       </c>
       <c r="AS37" s="11">
-        <v>1011</v>
+        <v>98</v>
       </c>
       <c r="AT37" s="11">
-        <v>323</v>
+        <v>1507</v>
       </c>
       <c r="AU37" s="11">
-        <v>98</v>
+        <v>1876</v>
       </c>
       <c r="AV37" s="11">
-        <v>1507</v>
+        <v>1885</v>
       </c>
       <c r="AW37" s="11">
-        <v>1876</v>
+        <v>1326</v>
       </c>
       <c r="AX37" s="11">
-        <v>1885</v>
+        <v>1706</v>
       </c>
       <c r="AY37" s="11">
-        <v>1326</v>
+        <v>1845</v>
       </c>
       <c r="AZ37" s="11">
-        <v>1706</v>
+        <v>2418</v>
       </c>
       <c r="BA37" s="11">
-        <v>1845</v>
+        <v>2008</v>
       </c>
       <c r="BB37" s="11">
-        <v>2418</v>
+        <v>2094</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>60</v>
       </c>
@@ -5109,130 +5109,130 @@
         <v>0</v>
       </c>
       <c r="F38" s="13">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="G38" s="13">
-        <v>0</v>
-      </c>
-      <c r="H38" s="13">
-        <v>497</v>
+        <v>57</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="I38" s="13">
-        <v>57</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="J38" s="13">
+        <v>0</v>
       </c>
       <c r="K38" s="13">
+        <v>0</v>
+      </c>
+      <c r="L38" s="13">
+        <v>0</v>
+      </c>
+      <c r="M38" s="13">
+        <v>0</v>
+      </c>
+      <c r="N38" s="13">
+        <v>0</v>
+      </c>
+      <c r="O38" s="13">
+        <v>0</v>
+      </c>
+      <c r="P38" s="13">
         <v>1</v>
       </c>
-      <c r="L38" s="13">
-        <v>0</v>
-      </c>
-      <c r="M38" s="13">
-        <v>0</v>
-      </c>
-      <c r="N38" s="13">
-        <v>0</v>
-      </c>
-      <c r="O38" s="13">
-        <v>0</v>
-      </c>
-      <c r="P38" s="13">
-        <v>0</v>
-      </c>
       <c r="Q38" s="13">
         <v>0</v>
       </c>
       <c r="R38" s="13">
+        <v>7338</v>
+      </c>
+      <c r="S38" s="13">
+        <v>17189</v>
+      </c>
+      <c r="T38" s="13">
+        <v>3533</v>
+      </c>
+      <c r="U38" s="13">
+        <v>527</v>
+      </c>
+      <c r="V38" s="13">
+        <v>0</v>
+      </c>
+      <c r="W38" s="13">
+        <v>0</v>
+      </c>
+      <c r="X38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="13">
+        <v>840</v>
+      </c>
+      <c r="AE38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="13">
+        <v>27</v>
+      </c>
+      <c r="AR38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="13">
         <v>1</v>
       </c>
-      <c r="S38" s="13">
-        <v>0</v>
-      </c>
-      <c r="T38" s="13">
-        <v>7338</v>
-      </c>
-      <c r="U38" s="13">
-        <v>17189</v>
-      </c>
-      <c r="V38" s="13">
-        <v>3533</v>
-      </c>
-      <c r="W38" s="13">
-        <v>527</v>
-      </c>
-      <c r="X38" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="13">
-        <v>840</v>
-      </c>
-      <c r="AG38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS38" s="13">
-        <v>27</v>
-      </c>
       <c r="AT38" s="13">
         <v>0</v>
       </c>
       <c r="AU38" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV38" s="13">
         <v>0</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>61</v>
       </c>
@@ -5265,65 +5265,65 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" s="11">
-        <v>0</v>
+        <v>9979</v>
       </c>
       <c r="G39" s="11">
-        <v>2</v>
-      </c>
-      <c r="H39" s="11">
-        <v>9979</v>
+        <v>0</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I39" s="11">
-        <v>0</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>57</v>
+        <v>18314</v>
+      </c>
+      <c r="J39" s="11">
+        <v>14650</v>
       </c>
       <c r="K39" s="11">
-        <v>18314</v>
+        <v>18481</v>
       </c>
       <c r="L39" s="11">
-        <v>14650</v>
+        <v>11421</v>
       </c>
       <c r="M39" s="11">
-        <v>18481</v>
+        <v>0</v>
       </c>
       <c r="N39" s="11">
-        <v>11421</v>
+        <v>2360</v>
       </c>
       <c r="O39" s="11">
-        <v>0</v>
+        <v>5655</v>
       </c>
       <c r="P39" s="11">
-        <v>2360</v>
+        <v>12362</v>
       </c>
       <c r="Q39" s="11">
-        <v>5655</v>
+        <v>10018</v>
       </c>
       <c r="R39" s="11">
-        <v>12362</v>
+        <v>23</v>
       </c>
       <c r="S39" s="11">
-        <v>10018</v>
-      </c>
-      <c r="T39" s="11">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="T39" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U39" s="11">
-        <v>42</v>
-      </c>
-      <c r="V39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W39" s="11">
         <v>17494</v>
       </c>
-      <c r="X39" s="11">
+      <c r="V39" s="11">
         <v>8340</v>
       </c>
+      <c r="W39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X39" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y39" s="11" t="s">
         <v>57</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>62</v>
       </c>
@@ -5424,157 +5424,157 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>6720</v>
+        <v>3184</v>
       </c>
       <c r="F40" s="13">
-        <v>6510</v>
+        <v>5093</v>
       </c>
       <c r="G40" s="13">
+        <v>3862</v>
+      </c>
+      <c r="H40" s="13">
+        <v>1475</v>
+      </c>
+      <c r="I40" s="13">
+        <v>6587</v>
+      </c>
+      <c r="J40" s="13">
+        <v>1939</v>
+      </c>
+      <c r="K40" s="13">
+        <v>813</v>
+      </c>
+      <c r="L40" s="13">
+        <v>10825</v>
+      </c>
+      <c r="M40" s="13">
+        <v>7183</v>
+      </c>
+      <c r="N40" s="13">
+        <v>3808</v>
+      </c>
+      <c r="O40" s="13">
+        <v>7527</v>
+      </c>
+      <c r="P40" s="13">
+        <v>11155</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>6328</v>
+      </c>
+      <c r="R40" s="13">
+        <v>2163</v>
+      </c>
+      <c r="S40" s="13">
+        <v>358</v>
+      </c>
+      <c r="T40" s="13">
+        <v>14</v>
+      </c>
+      <c r="U40" s="13">
+        <v>240</v>
+      </c>
+      <c r="V40" s="13">
+        <v>5783</v>
+      </c>
+      <c r="W40" s="13">
+        <v>9458</v>
+      </c>
+      <c r="X40" s="13">
+        <v>1290</v>
+      </c>
+      <c r="Y40" s="13">
+        <v>214</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>9551</v>
+      </c>
+      <c r="AA40" s="13">
+        <v>8364</v>
+      </c>
+      <c r="AB40" s="13">
+        <v>8495</v>
+      </c>
+      <c r="AC40" s="13">
+        <v>10206</v>
+      </c>
+      <c r="AD40" s="13">
+        <v>4207</v>
+      </c>
+      <c r="AE40" s="13">
+        <v>225</v>
+      </c>
+      <c r="AF40" s="13">
+        <v>34</v>
+      </c>
+      <c r="AG40" s="13">
+        <v>3532</v>
+      </c>
+      <c r="AH40" s="13">
+        <v>2265</v>
+      </c>
+      <c r="AI40" s="13">
+        <v>7358</v>
+      </c>
+      <c r="AJ40" s="13">
+        <v>2371</v>
+      </c>
+      <c r="AK40" s="13">
+        <v>7817</v>
+      </c>
+      <c r="AL40" s="13">
+        <v>9186</v>
+      </c>
+      <c r="AM40" s="13">
+        <v>9120</v>
+      </c>
+      <c r="AN40" s="13">
+        <v>11262</v>
+      </c>
+      <c r="AO40" s="13">
+        <v>14523</v>
+      </c>
+      <c r="AP40" s="13">
+        <v>965</v>
+      </c>
+      <c r="AQ40" s="13">
+        <v>252</v>
+      </c>
+      <c r="AR40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="13">
+        <v>46</v>
+      </c>
+      <c r="AT40" s="13">
+        <v>5109</v>
+      </c>
+      <c r="AU40" s="13">
         <v>3184</v>
       </c>
-      <c r="H40" s="13">
-        <v>5093</v>
-      </c>
-      <c r="I40" s="13">
-        <v>3862</v>
-      </c>
-      <c r="J40" s="13">
-        <v>1475</v>
-      </c>
-      <c r="K40" s="13">
-        <v>6587</v>
-      </c>
-      <c r="L40" s="13">
-        <v>1939</v>
-      </c>
-      <c r="M40" s="13">
-        <v>813</v>
-      </c>
-      <c r="N40" s="13">
-        <v>10825</v>
-      </c>
-      <c r="O40" s="13">
-        <v>7183</v>
-      </c>
-      <c r="P40" s="13">
-        <v>3808</v>
-      </c>
-      <c r="Q40" s="13">
-        <v>7527</v>
-      </c>
-      <c r="R40" s="13">
-        <v>11155</v>
-      </c>
-      <c r="S40" s="13">
-        <v>6328</v>
-      </c>
-      <c r="T40" s="13">
-        <v>2163</v>
-      </c>
-      <c r="U40" s="13">
-        <v>358</v>
-      </c>
-      <c r="V40" s="13">
-        <v>14</v>
-      </c>
-      <c r="W40" s="13">
-        <v>240</v>
-      </c>
-      <c r="X40" s="13">
-        <v>5783</v>
-      </c>
-      <c r="Y40" s="13">
-        <v>9458</v>
-      </c>
-      <c r="Z40" s="13">
-        <v>1290</v>
-      </c>
-      <c r="AA40" s="13">
-        <v>214</v>
-      </c>
-      <c r="AB40" s="13">
-        <v>9551</v>
-      </c>
-      <c r="AC40" s="13">
-        <v>8364</v>
-      </c>
-      <c r="AD40" s="13">
-        <v>8495</v>
-      </c>
-      <c r="AE40" s="13">
-        <v>10206</v>
-      </c>
-      <c r="AF40" s="13">
-        <v>4207</v>
-      </c>
-      <c r="AG40" s="13">
-        <v>225</v>
-      </c>
-      <c r="AH40" s="13">
-        <v>34</v>
-      </c>
-      <c r="AI40" s="13">
-        <v>3532</v>
-      </c>
-      <c r="AJ40" s="13">
-        <v>2265</v>
-      </c>
-      <c r="AK40" s="13">
-        <v>7358</v>
-      </c>
-      <c r="AL40" s="13">
-        <v>2371</v>
-      </c>
-      <c r="AM40" s="13">
-        <v>7817</v>
-      </c>
-      <c r="AN40" s="13">
-        <v>9186</v>
-      </c>
-      <c r="AO40" s="13">
-        <v>9120</v>
-      </c>
-      <c r="AP40" s="13">
-        <v>11262</v>
-      </c>
-      <c r="AQ40" s="13">
-        <v>14523</v>
-      </c>
-      <c r="AR40" s="13">
-        <v>965</v>
-      </c>
-      <c r="AS40" s="13">
-        <v>252</v>
-      </c>
-      <c r="AT40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU40" s="13">
-        <v>46</v>
-      </c>
       <c r="AV40" s="13">
-        <v>5109</v>
+        <v>3025</v>
       </c>
       <c r="AW40" s="13">
-        <v>3184</v>
+        <v>1983</v>
       </c>
       <c r="AX40" s="13">
-        <v>3025</v>
+        <v>10560</v>
       </c>
       <c r="AY40" s="13">
-        <v>1983</v>
+        <v>7519</v>
       </c>
       <c r="AZ40" s="13">
-        <v>10560</v>
+        <v>3538</v>
       </c>
       <c r="BA40" s="13">
-        <v>7519</v>
+        <v>13980</v>
       </c>
       <c r="BB40" s="13">
-        <v>3538</v>
+        <v>10468</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>63</v>
       </c>
@@ -5589,14 +5589,14 @@
         <v>0</v>
       </c>
       <c r="G41" s="11">
-        <v>0</v>
-      </c>
-      <c r="H41" s="11">
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
         <v>1</v>
       </c>
+      <c r="H41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J41" s="11" t="s">
         <v>57</v>
       </c>
@@ -5651,14 +5651,14 @@
       <c r="AA41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC41" s="11" t="s">
-        <v>57</v>
+      <c r="AB41" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="11">
+        <v>0</v>
       </c>
       <c r="AD41" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="11">
         <v>0</v>
@@ -5730,10 +5730,10 @@
         <v>0</v>
       </c>
       <c r="BB41" s="11">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>64</v>
       </c>
@@ -5840,11 +5840,11 @@
       <c r="AK42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL42" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM42" s="13" t="s">
-        <v>57</v>
+      <c r="AL42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="13">
+        <v>0</v>
       </c>
       <c r="AN42" s="13">
         <v>0</v>
@@ -5858,11 +5858,11 @@
       <c r="AQ42" s="13">
         <v>0</v>
       </c>
-      <c r="AR42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS42" s="13">
-        <v>0</v>
+      <c r="AR42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT42" s="13" t="s">
         <v>57</v>
@@ -5892,7 +5892,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>65</v>
       </c>
@@ -5999,11 +5999,11 @@
       <c r="AK43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AL43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM43" s="11" t="s">
-        <v>57</v>
+      <c r="AL43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="11">
+        <v>0</v>
       </c>
       <c r="AN43" s="11">
         <v>0</v>
@@ -6017,11 +6017,11 @@
       <c r="AQ43" s="11">
         <v>0</v>
       </c>
-      <c r="AR43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS43" s="11">
-        <v>0</v>
+      <c r="AR43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS43" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT43" s="11" t="s">
         <v>57</v>
@@ -6051,7 +6051,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>66</v>
       </c>
@@ -6158,11 +6158,11 @@
       <c r="AK44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL44" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM44" s="13" t="s">
-        <v>57</v>
+      <c r="AL44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="13">
+        <v>0</v>
       </c>
       <c r="AN44" s="13">
         <v>0</v>
@@ -6176,11 +6176,11 @@
       <c r="AQ44" s="13">
         <v>0</v>
       </c>
-      <c r="AR44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS44" s="13">
-        <v>0</v>
+      <c r="AR44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS44" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT44" s="13" t="s">
         <v>57</v>
@@ -6210,7 +6210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>67</v>
       </c>
@@ -6227,11 +6227,11 @@
       <c r="G45" s="11">
         <v>0</v>
       </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>0</v>
+      <c r="H45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>57</v>
@@ -6299,11 +6299,11 @@
       <c r="AE45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG45" s="11" t="s">
-        <v>57</v>
+      <c r="AF45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="11">
+        <v>0</v>
       </c>
       <c r="AH45" s="11">
         <v>0</v>
@@ -6314,11 +6314,11 @@
       <c r="AJ45" s="11">
         <v>0</v>
       </c>
-      <c r="AK45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="11">
-        <v>0</v>
+      <c r="AK45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL45" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AM45" s="11" t="s">
         <v>57</v>
@@ -6369,7 +6369,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>68</v>
       </c>
@@ -6378,145 +6378,145 @@
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13">
-        <v>11</v>
+        <v>1854</v>
       </c>
       <c r="F46" s="13">
-        <v>670</v>
+        <v>1859</v>
       </c>
       <c r="G46" s="13">
-        <v>1854</v>
+        <v>1687</v>
       </c>
       <c r="H46" s="13">
-        <v>1859</v>
+        <v>1086</v>
       </c>
       <c r="I46" s="13">
-        <v>1687</v>
+        <v>720</v>
       </c>
       <c r="J46" s="13">
-        <v>1086</v>
+        <v>125</v>
       </c>
       <c r="K46" s="13">
-        <v>720</v>
+        <v>245</v>
       </c>
       <c r="L46" s="13">
-        <v>125</v>
+        <v>1335</v>
       </c>
       <c r="M46" s="13">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="N46" s="13">
-        <v>1335</v>
+        <v>216</v>
       </c>
       <c r="O46" s="13">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="P46" s="13">
-        <v>216</v>
+        <v>558</v>
       </c>
       <c r="Q46" s="13">
-        <v>486</v>
+        <v>863</v>
       </c>
       <c r="R46" s="13">
-        <v>558</v>
+        <v>2216</v>
       </c>
       <c r="S46" s="13">
-        <v>863</v>
-      </c>
-      <c r="T46" s="13">
-        <v>2216</v>
+        <v>0</v>
+      </c>
+      <c r="T46" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="U46" s="13">
-        <v>0</v>
-      </c>
-      <c r="V46" s="13" t="s">
-        <v>57</v>
+        <v>119</v>
+      </c>
+      <c r="V46" s="13">
+        <v>164</v>
       </c>
       <c r="W46" s="13">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="X46" s="13">
+        <v>1236</v>
+      </c>
+      <c r="Y46" s="13">
+        <v>696</v>
+      </c>
+      <c r="Z46" s="13">
+        <v>545</v>
+      </c>
+      <c r="AA46" s="13">
+        <v>166</v>
+      </c>
+      <c r="AB46" s="13">
+        <v>190</v>
+      </c>
+      <c r="AC46" s="13">
+        <v>1572</v>
+      </c>
+      <c r="AD46" s="13">
+        <v>2747</v>
+      </c>
+      <c r="AE46" s="13">
+        <v>1421</v>
+      </c>
+      <c r="AF46" s="13">
+        <v>215</v>
+      </c>
+      <c r="AG46" s="13">
         <v>164</v>
       </c>
-      <c r="Y46" s="13">
-        <v>39</v>
-      </c>
-      <c r="Z46" s="13">
-        <v>1236</v>
-      </c>
-      <c r="AA46" s="13">
-        <v>696</v>
-      </c>
-      <c r="AB46" s="13">
-        <v>545</v>
-      </c>
-      <c r="AC46" s="13">
-        <v>166</v>
-      </c>
-      <c r="AD46" s="13">
-        <v>190</v>
-      </c>
-      <c r="AE46" s="13">
-        <v>1572</v>
-      </c>
-      <c r="AF46" s="13">
-        <v>2747</v>
-      </c>
-      <c r="AG46" s="13">
-        <v>1421</v>
-      </c>
       <c r="AH46" s="13">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="AI46" s="13">
-        <v>164</v>
+        <v>1074</v>
       </c>
       <c r="AJ46" s="13">
-        <v>297</v>
+        <v>883</v>
       </c>
       <c r="AK46" s="13">
-        <v>1074</v>
+        <v>1019</v>
       </c>
       <c r="AL46" s="13">
-        <v>883</v>
+        <v>1</v>
       </c>
       <c r="AM46" s="13">
-        <v>1019</v>
+        <v>0</v>
       </c>
       <c r="AN46" s="13">
+        <v>85</v>
+      </c>
+      <c r="AO46" s="13">
+        <v>875</v>
+      </c>
+      <c r="AP46" s="13">
+        <v>1821</v>
+      </c>
+      <c r="AQ46" s="13">
+        <v>4289</v>
+      </c>
+      <c r="AR46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="13">
         <v>1</v>
       </c>
-      <c r="AO46" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP46" s="13">
-        <v>85</v>
-      </c>
-      <c r="AQ46" s="13">
-        <v>875</v>
-      </c>
-      <c r="AR46" s="13">
-        <v>1821</v>
-      </c>
-      <c r="AS46" s="13">
-        <v>4289</v>
-      </c>
       <c r="AT46" s="13">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AU46" s="13">
-        <v>1</v>
+        <v>621</v>
       </c>
       <c r="AV46" s="13">
-        <v>120</v>
+        <v>810</v>
       </c>
       <c r="AW46" s="13">
-        <v>621</v>
+        <v>1294</v>
       </c>
       <c r="AX46" s="13">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="AY46" s="13">
-        <v>1294</v>
+        <v>0</v>
       </c>
       <c r="AZ46" s="13">
         <v>0</v>
@@ -6525,10 +6525,10 @@
         <v>0</v>
       </c>
       <c r="BB46" s="13">
-        <v>0</v>
+        <v>7211</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>69</v>
       </c>
@@ -6578,14 +6578,14 @@
       <c r="R47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S47" s="11" t="s">
-        <v>57</v>
+      <c r="S47" s="11">
+        <v>0</v>
       </c>
       <c r="T47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U47" s="11">
-        <v>0</v>
+      <c r="U47" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V47" s="11" t="s">
         <v>57</v>
@@ -6614,14 +6614,14 @@
       <c r="AD47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE47" s="11" t="s">
-        <v>57</v>
+      <c r="AE47" s="11">
+        <v>0</v>
       </c>
       <c r="AF47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG47" s="11">
-        <v>0</v>
+      <c r="AG47" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH47" s="11" t="s">
         <v>57</v>
@@ -6687,7 +6687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>70</v>
       </c>
@@ -6776,23 +6776,23 @@
       <c r="AE48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG48" s="13" t="s">
-        <v>57</v>
+      <c r="AF48" s="13">
+        <v>3</v>
+      </c>
+      <c r="AG48" s="13">
+        <v>16</v>
       </c>
       <c r="AH48" s="13">
+        <v>4</v>
+      </c>
+      <c r="AI48" s="13">
+        <v>326</v>
+      </c>
+      <c r="AJ48" s="13">
         <v>3</v>
       </c>
-      <c r="AI48" s="13">
-        <v>16</v>
-      </c>
-      <c r="AJ48" s="13">
-        <v>4</v>
-      </c>
       <c r="AK48" s="13">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="13">
         <v>3</v>
@@ -6801,16 +6801,16 @@
         <v>0</v>
       </c>
       <c r="AN48" s="13">
-        <v>3</v>
+        <v>613</v>
       </c>
       <c r="AO48" s="13">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AP48" s="13">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="AQ48" s="13">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AR48" s="13">
         <v>0</v>
@@ -6825,28 +6825,28 @@
         <v>0</v>
       </c>
       <c r="AV48" s="13">
-        <v>0</v>
+        <v>1552</v>
       </c>
       <c r="AW48" s="13">
         <v>0</v>
       </c>
       <c r="AX48" s="13">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="13">
         <v>0</v>
       </c>
       <c r="AZ48" s="13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BA48" s="13">
         <v>0</v>
       </c>
       <c r="BB48" s="13">
-        <v>100</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>71</v>
       </c>
@@ -6903,7 +6903,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>61</v>
       </c>
@@ -6965,104 +6965,104 @@
       <c r="V50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X50" s="11" t="s">
-        <v>57</v>
+      <c r="W50" s="11">
+        <v>2076</v>
+      </c>
+      <c r="X50" s="11">
+        <v>0</v>
       </c>
       <c r="Y50" s="11">
-        <v>2076</v>
+        <v>7010</v>
       </c>
       <c r="Z50" s="11">
-        <v>0</v>
+        <v>6676</v>
       </c>
       <c r="AA50" s="11">
-        <v>7010</v>
+        <v>1878</v>
       </c>
       <c r="AB50" s="11">
-        <v>6676</v>
+        <v>8293</v>
       </c>
       <c r="AC50" s="11">
-        <v>1878</v>
+        <v>13186</v>
       </c>
       <c r="AD50" s="11">
-        <v>8293</v>
+        <v>8970</v>
       </c>
       <c r="AE50" s="11">
-        <v>13186</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="11">
-        <v>8970</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="11">
-        <v>0</v>
+        <v>10947</v>
       </c>
       <c r="AH50" s="11">
-        <v>0</v>
+        <v>7618</v>
       </c>
       <c r="AI50" s="11">
-        <v>10947</v>
+        <v>13197</v>
       </c>
       <c r="AJ50" s="11">
-        <v>7618</v>
+        <v>17235</v>
       </c>
       <c r="AK50" s="11">
-        <v>13197</v>
+        <v>1690</v>
       </c>
       <c r="AL50" s="11">
-        <v>17235</v>
+        <v>6307</v>
       </c>
       <c r="AM50" s="11">
-        <v>1690</v>
+        <v>1678</v>
       </c>
       <c r="AN50" s="11">
-        <v>6307</v>
+        <v>4422</v>
       </c>
       <c r="AO50" s="11">
-        <v>1678</v>
+        <v>10538</v>
       </c>
       <c r="AP50" s="11">
-        <v>4422</v>
-      </c>
-      <c r="AQ50" s="11">
-        <v>10538</v>
-      </c>
-      <c r="AR50" s="11">
         <v>10082</v>
       </c>
-      <c r="AS50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT50" s="11" t="s">
-        <v>57</v>
+      <c r="AQ50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS50" s="11">
+        <v>230</v>
+      </c>
+      <c r="AT50" s="11">
+        <v>5245</v>
       </c>
       <c r="AU50" s="11">
-        <v>230</v>
+        <v>11469</v>
       </c>
       <c r="AV50" s="11">
-        <v>5245</v>
-      </c>
-      <c r="AW50" s="11">
-        <v>11469</v>
+        <v>18259</v>
+      </c>
+      <c r="AW50" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX50" s="11">
-        <v>18259</v>
-      </c>
-      <c r="AY50" s="11" t="s">
-        <v>57</v>
+        <v>1255</v>
+      </c>
+      <c r="AY50" s="11">
+        <v>1342</v>
       </c>
       <c r="AZ50" s="11">
-        <v>1255</v>
+        <v>2646</v>
       </c>
       <c r="BA50" s="11">
-        <v>1342</v>
+        <v>6857</v>
       </c>
       <c r="BB50" s="11">
-        <v>2646</v>
+        <v>14455</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>72</v>
       </c>
@@ -7122,104 +7122,104 @@
       <c r="V51" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W51" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X51" s="15" t="s">
-        <v>57</v>
+      <c r="W51" s="15">
+        <v>2076</v>
+      </c>
+      <c r="X51" s="15">
+        <v>0</v>
       </c>
       <c r="Y51" s="15">
-        <v>2076</v>
+        <v>7010</v>
       </c>
       <c r="Z51" s="15">
-        <v>0</v>
+        <v>6676</v>
       </c>
       <c r="AA51" s="15">
-        <v>7010</v>
+        <v>1878</v>
       </c>
       <c r="AB51" s="15">
-        <v>6676</v>
+        <v>8293</v>
       </c>
       <c r="AC51" s="15">
-        <v>1878</v>
+        <v>13186</v>
       </c>
       <c r="AD51" s="15">
-        <v>8293</v>
+        <v>8970</v>
       </c>
       <c r="AE51" s="15">
-        <v>13186</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="15">
-        <v>8970</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="15">
-        <v>0</v>
+        <v>10947</v>
       </c>
       <c r="AH51" s="15">
-        <v>0</v>
+        <v>7618</v>
       </c>
       <c r="AI51" s="15">
-        <v>10947</v>
+        <v>13197</v>
       </c>
       <c r="AJ51" s="15">
-        <v>7618</v>
+        <v>17235</v>
       </c>
       <c r="AK51" s="15">
-        <v>13197</v>
+        <v>1690</v>
       </c>
       <c r="AL51" s="15">
-        <v>17235</v>
+        <v>6307</v>
       </c>
       <c r="AM51" s="15">
-        <v>1690</v>
+        <v>1678</v>
       </c>
       <c r="AN51" s="15">
-        <v>6307</v>
+        <v>4422</v>
       </c>
       <c r="AO51" s="15">
-        <v>1678</v>
+        <v>10538</v>
       </c>
       <c r="AP51" s="15">
-        <v>4422</v>
+        <v>10082</v>
       </c>
       <c r="AQ51" s="15">
-        <v>10538</v>
+        <v>0</v>
       </c>
       <c r="AR51" s="15">
-        <v>10082</v>
+        <v>0</v>
       </c>
       <c r="AS51" s="15">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AT51" s="15">
-        <v>0</v>
+        <v>5245</v>
       </c>
       <c r="AU51" s="15">
-        <v>230</v>
+        <v>11469</v>
       </c>
       <c r="AV51" s="15">
-        <v>5245</v>
+        <v>18259</v>
       </c>
       <c r="AW51" s="15">
-        <v>11469</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="15">
-        <v>18259</v>
+        <v>1255</v>
       </c>
       <c r="AY51" s="15">
-        <v>0</v>
+        <v>1342</v>
       </c>
       <c r="AZ51" s="15">
-        <v>1255</v>
+        <v>2646</v>
       </c>
       <c r="BA51" s="15">
-        <v>1342</v>
+        <v>6857</v>
       </c>
       <c r="BB51" s="15">
-        <v>2646</v>
+        <v>14455</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
         <v>75</v>
       </c>
@@ -7276,7 +7276,7 @@
       <c r="BA52" s="19"/>
       <c r="BB52" s="19"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>76</v>
       </c>
@@ -7336,11 +7336,11 @@
       <c r="V53" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W53" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X53" s="17" t="s">
-        <v>57</v>
+      <c r="W53" s="17">
+        <v>0</v>
+      </c>
+      <c r="X53" s="17">
+        <v>0</v>
       </c>
       <c r="Y53" s="17">
         <v>0</v>
@@ -7433,164 +7433,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
         <v>73</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
-        <v>11937</v>
+        <v>6837</v>
       </c>
       <c r="F54" s="15">
-        <v>12785</v>
+        <v>20117</v>
       </c>
       <c r="G54" s="15">
-        <v>6837</v>
+        <v>9851</v>
       </c>
       <c r="H54" s="15">
-        <v>20117</v>
+        <v>4047</v>
       </c>
       <c r="I54" s="15">
-        <v>9851</v>
+        <v>27107</v>
       </c>
       <c r="J54" s="15">
-        <v>4047</v>
+        <v>18621</v>
       </c>
       <c r="K54" s="15">
-        <v>27107</v>
+        <v>24732</v>
       </c>
       <c r="L54" s="15">
-        <v>18621</v>
+        <v>24672</v>
       </c>
       <c r="M54" s="15">
-        <v>24732</v>
+        <v>8557</v>
       </c>
       <c r="N54" s="15">
-        <v>24672</v>
+        <v>7204</v>
       </c>
       <c r="O54" s="15">
-        <v>8557</v>
+        <v>18337</v>
       </c>
       <c r="P54" s="15">
-        <v>7204</v>
+        <v>30497</v>
       </c>
       <c r="Q54" s="15">
-        <v>18337</v>
+        <v>19581</v>
       </c>
       <c r="R54" s="15">
-        <v>30497</v>
+        <v>12486</v>
       </c>
       <c r="S54" s="15">
-        <v>19581</v>
+        <v>18380</v>
       </c>
       <c r="T54" s="15">
-        <v>12486</v>
+        <v>3633</v>
       </c>
       <c r="U54" s="15">
-        <v>18380</v>
+        <v>19428</v>
       </c>
       <c r="V54" s="15">
-        <v>3633</v>
+        <v>17188</v>
       </c>
       <c r="W54" s="15">
-        <v>19428</v>
+        <v>14222</v>
       </c>
       <c r="X54" s="15">
-        <v>17188</v>
+        <v>5428</v>
       </c>
       <c r="Y54" s="15">
-        <v>14222</v>
+        <v>9942</v>
       </c>
       <c r="Z54" s="15">
-        <v>5428</v>
+        <v>19529</v>
       </c>
       <c r="AA54" s="15">
-        <v>9942</v>
+        <v>18585</v>
       </c>
       <c r="AB54" s="15">
-        <v>19529</v>
+        <v>23709</v>
       </c>
       <c r="AC54" s="15">
-        <v>18585</v>
+        <v>28015</v>
       </c>
       <c r="AD54" s="15">
-        <v>23709</v>
+        <v>17802</v>
       </c>
       <c r="AE54" s="15">
-        <v>28015</v>
+        <v>2312</v>
       </c>
       <c r="AF54" s="15">
-        <v>17802</v>
+        <v>296</v>
       </c>
       <c r="AG54" s="15">
-        <v>2312</v>
+        <v>17405</v>
       </c>
       <c r="AH54" s="15">
-        <v>296</v>
+        <v>14980</v>
       </c>
       <c r="AI54" s="15">
-        <v>17405</v>
+        <v>28574</v>
       </c>
       <c r="AJ54" s="15">
-        <v>14980</v>
+        <v>23940</v>
       </c>
       <c r="AK54" s="15">
-        <v>28574</v>
+        <v>11975</v>
       </c>
       <c r="AL54" s="15">
-        <v>23940</v>
+        <v>20084</v>
       </c>
       <c r="AM54" s="15">
-        <v>11975</v>
+        <v>20722</v>
       </c>
       <c r="AN54" s="15">
-        <v>20084</v>
+        <v>26157</v>
       </c>
       <c r="AO54" s="15">
-        <v>20722</v>
+        <v>33687</v>
       </c>
       <c r="AP54" s="15">
-        <v>26157</v>
+        <v>16685</v>
       </c>
       <c r="AQ54" s="15">
-        <v>33687</v>
+        <v>5840</v>
       </c>
       <c r="AR54" s="15">
-        <v>16586</v>
+        <v>326</v>
       </c>
       <c r="AS54" s="15">
-        <v>5840</v>
+        <v>1641</v>
       </c>
       <c r="AT54" s="15">
-        <v>326</v>
+        <v>15039</v>
       </c>
       <c r="AU54" s="15">
-        <v>1641</v>
+        <v>19409</v>
       </c>
       <c r="AV54" s="15">
-        <v>15039</v>
+        <v>25864</v>
       </c>
       <c r="AW54" s="15">
-        <v>19409</v>
+        <v>4603</v>
       </c>
       <c r="AX54" s="15">
-        <v>24596</v>
+        <v>15191</v>
       </c>
       <c r="AY54" s="15">
-        <v>4603</v>
+        <v>16242</v>
       </c>
       <c r="AZ54" s="15">
-        <v>15191</v>
+        <v>16961</v>
       </c>
       <c r="BA54" s="15">
-        <v>16242</v>
+        <v>23277</v>
       </c>
       <c r="BB54" s="15">
-        <v>16961</v>
+        <v>35914</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7645,7 +7645,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -7700,7 +7700,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -7755,7 +7755,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>77</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7967,7 +7967,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>77</v>
       </c>
@@ -8024,7 +8024,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>55</v>
       </c>
@@ -8116,50 +8116,50 @@
       <c r="AF61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG61" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH61" s="11" t="s">
-        <v>57</v>
+      <c r="AG61" s="11">
+        <v>2693</v>
+      </c>
+      <c r="AH61" s="11">
+        <v>9989</v>
       </c>
       <c r="AI61" s="11">
+        <v>5693</v>
+      </c>
+      <c r="AJ61" s="11">
         <v>2693</v>
       </c>
-      <c r="AJ61" s="11">
-        <v>9989</v>
-      </c>
       <c r="AK61" s="11">
-        <v>5693</v>
+        <v>1194</v>
       </c>
       <c r="AL61" s="11">
-        <v>2693</v>
+        <v>17149</v>
       </c>
       <c r="AM61" s="11">
-        <v>1194</v>
+        <v>21718</v>
       </c>
       <c r="AN61" s="11">
-        <v>17149</v>
+        <v>29949</v>
       </c>
       <c r="AO61" s="11">
-        <v>21718</v>
+        <v>19778</v>
       </c>
       <c r="AP61" s="11">
-        <v>29949</v>
-      </c>
-      <c r="AQ61" s="11">
-        <v>19778</v>
+        <v>1013</v>
+      </c>
+      <c r="AQ61" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS61" s="11" t="s">
-        <v>57</v>
+      <c r="AS61" s="11">
+        <v>11342</v>
       </c>
       <c r="AT61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU61" s="11">
-        <v>11342</v>
+      <c r="AU61" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV61" s="11" t="s">
         <v>57</v>
@@ -8183,7 +8183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>58</v>
       </c>
@@ -8192,157 +8192,157 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>47385</v>
+        <v>26830</v>
       </c>
       <c r="F62" s="13">
-        <v>69137</v>
+        <v>31067</v>
       </c>
       <c r="G62" s="13">
-        <v>26830</v>
+        <v>54625</v>
       </c>
       <c r="H62" s="13">
-        <v>31067</v>
+        <v>22693</v>
       </c>
       <c r="I62" s="13">
-        <v>54625</v>
+        <v>14015</v>
       </c>
       <c r="J62" s="13">
-        <v>22693</v>
+        <v>33968</v>
       </c>
       <c r="K62" s="13">
-        <v>14015</v>
+        <v>68675</v>
       </c>
       <c r="L62" s="13">
-        <v>33968</v>
+        <v>7543</v>
       </c>
       <c r="M62" s="13">
-        <v>68675</v>
+        <v>0</v>
       </c>
       <c r="N62" s="13">
-        <v>7543</v>
+        <v>11668</v>
       </c>
       <c r="O62" s="13">
-        <v>0</v>
+        <v>90278</v>
       </c>
       <c r="P62" s="13">
-        <v>11668</v>
+        <v>97247</v>
       </c>
       <c r="Q62" s="13">
-        <v>90278</v>
+        <v>46770</v>
       </c>
       <c r="R62" s="13">
-        <v>97247</v>
+        <v>10935</v>
       </c>
       <c r="S62" s="13">
-        <v>46770</v>
-      </c>
-      <c r="T62" s="13">
-        <v>10935</v>
+        <v>0</v>
+      </c>
+      <c r="T62" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="U62" s="13">
-        <v>0</v>
-      </c>
-      <c r="V62" s="13" t="s">
-        <v>57</v>
+        <v>10236</v>
+      </c>
+      <c r="V62" s="13">
+        <v>30607</v>
       </c>
       <c r="W62" s="13">
-        <v>10236</v>
+        <v>50266</v>
       </c>
       <c r="X62" s="13">
-        <v>30607</v>
+        <v>52177</v>
       </c>
       <c r="Y62" s="13">
-        <v>50266</v>
+        <v>50452</v>
       </c>
       <c r="Z62" s="13">
-        <v>52177</v>
+        <v>56896</v>
       </c>
       <c r="AA62" s="13">
-        <v>50452</v>
+        <v>182991</v>
       </c>
       <c r="AB62" s="13">
-        <v>56896</v>
+        <v>145463</v>
       </c>
       <c r="AC62" s="13">
-        <v>182991</v>
+        <v>32396</v>
       </c>
       <c r="AD62" s="13">
-        <v>145463</v>
+        <v>1934</v>
       </c>
       <c r="AE62" s="13">
-        <v>32396</v>
+        <v>336</v>
       </c>
       <c r="AF62" s="13">
-        <v>1934</v>
+        <v>79</v>
       </c>
       <c r="AG62" s="13">
-        <v>336</v>
+        <v>79781</v>
       </c>
       <c r="AH62" s="13">
-        <v>79</v>
+        <v>107061</v>
       </c>
       <c r="AI62" s="13">
-        <v>79781</v>
+        <v>151197</v>
       </c>
       <c r="AJ62" s="13">
-        <v>107061</v>
+        <v>25440</v>
       </c>
       <c r="AK62" s="13">
-        <v>151197</v>
+        <v>7509</v>
       </c>
       <c r="AL62" s="13">
-        <v>25440</v>
+        <v>64340</v>
       </c>
       <c r="AM62" s="13">
-        <v>7509</v>
+        <v>190961</v>
       </c>
       <c r="AN62" s="13">
-        <v>64340</v>
+        <v>236074</v>
       </c>
       <c r="AO62" s="13">
-        <v>190961</v>
+        <v>193434</v>
       </c>
       <c r="AP62" s="13">
-        <v>236074</v>
+        <v>150143</v>
       </c>
       <c r="AQ62" s="13">
-        <v>193434</v>
+        <v>13636</v>
       </c>
       <c r="AR62" s="13">
-        <v>150143</v>
+        <v>156</v>
       </c>
       <c r="AS62" s="13">
-        <v>13636</v>
+        <v>14421</v>
       </c>
       <c r="AT62" s="13">
-        <v>156</v>
+        <v>250579</v>
       </c>
       <c r="AU62" s="13">
-        <v>14421</v>
+        <v>187481</v>
       </c>
       <c r="AV62" s="13">
-        <v>250579</v>
+        <v>27650</v>
       </c>
       <c r="AW62" s="13">
-        <v>187481</v>
+        <v>0</v>
       </c>
       <c r="AX62" s="13">
-        <v>27650</v>
+        <v>141984</v>
       </c>
       <c r="AY62" s="13">
-        <v>0</v>
+        <v>470489</v>
       </c>
       <c r="AZ62" s="13">
-        <v>141984</v>
+        <v>702021</v>
       </c>
       <c r="BA62" s="13">
-        <v>470489</v>
+        <v>36748</v>
       </c>
       <c r="BB62" s="13">
-        <v>702021</v>
+        <v>78380</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>59</v>
       </c>
@@ -8351,157 +8351,157 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>6770</v>
+        <v>1506</v>
       </c>
       <c r="F63" s="11">
-        <v>3275</v>
+        <v>10697</v>
       </c>
       <c r="G63" s="11">
-        <v>1506</v>
+        <v>13297</v>
       </c>
       <c r="H63" s="11">
-        <v>10697</v>
+        <v>2339</v>
       </c>
       <c r="I63" s="11">
-        <v>13297</v>
+        <v>12402</v>
       </c>
       <c r="J63" s="11">
-        <v>2339</v>
+        <v>6926</v>
       </c>
       <c r="K63" s="11">
-        <v>12402</v>
+        <v>42289</v>
       </c>
       <c r="L63" s="11">
-        <v>6926</v>
+        <v>16921</v>
       </c>
       <c r="M63" s="11">
-        <v>42289</v>
+        <v>30055</v>
       </c>
       <c r="N63" s="11">
-        <v>16921</v>
+        <v>7494</v>
       </c>
       <c r="O63" s="11">
-        <v>30055</v>
+        <v>22827</v>
       </c>
       <c r="P63" s="11">
-        <v>7494</v>
+        <v>56529</v>
       </c>
       <c r="Q63" s="11">
-        <v>22827</v>
+        <v>10922</v>
       </c>
       <c r="R63" s="11">
-        <v>56529</v>
+        <v>6989</v>
       </c>
       <c r="S63" s="11">
-        <v>10922</v>
+        <v>18094</v>
       </c>
       <c r="T63" s="11">
-        <v>6989</v>
+        <v>1989</v>
       </c>
       <c r="U63" s="11">
-        <v>18094</v>
+        <v>17311</v>
       </c>
       <c r="V63" s="11">
-        <v>1989</v>
+        <v>47077</v>
       </c>
       <c r="W63" s="11">
-        <v>17311</v>
+        <v>22457</v>
       </c>
       <c r="X63" s="11">
-        <v>47077</v>
+        <v>27047</v>
       </c>
       <c r="Y63" s="11">
-        <v>22457</v>
+        <v>5741</v>
       </c>
       <c r="Z63" s="11">
-        <v>27047</v>
+        <v>18367</v>
       </c>
       <c r="AA63" s="11">
-        <v>5741</v>
+        <v>53117</v>
       </c>
       <c r="AB63" s="11">
-        <v>18367</v>
+        <v>55129</v>
       </c>
       <c r="AC63" s="11">
-        <v>53117</v>
+        <v>61475</v>
       </c>
       <c r="AD63" s="11">
-        <v>55129</v>
+        <v>30465</v>
       </c>
       <c r="AE63" s="11">
-        <v>61475</v>
+        <v>21233</v>
       </c>
       <c r="AF63" s="11">
-        <v>30465</v>
+        <v>1381</v>
       </c>
       <c r="AG63" s="11">
-        <v>21233</v>
+        <v>13305</v>
       </c>
       <c r="AH63" s="11">
-        <v>1381</v>
+        <v>50903</v>
       </c>
       <c r="AI63" s="11">
-        <v>13305</v>
+        <v>89627</v>
       </c>
       <c r="AJ63" s="11">
-        <v>50903</v>
+        <v>78725</v>
       </c>
       <c r="AK63" s="11">
-        <v>89627</v>
+        <v>40157</v>
       </c>
       <c r="AL63" s="11">
-        <v>78725</v>
+        <v>31079</v>
       </c>
       <c r="AM63" s="11">
-        <v>40157</v>
+        <v>114048</v>
       </c>
       <c r="AN63" s="11">
-        <v>31079</v>
+        <v>51454</v>
       </c>
       <c r="AO63" s="11">
-        <v>114048</v>
+        <v>56038</v>
       </c>
       <c r="AP63" s="11">
-        <v>51454</v>
+        <v>30704</v>
       </c>
       <c r="AQ63" s="11">
-        <v>56038</v>
+        <v>40155</v>
       </c>
       <c r="AR63" s="11">
-        <v>30704</v>
+        <v>16095</v>
       </c>
       <c r="AS63" s="11">
-        <v>40155</v>
+        <v>5201</v>
       </c>
       <c r="AT63" s="11">
-        <v>16095</v>
+        <v>82896</v>
       </c>
       <c r="AU63" s="11">
-        <v>5201</v>
+        <v>103319</v>
       </c>
       <c r="AV63" s="11">
-        <v>82896</v>
+        <v>103885</v>
       </c>
       <c r="AW63" s="11">
-        <v>103319</v>
+        <v>73942</v>
       </c>
       <c r="AX63" s="11">
-        <v>103885</v>
+        <v>96172</v>
       </c>
       <c r="AY63" s="11">
-        <v>73942</v>
+        <v>103721</v>
       </c>
       <c r="AZ63" s="11">
-        <v>96172</v>
+        <v>135885</v>
       </c>
       <c r="BA63" s="11">
-        <v>103721</v>
+        <v>112409</v>
       </c>
       <c r="BB63" s="11">
-        <v>135885</v>
+        <v>117470</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>60</v>
       </c>
@@ -8513,22 +8513,22 @@
         <v>0</v>
       </c>
       <c r="F64" s="13">
-        <v>0</v>
+        <v>14916</v>
       </c>
       <c r="G64" s="13">
-        <v>0</v>
-      </c>
-      <c r="H64" s="13">
-        <v>14916</v>
+        <v>1436</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="I64" s="13">
-        <v>1436</v>
-      </c>
-      <c r="J64" s="13" t="s">
-        <v>57</v>
+        <v>24</v>
+      </c>
+      <c r="J64" s="13">
+        <v>0</v>
       </c>
       <c r="K64" s="13">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L64" s="13">
         <v>0</v>
@@ -8543,28 +8543,28 @@
         <v>0</v>
       </c>
       <c r="P64" s="13">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Q64" s="13">
         <v>0</v>
       </c>
       <c r="R64" s="13">
-        <v>47</v>
+        <v>327201</v>
       </c>
       <c r="S64" s="13">
-        <v>0</v>
+        <v>766134</v>
       </c>
       <c r="T64" s="13">
-        <v>327201</v>
+        <v>143071</v>
       </c>
       <c r="U64" s="13">
-        <v>766134</v>
+        <v>21379</v>
       </c>
       <c r="V64" s="13">
-        <v>143071</v>
+        <v>0</v>
       </c>
       <c r="W64" s="13">
-        <v>21379</v>
+        <v>0</v>
       </c>
       <c r="X64" s="13">
         <v>0</v>
@@ -8585,13 +8585,13 @@
         <v>0</v>
       </c>
       <c r="AD64" s="13">
-        <v>0</v>
+        <v>33980</v>
       </c>
       <c r="AE64" s="13">
         <v>0</v>
       </c>
       <c r="AF64" s="13">
-        <v>33980</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="13">
         <v>0</v>
@@ -8624,19 +8624,19 @@
         <v>0</v>
       </c>
       <c r="AQ64" s="13">
-        <v>0</v>
+        <v>3405</v>
       </c>
       <c r="AR64" s="13">
         <v>0</v>
       </c>
       <c r="AS64" s="13">
-        <v>3405</v>
+        <v>70</v>
       </c>
       <c r="AT64" s="13">
         <v>0</v>
       </c>
       <c r="AU64" s="13">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AV64" s="13">
         <v>0</v>
@@ -8660,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>61</v>
       </c>
@@ -8669,65 +8669,65 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65" s="11">
-        <v>0</v>
+        <v>12475</v>
       </c>
       <c r="G65" s="11">
-        <v>3</v>
-      </c>
-      <c r="H65" s="11">
-        <v>12475</v>
+        <v>0</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I65" s="11">
-        <v>0</v>
-      </c>
-      <c r="J65" s="11" t="s">
-        <v>57</v>
+        <v>22893</v>
+      </c>
+      <c r="J65" s="11">
+        <v>18312</v>
       </c>
       <c r="K65" s="11">
-        <v>22893</v>
+        <v>23178</v>
       </c>
       <c r="L65" s="11">
-        <v>18312</v>
+        <v>26318</v>
       </c>
       <c r="M65" s="11">
-        <v>23178</v>
+        <v>0</v>
       </c>
       <c r="N65" s="11">
-        <v>26318</v>
+        <v>3791</v>
       </c>
       <c r="O65" s="11">
-        <v>0</v>
+        <v>9021</v>
       </c>
       <c r="P65" s="11">
-        <v>3791</v>
+        <v>24766</v>
       </c>
       <c r="Q65" s="11">
-        <v>9021</v>
+        <v>20393</v>
       </c>
       <c r="R65" s="11">
-        <v>24766</v>
+        <v>51</v>
       </c>
       <c r="S65" s="11">
-        <v>20393</v>
-      </c>
-      <c r="T65" s="11">
-        <v>51</v>
+        <v>91</v>
+      </c>
+      <c r="T65" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U65" s="11">
-        <v>91</v>
-      </c>
-      <c r="V65" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W65" s="11">
         <v>35863</v>
       </c>
-      <c r="X65" s="11">
+      <c r="V65" s="11">
         <v>17097</v>
       </c>
+      <c r="W65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X65" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y65" s="11" t="s">
         <v>57</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>62</v>
       </c>
@@ -8828,157 +8828,157 @@
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
-        <v>204293</v>
+        <v>100714</v>
       </c>
       <c r="F66" s="13">
-        <v>208161</v>
+        <v>149023</v>
       </c>
       <c r="G66" s="13">
-        <v>100714</v>
+        <v>108971</v>
       </c>
       <c r="H66" s="13">
-        <v>149023</v>
+        <v>43957</v>
       </c>
       <c r="I66" s="13">
-        <v>108971</v>
+        <v>196857</v>
       </c>
       <c r="J66" s="13">
-        <v>43957</v>
+        <v>57978</v>
       </c>
       <c r="K66" s="13">
-        <v>196857</v>
+        <v>23888</v>
       </c>
       <c r="L66" s="13">
-        <v>57978</v>
+        <v>323558</v>
       </c>
       <c r="M66" s="13">
-        <v>23888</v>
+        <v>281797</v>
       </c>
       <c r="N66" s="13">
-        <v>323558</v>
+        <v>150375</v>
       </c>
       <c r="O66" s="13">
-        <v>281797</v>
+        <v>304794</v>
       </c>
       <c r="P66" s="13">
-        <v>150375</v>
+        <v>491559</v>
       </c>
       <c r="Q66" s="13">
-        <v>304794</v>
+        <v>280275</v>
       </c>
       <c r="R66" s="13">
-        <v>491559</v>
+        <v>95904</v>
       </c>
       <c r="S66" s="13">
-        <v>280275</v>
+        <v>14541</v>
       </c>
       <c r="T66" s="13">
-        <v>95904</v>
+        <v>105</v>
       </c>
       <c r="U66" s="13">
-        <v>14541</v>
+        <v>9382</v>
       </c>
       <c r="V66" s="13">
-        <v>105</v>
+        <v>360589</v>
       </c>
       <c r="W66" s="13">
-        <v>9382</v>
+        <v>606128</v>
       </c>
       <c r="X66" s="13">
-        <v>360589</v>
+        <v>81213</v>
       </c>
       <c r="Y66" s="13">
-        <v>606128</v>
+        <v>13271</v>
       </c>
       <c r="Z66" s="13">
-        <v>81213</v>
+        <v>611787</v>
       </c>
       <c r="AA66" s="13">
-        <v>13271</v>
+        <v>539366</v>
       </c>
       <c r="AB66" s="13">
-        <v>611787</v>
+        <v>570507</v>
       </c>
       <c r="AC66" s="13">
-        <v>539366</v>
+        <v>663193</v>
       </c>
       <c r="AD66" s="13">
-        <v>570507</v>
+        <v>264458</v>
       </c>
       <c r="AE66" s="13">
-        <v>663193</v>
+        <v>1684</v>
       </c>
       <c r="AF66" s="13">
-        <v>264458</v>
+        <v>2314</v>
       </c>
       <c r="AG66" s="13">
-        <v>1684</v>
+        <v>240514</v>
       </c>
       <c r="AH66" s="13">
-        <v>2314</v>
+        <v>259358</v>
       </c>
       <c r="AI66" s="13">
-        <v>240514</v>
+        <v>890212</v>
       </c>
       <c r="AJ66" s="13">
-        <v>259358</v>
+        <v>289045</v>
       </c>
       <c r="AK66" s="13">
-        <v>890212</v>
+        <v>977169</v>
       </c>
       <c r="AL66" s="13">
-        <v>289045</v>
+        <v>1153295</v>
       </c>
       <c r="AM66" s="13">
-        <v>977169</v>
+        <v>1147469</v>
       </c>
       <c r="AN66" s="13">
-        <v>1153295</v>
+        <v>1435950</v>
       </c>
       <c r="AO66" s="13">
-        <v>1147469</v>
+        <v>1846357</v>
       </c>
       <c r="AP66" s="13">
-        <v>1435950</v>
+        <v>125097</v>
       </c>
       <c r="AQ66" s="13">
-        <v>1846357</v>
+        <v>32839</v>
       </c>
       <c r="AR66" s="13">
-        <v>148597</v>
+        <v>0</v>
       </c>
       <c r="AS66" s="13">
-        <v>32839</v>
+        <v>5970</v>
       </c>
       <c r="AT66" s="13">
-        <v>0</v>
+        <v>919568</v>
       </c>
       <c r="AU66" s="13">
-        <v>5970</v>
+        <v>573239</v>
       </c>
       <c r="AV66" s="13">
-        <v>919568</v>
+        <v>544401</v>
       </c>
       <c r="AW66" s="13">
-        <v>573239</v>
+        <v>356301</v>
       </c>
       <c r="AX66" s="13">
-        <v>576681</v>
+        <v>1870288</v>
       </c>
       <c r="AY66" s="13">
-        <v>356301</v>
+        <v>1328364</v>
       </c>
       <c r="AZ66" s="13">
-        <v>1870288</v>
+        <v>629506</v>
       </c>
       <c r="BA66" s="13">
-        <v>1328364</v>
+        <v>2479915</v>
       </c>
       <c r="BB66" s="13">
-        <v>629506</v>
+        <v>1884190</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>63</v>
       </c>
@@ -8993,14 +8993,14 @@
         <v>0</v>
       </c>
       <c r="G67" s="11">
-        <v>0</v>
-      </c>
-      <c r="H67" s="11">
-        <v>0</v>
-      </c>
-      <c r="I67" s="11">
         <v>17</v>
       </c>
+      <c r="H67" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J67" s="11" t="s">
         <v>57</v>
       </c>
@@ -9055,14 +9055,14 @@
       <c r="AA67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC67" s="11" t="s">
-        <v>57</v>
+      <c r="AB67" s="11">
+        <v>42</v>
+      </c>
+      <c r="AC67" s="11">
+        <v>0</v>
       </c>
       <c r="AD67" s="11">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="11">
         <v>0</v>
@@ -9134,10 +9134,10 @@
         <v>0</v>
       </c>
       <c r="BB67" s="11">
-        <v>0</v>
+        <v>30223</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>64</v>
       </c>
@@ -9244,11 +9244,11 @@
       <c r="AK68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM68" s="13" t="s">
-        <v>57</v>
+      <c r="AL68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM68" s="13">
+        <v>0</v>
       </c>
       <c r="AN68" s="13">
         <v>0</v>
@@ -9262,11 +9262,11 @@
       <c r="AQ68" s="13">
         <v>0</v>
       </c>
-      <c r="AR68" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS68" s="13">
-        <v>0</v>
+      <c r="AR68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS68" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT68" s="13" t="s">
         <v>57</v>
@@ -9296,7 +9296,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>65</v>
       </c>
@@ -9403,11 +9403,11 @@
       <c r="AK69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AL69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM69" s="11" t="s">
-        <v>57</v>
+      <c r="AL69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="11">
+        <v>0</v>
       </c>
       <c r="AN69" s="11">
         <v>0</v>
@@ -9421,11 +9421,11 @@
       <c r="AQ69" s="11">
         <v>0</v>
       </c>
-      <c r="AR69" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS69" s="11">
-        <v>0</v>
+      <c r="AR69" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS69" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT69" s="11" t="s">
         <v>57</v>
@@ -9455,7 +9455,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>66</v>
       </c>
@@ -9562,11 +9562,11 @@
       <c r="AK70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL70" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM70" s="13" t="s">
-        <v>57</v>
+      <c r="AL70" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM70" s="13">
+        <v>0</v>
       </c>
       <c r="AN70" s="13">
         <v>0</v>
@@ -9580,11 +9580,11 @@
       <c r="AQ70" s="13">
         <v>0</v>
       </c>
-      <c r="AR70" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS70" s="13">
-        <v>0</v>
+      <c r="AR70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS70" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT70" s="13" t="s">
         <v>57</v>
@@ -9614,7 +9614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>67</v>
       </c>
@@ -9631,11 +9631,11 @@
       <c r="G71" s="11">
         <v>0</v>
       </c>
-      <c r="H71" s="11">
-        <v>0</v>
-      </c>
-      <c r="I71" s="11">
-        <v>0</v>
+      <c r="H71" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J71" s="11" t="s">
         <v>57</v>
@@ -9703,11 +9703,11 @@
       <c r="AE71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF71" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG71" s="11" t="s">
-        <v>57</v>
+      <c r="AF71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="11">
+        <v>0</v>
       </c>
       <c r="AH71" s="11">
         <v>0</v>
@@ -9718,11 +9718,11 @@
       <c r="AJ71" s="11">
         <v>0</v>
       </c>
-      <c r="AK71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL71" s="11">
-        <v>0</v>
+      <c r="AK71" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL71" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AM71" s="11" t="s">
         <v>57</v>
@@ -9773,7 +9773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>68</v>
       </c>
@@ -9782,145 +9782,145 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>13</v>
+        <v>2223</v>
       </c>
       <c r="F72" s="13">
-        <v>801</v>
+        <v>2230</v>
       </c>
       <c r="G72" s="13">
-        <v>2223</v>
+        <v>2023</v>
       </c>
       <c r="H72" s="13">
-        <v>2230</v>
+        <v>1303</v>
       </c>
       <c r="I72" s="13">
-        <v>2023</v>
+        <v>864</v>
       </c>
       <c r="J72" s="13">
-        <v>1303</v>
+        <v>151</v>
       </c>
       <c r="K72" s="13">
-        <v>864</v>
+        <v>260</v>
       </c>
       <c r="L72" s="13">
-        <v>151</v>
+        <v>1335</v>
       </c>
       <c r="M72" s="13">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="N72" s="13">
-        <v>1335</v>
+        <v>221</v>
       </c>
       <c r="O72" s="13">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="P72" s="13">
-        <v>221</v>
+        <v>656</v>
       </c>
       <c r="Q72" s="13">
-        <v>524</v>
+        <v>1035</v>
       </c>
       <c r="R72" s="13">
-        <v>656</v>
+        <v>2659</v>
       </c>
       <c r="S72" s="13">
-        <v>1035</v>
-      </c>
-      <c r="T72" s="13">
-        <v>2659</v>
+        <v>0</v>
+      </c>
+      <c r="T72" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="U72" s="13">
-        <v>0</v>
-      </c>
-      <c r="V72" s="13" t="s">
-        <v>57</v>
+        <v>143</v>
+      </c>
+      <c r="V72" s="13">
+        <v>197</v>
       </c>
       <c r="W72" s="13">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="X72" s="13">
-        <v>197</v>
+        <v>1238</v>
       </c>
       <c r="Y72" s="13">
-        <v>46</v>
+        <v>696</v>
       </c>
       <c r="Z72" s="13">
-        <v>1238</v>
+        <v>546</v>
       </c>
       <c r="AA72" s="13">
-        <v>696</v>
+        <v>167</v>
       </c>
       <c r="AB72" s="13">
-        <v>546</v>
+        <v>223</v>
       </c>
       <c r="AC72" s="13">
-        <v>167</v>
+        <v>1882</v>
       </c>
       <c r="AD72" s="13">
-        <v>223</v>
+        <v>3295</v>
       </c>
       <c r="AE72" s="13">
-        <v>1882</v>
+        <v>1705</v>
       </c>
       <c r="AF72" s="13">
-        <v>3295</v>
+        <v>258</v>
       </c>
       <c r="AG72" s="13">
-        <v>1705</v>
+        <v>196</v>
       </c>
       <c r="AH72" s="13">
-        <v>258</v>
+        <v>1896</v>
       </c>
       <c r="AI72" s="13">
-        <v>196</v>
+        <v>7435</v>
       </c>
       <c r="AJ72" s="13">
-        <v>1896</v>
+        <v>6182</v>
       </c>
       <c r="AK72" s="13">
-        <v>7435</v>
+        <v>6999</v>
       </c>
       <c r="AL72" s="13">
-        <v>6182</v>
+        <v>1</v>
       </c>
       <c r="AM72" s="13">
-        <v>6999</v>
+        <v>0</v>
       </c>
       <c r="AN72" s="13">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="AO72" s="13">
-        <v>0</v>
+        <v>6120</v>
       </c>
       <c r="AP72" s="13">
-        <v>600</v>
+        <v>12752</v>
       </c>
       <c r="AQ72" s="13">
-        <v>6120</v>
+        <v>30020</v>
       </c>
       <c r="AR72" s="13">
-        <v>12752</v>
+        <v>0</v>
       </c>
       <c r="AS72" s="13">
-        <v>30020</v>
+        <v>2</v>
       </c>
       <c r="AT72" s="13">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AU72" s="13">
-        <v>2</v>
+        <v>4966</v>
       </c>
       <c r="AV72" s="13">
-        <v>960</v>
+        <v>6480</v>
       </c>
       <c r="AW72" s="13">
-        <v>4966</v>
+        <v>10346</v>
       </c>
       <c r="AX72" s="13">
-        <v>6480</v>
+        <v>0</v>
       </c>
       <c r="AY72" s="13">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="AZ72" s="13">
         <v>0</v>
@@ -9929,10 +9929,10 @@
         <v>0</v>
       </c>
       <c r="BB72" s="13">
-        <v>0</v>
+        <v>57694</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>69</v>
       </c>
@@ -9982,14 +9982,14 @@
       <c r="R73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S73" s="11" t="s">
-        <v>57</v>
+      <c r="S73" s="11">
+        <v>114512</v>
       </c>
       <c r="T73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U73" s="11">
-        <v>114512</v>
+      <c r="U73" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V73" s="11" t="s">
         <v>57</v>
@@ -10018,14 +10018,14 @@
       <c r="AD73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE73" s="11" t="s">
-        <v>57</v>
+      <c r="AE73" s="11">
+        <v>0</v>
       </c>
       <c r="AF73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG73" s="11">
-        <v>0</v>
+      <c r="AG73" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH73" s="11" t="s">
         <v>57</v>
@@ -10091,7 +10091,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>70</v>
       </c>
@@ -10180,41 +10180,41 @@
       <c r="AE74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF74" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG74" s="13" t="s">
-        <v>57</v>
+      <c r="AF74" s="13">
+        <v>23</v>
+      </c>
+      <c r="AG74" s="13">
+        <v>121</v>
       </c>
       <c r="AH74" s="13">
+        <v>27</v>
+      </c>
+      <c r="AI74" s="13">
+        <v>6450</v>
+      </c>
+      <c r="AJ74" s="13">
+        <v>26</v>
+      </c>
+      <c r="AK74" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="13">
         <v>23</v>
       </c>
-      <c r="AI74" s="13">
-        <v>121</v>
-      </c>
-      <c r="AJ74" s="13">
-        <v>27</v>
-      </c>
-      <c r="AK74" s="13">
-        <v>6450</v>
-      </c>
-      <c r="AL74" s="13">
-        <v>26</v>
-      </c>
       <c r="AM74" s="13">
         <v>0</v>
       </c>
       <c r="AN74" s="13">
-        <v>23</v>
+        <v>12064</v>
       </c>
       <c r="AO74" s="13">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="AP74" s="13">
-        <v>12064</v>
+        <v>0</v>
       </c>
       <c r="AQ74" s="13">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="AR74" s="13">
         <v>0</v>
@@ -10229,28 +10229,28 @@
         <v>0</v>
       </c>
       <c r="AV74" s="13">
-        <v>0</v>
+        <v>6257</v>
       </c>
       <c r="AW74" s="13">
         <v>0</v>
       </c>
       <c r="AX74" s="13">
-        <v>6257</v>
+        <v>0</v>
       </c>
       <c r="AY74" s="13">
         <v>0</v>
       </c>
       <c r="AZ74" s="13">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="BA74" s="13">
         <v>0</v>
       </c>
       <c r="BB74" s="13">
-        <v>2200</v>
+        <v>13666</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>79</v>
       </c>
@@ -10307,7 +10307,7 @@
       <c r="BA75" s="9"/>
       <c r="BB75" s="9"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>61</v>
       </c>
@@ -10369,104 +10369,104 @@
       <c r="V76" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X76" s="11" t="s">
-        <v>57</v>
+      <c r="W76" s="11">
+        <v>5515</v>
+      </c>
+      <c r="X76" s="11">
+        <v>0</v>
       </c>
       <c r="Y76" s="11">
-        <v>5515</v>
+        <v>15211</v>
       </c>
       <c r="Z76" s="11">
-        <v>0</v>
+        <v>14487</v>
       </c>
       <c r="AA76" s="11">
-        <v>15211</v>
+        <v>4076</v>
       </c>
       <c r="AB76" s="11">
-        <v>14487</v>
+        <v>18000</v>
       </c>
       <c r="AC76" s="11">
-        <v>4076</v>
+        <v>28613</v>
       </c>
       <c r="AD76" s="11">
-        <v>18000</v>
+        <v>19466</v>
       </c>
       <c r="AE76" s="11">
-        <v>28613</v>
+        <v>0</v>
       </c>
       <c r="AF76" s="11">
-        <v>19466</v>
+        <v>0</v>
       </c>
       <c r="AG76" s="11">
-        <v>0</v>
+        <v>36155</v>
       </c>
       <c r="AH76" s="11">
-        <v>0</v>
+        <v>30141</v>
       </c>
       <c r="AI76" s="11">
-        <v>36155</v>
+        <v>52685</v>
       </c>
       <c r="AJ76" s="11">
-        <v>30141</v>
+        <v>62501</v>
       </c>
       <c r="AK76" s="11">
-        <v>52685</v>
+        <v>5999</v>
       </c>
       <c r="AL76" s="11">
-        <v>62501</v>
+        <v>25228</v>
       </c>
       <c r="AM76" s="11">
-        <v>5999</v>
+        <v>6712</v>
       </c>
       <c r="AN76" s="11">
-        <v>25228</v>
+        <v>17688</v>
       </c>
       <c r="AO76" s="11">
-        <v>6712</v>
+        <v>42178</v>
       </c>
       <c r="AP76" s="11">
-        <v>17688</v>
+        <v>40330</v>
       </c>
       <c r="AQ76" s="11">
-        <v>42178</v>
-      </c>
-      <c r="AR76" s="11">
-        <v>40330</v>
+        <v>0</v>
+      </c>
+      <c r="AR76" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS76" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT76" s="11" t="s">
-        <v>57</v>
+        <v>1500</v>
+      </c>
+      <c r="AT76" s="11">
+        <v>32323</v>
       </c>
       <c r="AU76" s="11">
-        <v>1500</v>
+        <v>71050</v>
       </c>
       <c r="AV76" s="11">
-        <v>32323</v>
+        <v>139562</v>
       </c>
       <c r="AW76" s="11">
-        <v>71050</v>
+        <v>0</v>
       </c>
       <c r="AX76" s="11">
-        <v>139562</v>
+        <v>10417</v>
       </c>
       <c r="AY76" s="11">
-        <v>0</v>
+        <v>10834</v>
       </c>
       <c r="AZ76" s="11">
-        <v>10417</v>
+        <v>22162</v>
       </c>
       <c r="BA76" s="11">
-        <v>10834</v>
+        <v>55550</v>
       </c>
       <c r="BB76" s="11">
-        <v>22162</v>
+        <v>109315</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
         <v>72</v>
       </c>
@@ -10528,104 +10528,104 @@
       <c r="V77" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W77" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X77" s="15" t="s">
-        <v>57</v>
+      <c r="W77" s="15">
+        <v>5515</v>
+      </c>
+      <c r="X77" s="15">
+        <v>0</v>
       </c>
       <c r="Y77" s="15">
-        <v>5515</v>
+        <v>15211</v>
       </c>
       <c r="Z77" s="15">
-        <v>0</v>
+        <v>14487</v>
       </c>
       <c r="AA77" s="15">
-        <v>15211</v>
+        <v>4076</v>
       </c>
       <c r="AB77" s="15">
-        <v>14487</v>
+        <v>18000</v>
       </c>
       <c r="AC77" s="15">
-        <v>4076</v>
+        <v>28613</v>
       </c>
       <c r="AD77" s="15">
-        <v>18000</v>
+        <v>19466</v>
       </c>
       <c r="AE77" s="15">
-        <v>28613</v>
+        <v>0</v>
       </c>
       <c r="AF77" s="15">
-        <v>19466</v>
+        <v>0</v>
       </c>
       <c r="AG77" s="15">
-        <v>0</v>
+        <v>36155</v>
       </c>
       <c r="AH77" s="15">
-        <v>0</v>
+        <v>30141</v>
       </c>
       <c r="AI77" s="15">
-        <v>36155</v>
+        <v>52685</v>
       </c>
       <c r="AJ77" s="15">
-        <v>30141</v>
+        <v>62501</v>
       </c>
       <c r="AK77" s="15">
-        <v>52685</v>
+        <v>5999</v>
       </c>
       <c r="AL77" s="15">
-        <v>62501</v>
+        <v>25228</v>
       </c>
       <c r="AM77" s="15">
-        <v>5999</v>
+        <v>6712</v>
       </c>
       <c r="AN77" s="15">
-        <v>25228</v>
+        <v>17688</v>
       </c>
       <c r="AO77" s="15">
-        <v>6712</v>
+        <v>42178</v>
       </c>
       <c r="AP77" s="15">
-        <v>17688</v>
+        <v>40330</v>
       </c>
       <c r="AQ77" s="15">
-        <v>42178</v>
+        <v>0</v>
       </c>
       <c r="AR77" s="15">
-        <v>40330</v>
+        <v>0</v>
       </c>
       <c r="AS77" s="15">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AT77" s="15">
-        <v>0</v>
+        <v>32323</v>
       </c>
       <c r="AU77" s="15">
-        <v>1500</v>
+        <v>71050</v>
       </c>
       <c r="AV77" s="15">
-        <v>32323</v>
+        <v>139562</v>
       </c>
       <c r="AW77" s="15">
-        <v>71050</v>
+        <v>0</v>
       </c>
       <c r="AX77" s="15">
-        <v>139562</v>
+        <v>10417</v>
       </c>
       <c r="AY77" s="15">
-        <v>0</v>
+        <v>10834</v>
       </c>
       <c r="AZ77" s="15">
-        <v>10417</v>
+        <v>22162</v>
       </c>
       <c r="BA77" s="15">
-        <v>10834</v>
+        <v>55550</v>
       </c>
       <c r="BB77" s="15">
-        <v>22162</v>
+        <v>109315</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
         <v>80</v>
       </c>
@@ -10682,7 +10682,7 @@
       <c r="BA78" s="19"/>
       <c r="BB78" s="19"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
         <v>76</v>
       </c>
@@ -10744,11 +10744,11 @@
       <c r="V79" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W79" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X79" s="17" t="s">
-        <v>57</v>
+      <c r="W79" s="17">
+        <v>0</v>
+      </c>
+      <c r="X79" s="17">
+        <v>0</v>
       </c>
       <c r="Y79" s="17">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>81</v>
       </c>
@@ -10898,7 +10898,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>82</v>
       </c>
@@ -10960,11 +10960,11 @@
       <c r="V81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X81" s="11" t="s">
-        <v>57</v>
+      <c r="W81" s="11">
+        <v>0</v>
+      </c>
+      <c r="X81" s="11">
+        <v>0</v>
       </c>
       <c r="Y81" s="11">
         <v>0</v>
@@ -11057,164 +11057,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="14" t="s">
         <v>73</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15">
-        <v>258461</v>
+        <v>131276</v>
       </c>
       <c r="F82" s="15">
-        <v>281374</v>
+        <v>220408</v>
       </c>
       <c r="G82" s="15">
-        <v>131276</v>
+        <v>180369</v>
       </c>
       <c r="H82" s="15">
-        <v>220408</v>
+        <v>70292</v>
       </c>
       <c r="I82" s="15">
-        <v>180369</v>
+        <v>247055</v>
       </c>
       <c r="J82" s="15">
-        <v>70292</v>
+        <v>117335</v>
       </c>
       <c r="K82" s="15">
-        <v>247055</v>
+        <v>158290</v>
       </c>
       <c r="L82" s="15">
-        <v>117335</v>
+        <v>375675</v>
       </c>
       <c r="M82" s="15">
-        <v>158290</v>
+        <v>311852</v>
       </c>
       <c r="N82" s="15">
-        <v>375675</v>
+        <v>173549</v>
       </c>
       <c r="O82" s="15">
-        <v>311852</v>
+        <v>427444</v>
       </c>
       <c r="P82" s="15">
-        <v>173549</v>
+        <v>670804</v>
       </c>
       <c r="Q82" s="15">
-        <v>427444</v>
+        <v>359395</v>
       </c>
       <c r="R82" s="15">
-        <v>670804</v>
+        <v>443739</v>
       </c>
       <c r="S82" s="15">
-        <v>359395</v>
+        <v>913372</v>
       </c>
       <c r="T82" s="15">
-        <v>443739</v>
+        <v>145165</v>
       </c>
       <c r="U82" s="15">
-        <v>913372</v>
+        <v>94314</v>
       </c>
       <c r="V82" s="15">
-        <v>145165</v>
+        <v>455567</v>
       </c>
       <c r="W82" s="15">
-        <v>94314</v>
+        <v>684412</v>
       </c>
       <c r="X82" s="15">
-        <v>455567</v>
+        <v>161675</v>
       </c>
       <c r="Y82" s="15">
-        <v>684412</v>
+        <v>85371</v>
       </c>
       <c r="Z82" s="15">
-        <v>161675</v>
+        <v>702083</v>
       </c>
       <c r="AA82" s="15">
-        <v>85371</v>
+        <v>779717</v>
       </c>
       <c r="AB82" s="15">
-        <v>702083</v>
+        <v>789364</v>
       </c>
       <c r="AC82" s="15">
-        <v>779717</v>
+        <v>787559</v>
       </c>
       <c r="AD82" s="15">
-        <v>789364</v>
+        <v>353598</v>
       </c>
       <c r="AE82" s="15">
-        <v>787559</v>
+        <v>24958</v>
       </c>
       <c r="AF82" s="15">
-        <v>353598</v>
+        <v>4055</v>
       </c>
       <c r="AG82" s="15">
-        <v>24958</v>
+        <v>372765</v>
       </c>
       <c r="AH82" s="15">
-        <v>4055</v>
+        <v>459375</v>
       </c>
       <c r="AI82" s="15">
-        <v>372765</v>
+        <v>1203299</v>
       </c>
       <c r="AJ82" s="15">
-        <v>459375</v>
+        <v>464612</v>
       </c>
       <c r="AK82" s="15">
-        <v>1203299</v>
+        <v>1039027</v>
       </c>
       <c r="AL82" s="15">
-        <v>464612</v>
+        <v>1291115</v>
       </c>
       <c r="AM82" s="15">
-        <v>1039027</v>
+        <v>1480908</v>
       </c>
       <c r="AN82" s="15">
-        <v>1291115</v>
+        <v>1783779</v>
       </c>
       <c r="AO82" s="15">
-        <v>1480908</v>
+        <v>2166305</v>
       </c>
       <c r="AP82" s="15">
-        <v>1783779</v>
+        <v>360039</v>
       </c>
       <c r="AQ82" s="15">
-        <v>2166305</v>
+        <v>120055</v>
       </c>
       <c r="AR82" s="15">
-        <v>382526</v>
+        <v>16251</v>
       </c>
       <c r="AS82" s="15">
-        <v>120055</v>
+        <v>38506</v>
       </c>
       <c r="AT82" s="15">
-        <v>16251</v>
+        <v>1286326</v>
       </c>
       <c r="AU82" s="15">
-        <v>38506</v>
+        <v>940055</v>
       </c>
       <c r="AV82" s="15">
-        <v>1286326</v>
+        <v>828235</v>
       </c>
       <c r="AW82" s="15">
-        <v>940055</v>
+        <v>440589</v>
       </c>
       <c r="AX82" s="15">
-        <v>860515</v>
+        <v>2118861</v>
       </c>
       <c r="AY82" s="15">
-        <v>440589</v>
+        <v>1913408</v>
       </c>
       <c r="AZ82" s="15">
-        <v>2118861</v>
+        <v>1491774</v>
       </c>
       <c r="BA82" s="15">
-        <v>1913408</v>
+        <v>2684622</v>
       </c>
       <c r="BB82" s="15">
-        <v>1491774</v>
+        <v>2290938</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -11269,7 +11269,7 @@
       <c r="BA83" s="1"/>
       <c r="BB83" s="1"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -11324,7 +11324,7 @@
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -11379,7 +11379,7 @@
       <c r="BA85" s="1"/>
       <c r="BB85" s="1"/>
     </row>
-    <row r="86" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
         <v>83</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -11591,7 +11591,7 @@
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
         <v>84</v>
       </c>
@@ -11648,7 +11648,7 @@
       <c r="BA88" s="9"/>
       <c r="BB88" s="9"/>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>55</v>
       </c>
@@ -11740,50 +11740,50 @@
       <c r="AF89" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG89" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH89" s="11" t="s">
-        <v>57</v>
+      <c r="AG89" s="11">
+        <v>4254344</v>
+      </c>
+      <c r="AH89" s="11">
+        <v>7840659</v>
       </c>
       <c r="AI89" s="11">
-        <v>4254344</v>
+        <v>6642940</v>
       </c>
       <c r="AJ89" s="11">
-        <v>7840659</v>
+        <v>4247634</v>
       </c>
       <c r="AK89" s="11">
-        <v>6642940</v>
+        <v>7370370</v>
       </c>
       <c r="AL89" s="11">
-        <v>4247634</v>
+        <v>6959821</v>
       </c>
       <c r="AM89" s="11">
-        <v>7370370</v>
+        <v>7687788</v>
       </c>
       <c r="AN89" s="11">
-        <v>6959821</v>
+        <v>8252687</v>
       </c>
       <c r="AO89" s="11">
-        <v>7687788</v>
+        <v>8941230</v>
       </c>
       <c r="AP89" s="11">
-        <v>8252687</v>
-      </c>
-      <c r="AQ89" s="11">
-        <v>8941230</v>
+        <v>10232323</v>
+      </c>
+      <c r="AQ89" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR89" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS89" s="11" t="s">
-        <v>57</v>
+      <c r="AS89" s="11">
+        <v>10600000</v>
       </c>
       <c r="AT89" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU89" s="11">
-        <v>10600000</v>
+      <c r="AU89" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV89" s="11" t="s">
         <v>57</v>
@@ -11807,7 +11807,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>58</v>
       </c>
@@ -11816,157 +11816,157 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>13050124</v>
+        <v>16602723</v>
       </c>
       <c r="F90" s="13">
-        <v>14032271</v>
+        <v>17032346</v>
       </c>
       <c r="G90" s="13">
-        <v>16602723</v>
+        <v>17043682</v>
       </c>
       <c r="H90" s="13">
-        <v>17032346</v>
+        <v>16998502</v>
       </c>
       <c r="I90" s="13">
-        <v>17043682</v>
+        <v>18513871</v>
       </c>
       <c r="J90" s="13">
-        <v>16998502</v>
+        <v>21580686</v>
       </c>
       <c r="K90" s="13">
-        <v>18513871</v>
+        <v>21487797</v>
       </c>
       <c r="L90" s="13">
-        <v>21580686</v>
+        <v>21490028</v>
       </c>
       <c r="M90" s="13">
-        <v>21487797</v>
+        <v>0</v>
       </c>
       <c r="N90" s="13">
-        <v>21490028</v>
+        <v>24257796</v>
       </c>
       <c r="O90" s="13">
-        <v>0</v>
+        <v>24578818</v>
       </c>
       <c r="P90" s="13">
-        <v>24257796</v>
+        <v>24563526</v>
       </c>
       <c r="Q90" s="13">
-        <v>24578818</v>
+        <v>24654718</v>
       </c>
       <c r="R90" s="13">
-        <v>24563526</v>
+        <v>24739819</v>
       </c>
       <c r="S90" s="13">
-        <v>24654718</v>
-      </c>
-      <c r="T90" s="13">
-        <v>24739819</v>
+        <v>0</v>
+      </c>
+      <c r="T90" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="U90" s="13">
-        <v>0</v>
-      </c>
-      <c r="V90" s="13" t="s">
-        <v>57</v>
+        <v>28120879</v>
+      </c>
+      <c r="V90" s="13">
+        <v>28261311</v>
       </c>
       <c r="W90" s="13">
-        <v>28120879</v>
+        <v>28207632</v>
       </c>
       <c r="X90" s="13">
-        <v>28261311</v>
+        <v>28022019</v>
       </c>
       <c r="Y90" s="13">
-        <v>28207632</v>
+        <v>27997780</v>
       </c>
       <c r="Z90" s="13">
-        <v>28022019</v>
+        <v>27472718</v>
       </c>
       <c r="AA90" s="13">
-        <v>27997780</v>
+        <v>29467150</v>
       </c>
       <c r="AB90" s="13">
-        <v>27472718</v>
+        <v>30418862</v>
       </c>
       <c r="AC90" s="13">
-        <v>29467150</v>
+        <v>30361762</v>
       </c>
       <c r="AD90" s="13">
-        <v>30418862</v>
+        <v>30698413</v>
       </c>
       <c r="AE90" s="13">
-        <v>30361762</v>
+        <v>33600000</v>
       </c>
       <c r="AF90" s="13">
-        <v>30698413</v>
+        <v>39500000</v>
       </c>
       <c r="AG90" s="13">
-        <v>33600000</v>
+        <v>45150538</v>
       </c>
       <c r="AH90" s="13">
-        <v>39500000</v>
+        <v>48160594</v>
       </c>
       <c r="AI90" s="13">
-        <v>45150538</v>
+        <v>46810217</v>
       </c>
       <c r="AJ90" s="13">
-        <v>48160594</v>
+        <v>46508227</v>
       </c>
       <c r="AK90" s="13">
-        <v>46810217</v>
+        <v>46639752</v>
       </c>
       <c r="AL90" s="13">
-        <v>46508227</v>
+        <v>51970921</v>
       </c>
       <c r="AM90" s="13">
-        <v>46639752</v>
+        <v>52018796</v>
       </c>
       <c r="AN90" s="13">
-        <v>51970921</v>
+        <v>52010134</v>
       </c>
       <c r="AO90" s="13">
-        <v>52018796</v>
+        <v>52012369</v>
       </c>
       <c r="AP90" s="13">
-        <v>52010134</v>
+        <v>52006581</v>
       </c>
       <c r="AQ90" s="13">
-        <v>52012369</v>
+        <v>52245211</v>
       </c>
       <c r="AR90" s="13">
-        <v>52006581</v>
+        <v>52000000</v>
       </c>
       <c r="AS90" s="13">
-        <v>52245211</v>
+        <v>73953846</v>
       </c>
       <c r="AT90" s="13">
-        <v>52000000</v>
+        <v>81942119</v>
       </c>
       <c r="AU90" s="13">
-        <v>73953846</v>
+        <v>82992917</v>
       </c>
       <c r="AV90" s="13">
-        <v>81942119</v>
-      </c>
-      <c r="AW90" s="13">
-        <v>82992917</v>
+        <v>83033033</v>
+      </c>
+      <c r="AW90" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX90" s="13">
-        <v>83033033</v>
-      </c>
-      <c r="AY90" s="13" t="s">
-        <v>57</v>
+        <v>85020359</v>
+      </c>
+      <c r="AY90" s="13">
+        <v>84987175</v>
       </c>
       <c r="AZ90" s="13">
-        <v>85020359</v>
+        <v>85000726</v>
       </c>
       <c r="BA90" s="13">
-        <v>84987175</v>
+        <v>85064815</v>
       </c>
       <c r="BB90" s="13">
-        <v>85000726</v>
+        <v>84918743</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>59</v>
       </c>
@@ -11975,157 +11975,157 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>4298413</v>
+        <v>8320442</v>
       </c>
       <c r="F91" s="11">
-        <v>4830383</v>
+        <v>12366474</v>
       </c>
       <c r="G91" s="11">
-        <v>8320442</v>
+        <v>12797883</v>
       </c>
       <c r="H91" s="11">
-        <v>12366474</v>
+        <v>15490066</v>
       </c>
       <c r="I91" s="11">
-        <v>12797883</v>
+        <v>17035714</v>
       </c>
       <c r="J91" s="11">
-        <v>15490066</v>
+        <v>20798799</v>
       </c>
       <c r="K91" s="11">
-        <v>17035714</v>
+        <v>21176264</v>
       </c>
       <c r="L91" s="11">
-        <v>20798799</v>
+        <v>22866216</v>
       </c>
       <c r="M91" s="11">
-        <v>21176264</v>
+        <v>21874090</v>
       </c>
       <c r="N91" s="11">
-        <v>22866216</v>
+        <v>22106195</v>
       </c>
       <c r="O91" s="11">
-        <v>21874090</v>
+        <v>22918675</v>
       </c>
       <c r="P91" s="11">
-        <v>22106195</v>
+        <v>22960601</v>
       </c>
       <c r="Q91" s="11">
-        <v>22918675</v>
+        <v>22993684</v>
       </c>
       <c r="R91" s="11">
-        <v>22960601</v>
+        <v>22990132</v>
       </c>
       <c r="S91" s="11">
-        <v>22993684</v>
+        <v>22874842</v>
       </c>
       <c r="T91" s="11">
-        <v>22990132</v>
+        <v>23127907</v>
       </c>
       <c r="U91" s="11">
-        <v>22874842</v>
+        <v>25308480</v>
       </c>
       <c r="V91" s="11">
-        <v>23127907</v>
+        <v>25894940</v>
       </c>
       <c r="W91" s="11">
-        <v>25308480</v>
+        <v>25901961</v>
       </c>
       <c r="X91" s="11">
-        <v>25894940</v>
+        <v>26006731</v>
       </c>
       <c r="Y91" s="11">
-        <v>25901961</v>
+        <v>26095455</v>
       </c>
       <c r="Z91" s="11">
-        <v>26006731</v>
+        <v>26774052</v>
       </c>
       <c r="AA91" s="11">
-        <v>26095455</v>
+        <v>27004067</v>
       </c>
       <c r="AB91" s="11">
-        <v>26774052</v>
+        <v>28300308</v>
       </c>
       <c r="AC91" s="11">
-        <v>27004067</v>
+        <v>30985383</v>
       </c>
       <c r="AD91" s="11">
-        <v>28300308</v>
+        <v>31246154</v>
       </c>
       <c r="AE91" s="11">
-        <v>30985383</v>
+        <v>32367378</v>
       </c>
       <c r="AF91" s="11">
-        <v>31246154</v>
+        <v>32880952</v>
       </c>
       <c r="AG91" s="11">
-        <v>32367378</v>
+        <v>38453757</v>
       </c>
       <c r="AH91" s="11">
-        <v>32880952</v>
+        <v>39186297</v>
       </c>
       <c r="AI91" s="11">
-        <v>38453757</v>
+        <v>35397709</v>
       </c>
       <c r="AJ91" s="11">
-        <v>39186297</v>
+        <v>34726511</v>
       </c>
       <c r="AK91" s="11">
-        <v>35397709</v>
+        <v>35663410</v>
       </c>
       <c r="AL91" s="11">
-        <v>34726511</v>
+        <v>35117514</v>
       </c>
       <c r="AM91" s="11">
-        <v>35663410</v>
+        <v>33269545</v>
       </c>
       <c r="AN91" s="11">
-        <v>35117514</v>
+        <v>32018668</v>
       </c>
       <c r="AO91" s="11">
-        <v>33269545</v>
+        <v>32963529</v>
       </c>
       <c r="AP91" s="11">
-        <v>32018668</v>
+        <v>36948255</v>
       </c>
       <c r="AQ91" s="11">
-        <v>32963529</v>
+        <v>39718101</v>
       </c>
       <c r="AR91" s="11">
-        <v>36948255</v>
+        <v>49829721</v>
       </c>
       <c r="AS91" s="11">
-        <v>39718101</v>
+        <v>53071429</v>
       </c>
       <c r="AT91" s="11">
-        <v>49829721</v>
+        <v>55007299</v>
       </c>
       <c r="AU91" s="11">
-        <v>53071429</v>
+        <v>55074094</v>
       </c>
       <c r="AV91" s="11">
-        <v>55007299</v>
+        <v>55111406</v>
       </c>
       <c r="AW91" s="11">
-        <v>55074094</v>
+        <v>55763198</v>
       </c>
       <c r="AX91" s="11">
-        <v>55111406</v>
+        <v>56372802</v>
       </c>
       <c r="AY91" s="11">
-        <v>55763198</v>
+        <v>56217344</v>
       </c>
       <c r="AZ91" s="11">
-        <v>56372802</v>
+        <v>56197270</v>
       </c>
       <c r="BA91" s="11">
-        <v>56217344</v>
+        <v>55980578</v>
       </c>
       <c r="BB91" s="11">
-        <v>56197270</v>
+        <v>56098376</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>60</v>
       </c>
@@ -12137,22 +12137,22 @@
         <v>0</v>
       </c>
       <c r="F92" s="13">
-        <v>0</v>
+        <v>30012072</v>
       </c>
       <c r="G92" s="13">
-        <v>0</v>
-      </c>
-      <c r="H92" s="13">
-        <v>30012072</v>
+        <v>25192982</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="I92" s="13">
-        <v>25192982</v>
-      </c>
-      <c r="J92" s="13" t="s">
-        <v>57</v>
+        <v>24000000</v>
+      </c>
+      <c r="J92" s="13">
+        <v>0</v>
       </c>
       <c r="K92" s="13">
-        <v>24000000</v>
+        <v>0</v>
       </c>
       <c r="L92" s="13">
         <v>0</v>
@@ -12167,29 +12167,29 @@
         <v>0</v>
       </c>
       <c r="P92" s="13">
-        <v>0</v>
+        <v>47000000</v>
       </c>
       <c r="Q92" s="13">
         <v>0</v>
       </c>
       <c r="R92" s="13">
-        <v>47000000</v>
+        <v>44589943</v>
       </c>
       <c r="S92" s="13">
-        <v>0</v>
+        <v>44571179</v>
       </c>
       <c r="T92" s="13">
-        <v>44589943</v>
+        <v>40495613</v>
       </c>
       <c r="U92" s="13">
-        <v>44571179</v>
-      </c>
-      <c r="V92" s="13">
-        <v>40495613</v>
-      </c>
-      <c r="W92" s="13">
         <v>40567362</v>
       </c>
+      <c r="V92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W92" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X92" s="13" t="s">
         <v>57</v>
       </c>
@@ -12208,14 +12208,14 @@
       <c r="AC92" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD92" s="13" t="s">
-        <v>57</v>
+      <c r="AD92" s="13">
+        <v>40452381</v>
       </c>
       <c r="AE92" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF92" s="13">
-        <v>40452381</v>
+      <c r="AF92" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AG92" s="13" t="s">
         <v>57</v>
@@ -12247,29 +12247,29 @@
       <c r="AP92" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ92" s="13" t="s">
-        <v>57</v>
+      <c r="AQ92" s="13">
+        <v>126111111</v>
       </c>
       <c r="AR92" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AS92" s="13">
-        <v>126111111</v>
+        <v>70000000</v>
       </c>
       <c r="AT92" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU92" s="13">
-        <v>70000000</v>
+      <c r="AU92" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV92" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW92" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX92" s="13">
-        <v>0</v>
+      <c r="AW92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX92" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AY92" s="13" t="s">
         <v>57</v>
@@ -12284,7 +12284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>61</v>
       </c>
@@ -12293,65 +12293,65 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="F93" s="11">
-        <v>0</v>
+        <v>1250125</v>
       </c>
       <c r="G93" s="11">
-        <v>1500000</v>
-      </c>
-      <c r="H93" s="11">
-        <v>1250125</v>
+        <v>0</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I93" s="11">
-        <v>0</v>
-      </c>
-      <c r="J93" s="11" t="s">
-        <v>57</v>
+        <v>1250027</v>
+      </c>
+      <c r="J93" s="11">
+        <v>1249966</v>
       </c>
       <c r="K93" s="11">
-        <v>1250027</v>
+        <v>1254153</v>
       </c>
       <c r="L93" s="11">
-        <v>1249966</v>
+        <v>2304352</v>
       </c>
       <c r="M93" s="11">
-        <v>1254153</v>
+        <v>0</v>
       </c>
       <c r="N93" s="11">
-        <v>2304352</v>
+        <v>1606356</v>
       </c>
       <c r="O93" s="11">
-        <v>0</v>
+        <v>1595225</v>
       </c>
       <c r="P93" s="11">
-        <v>1606356</v>
+        <v>2003398</v>
       </c>
       <c r="Q93" s="11">
-        <v>1595225</v>
+        <v>2035636</v>
       </c>
       <c r="R93" s="11">
-        <v>2003398</v>
+        <v>2217391</v>
       </c>
       <c r="S93" s="11">
-        <v>2035636</v>
-      </c>
-      <c r="T93" s="11">
-        <v>2217391</v>
+        <v>2166667</v>
+      </c>
+      <c r="T93" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U93" s="11">
-        <v>2166667</v>
-      </c>
-      <c r="V93" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W93" s="11">
         <v>2050017</v>
       </c>
-      <c r="X93" s="11">
+      <c r="V93" s="11">
         <v>2050000</v>
       </c>
+      <c r="W93" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X93" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y93" s="11" t="s">
         <v>57</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>62</v>
       </c>
@@ -12452,157 +12452,157 @@
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
-        <v>30400744</v>
+        <v>31631281</v>
       </c>
       <c r="F94" s="13">
-        <v>31975576</v>
+        <v>29260357</v>
       </c>
       <c r="G94" s="13">
-        <v>31631281</v>
+        <v>28216209</v>
       </c>
       <c r="H94" s="13">
-        <v>29260357</v>
+        <v>29801356</v>
       </c>
       <c r="I94" s="13">
-        <v>28216209</v>
+        <v>29885684</v>
       </c>
       <c r="J94" s="13">
-        <v>29801356</v>
+        <v>29900980</v>
       </c>
       <c r="K94" s="13">
-        <v>29885684</v>
+        <v>29382534</v>
       </c>
       <c r="L94" s="13">
-        <v>29900980</v>
+        <v>29889885</v>
       </c>
       <c r="M94" s="13">
-        <v>29382534</v>
+        <v>39231101</v>
       </c>
       <c r="N94" s="13">
-        <v>29889885</v>
+        <v>39489233</v>
       </c>
       <c r="O94" s="13">
-        <v>39231101</v>
+        <v>40493424</v>
       </c>
       <c r="P94" s="13">
-        <v>39489233</v>
+        <v>44066248</v>
       </c>
       <c r="Q94" s="13">
-        <v>40493424</v>
+        <v>44291245</v>
       </c>
       <c r="R94" s="13">
-        <v>44066248</v>
+        <v>44338419</v>
       </c>
       <c r="S94" s="13">
-        <v>44291245</v>
+        <v>40617318</v>
       </c>
       <c r="T94" s="13">
-        <v>44338419</v>
+        <v>7500000</v>
       </c>
       <c r="U94" s="13">
-        <v>40617318</v>
+        <v>39091667</v>
       </c>
       <c r="V94" s="13">
-        <v>7500000</v>
+        <v>62353277</v>
       </c>
       <c r="W94" s="13">
-        <v>39091667</v>
+        <v>64086276</v>
       </c>
       <c r="X94" s="13">
-        <v>62353277</v>
+        <v>62955814</v>
       </c>
       <c r="Y94" s="13">
-        <v>64086276</v>
+        <v>62014019</v>
       </c>
       <c r="Z94" s="13">
-        <v>62955814</v>
+        <v>64054759</v>
       </c>
       <c r="AA94" s="13">
-        <v>62014019</v>
+        <v>64486609</v>
       </c>
       <c r="AB94" s="13">
-        <v>64054759</v>
+        <v>67157975</v>
       </c>
       <c r="AC94" s="13">
-        <v>64486609</v>
+        <v>64980698</v>
       </c>
       <c r="AD94" s="13">
-        <v>67157975</v>
+        <v>62861421</v>
       </c>
       <c r="AE94" s="13">
-        <v>64980698</v>
+        <v>7484444</v>
       </c>
       <c r="AF94" s="13">
-        <v>62861421</v>
+        <v>68058824</v>
       </c>
       <c r="AG94" s="13">
-        <v>7484444</v>
+        <v>68095696</v>
       </c>
       <c r="AH94" s="13">
-        <v>68058824</v>
+        <v>114506843</v>
       </c>
       <c r="AI94" s="13">
-        <v>68095696</v>
+        <v>120985594</v>
       </c>
       <c r="AJ94" s="13">
-        <v>114506843</v>
+        <v>121908477</v>
       </c>
       <c r="AK94" s="13">
-        <v>120985594</v>
+        <v>125005629</v>
       </c>
       <c r="AL94" s="13">
-        <v>121908477</v>
+        <v>125549205</v>
       </c>
       <c r="AM94" s="13">
-        <v>125005629</v>
+        <v>125818969</v>
       </c>
       <c r="AN94" s="13">
-        <v>125549205</v>
+        <v>127503996</v>
       </c>
       <c r="AO94" s="13">
-        <v>125818969</v>
+        <v>127133306</v>
       </c>
       <c r="AP94" s="13">
-        <v>127503996</v>
+        <v>129634197</v>
       </c>
       <c r="AQ94" s="13">
-        <v>127133306</v>
-      </c>
-      <c r="AR94" s="13">
-        <v>129977598</v>
+        <v>130313492</v>
+      </c>
+      <c r="AR94" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS94" s="13">
-        <v>130313492</v>
-      </c>
-      <c r="AT94" s="13" t="s">
-        <v>57</v>
+        <v>129782609</v>
+      </c>
+      <c r="AT94" s="13">
+        <v>179989822</v>
       </c>
       <c r="AU94" s="13">
-        <v>129782609</v>
+        <v>180037374</v>
       </c>
       <c r="AV94" s="13">
-        <v>179989822</v>
+        <v>179967273</v>
       </c>
       <c r="AW94" s="13">
-        <v>180037374</v>
+        <v>179677761</v>
       </c>
       <c r="AX94" s="13">
-        <v>182807822</v>
+        <v>177110606</v>
       </c>
       <c r="AY94" s="13">
-        <v>179677761</v>
+        <v>176667642</v>
       </c>
       <c r="AZ94" s="13">
-        <v>177110606</v>
+        <v>177927077</v>
       </c>
       <c r="BA94" s="13">
-        <v>176667642</v>
+        <v>177390200</v>
       </c>
       <c r="BB94" s="13">
-        <v>177927077</v>
+        <v>179995224</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>63</v>
       </c>
@@ -12617,14 +12617,14 @@
         <v>0</v>
       </c>
       <c r="G95" s="11">
-        <v>0</v>
-      </c>
-      <c r="H95" s="11">
-        <v>0</v>
-      </c>
-      <c r="I95" s="11">
         <v>17000000</v>
       </c>
+      <c r="H95" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J95" s="11" t="s">
         <v>57</v>
       </c>
@@ -12679,14 +12679,14 @@
       <c r="AA95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB95" s="11" t="s">
-        <v>57</v>
+      <c r="AB95" s="11">
+        <v>42000000</v>
       </c>
       <c r="AC95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD95" s="11">
-        <v>42000000</v>
+      <c r="AD95" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE95" s="11" t="s">
         <v>57</v>
@@ -12757,11 +12757,11 @@
       <c r="BA95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BB95" s="11" t="s">
-        <v>57</v>
+      <c r="BB95" s="11">
+        <v>214347518</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>67</v>
       </c>
@@ -12778,11 +12778,11 @@
       <c r="G96" s="13">
         <v>0</v>
       </c>
-      <c r="H96" s="13">
-        <v>0</v>
-      </c>
-      <c r="I96" s="13">
-        <v>0</v>
+      <c r="H96" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="J96" s="13" t="s">
         <v>57</v>
@@ -12920,7 +12920,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>68</v>
       </c>
@@ -12929,157 +12929,157 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>1181818</v>
+        <v>1199029</v>
       </c>
       <c r="F97" s="11">
-        <v>1195522</v>
+        <v>1199570</v>
       </c>
       <c r="G97" s="11">
-        <v>1199029</v>
+        <v>1199170</v>
       </c>
       <c r="H97" s="11">
-        <v>1199570</v>
+        <v>1199816</v>
       </c>
       <c r="I97" s="11">
-        <v>1199170</v>
+        <v>1200000</v>
       </c>
       <c r="J97" s="11">
-        <v>1199816</v>
+        <v>1208000</v>
       </c>
       <c r="K97" s="11">
+        <v>1061224</v>
+      </c>
+      <c r="L97" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="M97" s="11">
+        <v>0</v>
+      </c>
+      <c r="N97" s="11">
+        <v>1023148</v>
+      </c>
+      <c r="O97" s="11">
+        <v>1078189</v>
+      </c>
+      <c r="P97" s="11">
+        <v>1175627</v>
+      </c>
+      <c r="Q97" s="11">
+        <v>1199305</v>
+      </c>
+      <c r="R97" s="11">
+        <v>1199910</v>
+      </c>
+      <c r="S97" s="11">
+        <v>0</v>
+      </c>
+      <c r="T97" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U97" s="11">
+        <v>1201681</v>
+      </c>
+      <c r="V97" s="11">
+        <v>1201220</v>
+      </c>
+      <c r="W97" s="11">
+        <v>1179487</v>
+      </c>
+      <c r="X97" s="11">
+        <v>1001618</v>
+      </c>
+      <c r="Y97" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="Z97" s="11">
+        <v>1001835</v>
+      </c>
+      <c r="AA97" s="11">
+        <v>1006024</v>
+      </c>
+      <c r="AB97" s="11">
+        <v>1173684</v>
+      </c>
+      <c r="AC97" s="11">
+        <v>1197201</v>
+      </c>
+      <c r="AD97" s="11">
+        <v>1199490</v>
+      </c>
+      <c r="AE97" s="11">
+        <v>1199859</v>
+      </c>
+      <c r="AF97" s="11">
         <v>1200000</v>
       </c>
-      <c r="L97" s="11">
-        <v>1208000</v>
-      </c>
-      <c r="M97" s="11">
-        <v>1061224</v>
-      </c>
-      <c r="N97" s="11">
+      <c r="AG97" s="11">
+        <v>1195122</v>
+      </c>
+      <c r="AH97" s="11">
+        <v>6383838</v>
+      </c>
+      <c r="AI97" s="11">
+        <v>6922719</v>
+      </c>
+      <c r="AJ97" s="11">
+        <v>7001133</v>
+      </c>
+      <c r="AK97" s="11">
+        <v>6868499</v>
+      </c>
+      <c r="AL97" s="11">
         <v>1000000</v>
       </c>
-      <c r="O97" s="11">
-        <v>0</v>
-      </c>
-      <c r="P97" s="11">
-        <v>1023148</v>
-      </c>
-      <c r="Q97" s="11">
-        <v>1078189</v>
-      </c>
-      <c r="R97" s="11">
-        <v>1175627</v>
-      </c>
-      <c r="S97" s="11">
-        <v>1199305</v>
-      </c>
-      <c r="T97" s="11">
-        <v>1199910</v>
-      </c>
-      <c r="U97" s="11">
-        <v>0</v>
-      </c>
-      <c r="V97" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W97" s="11">
-        <v>1201681</v>
-      </c>
-      <c r="X97" s="11">
-        <v>1201220</v>
-      </c>
-      <c r="Y97" s="11">
-        <v>1179487</v>
-      </c>
-      <c r="Z97" s="11">
-        <v>1001618</v>
-      </c>
-      <c r="AA97" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="AB97" s="11">
-        <v>1001835</v>
-      </c>
-      <c r="AC97" s="11">
-        <v>1006024</v>
-      </c>
-      <c r="AD97" s="11">
-        <v>1173684</v>
-      </c>
-      <c r="AE97" s="11">
-        <v>1197201</v>
-      </c>
-      <c r="AF97" s="11">
-        <v>1199490</v>
-      </c>
-      <c r="AG97" s="11">
-        <v>1199859</v>
-      </c>
-      <c r="AH97" s="11">
-        <v>1200000</v>
-      </c>
-      <c r="AI97" s="11">
-        <v>1195122</v>
-      </c>
-      <c r="AJ97" s="11">
-        <v>6383838</v>
-      </c>
-      <c r="AK97" s="11">
-        <v>6922719</v>
-      </c>
-      <c r="AL97" s="11">
-        <v>7001133</v>
-      </c>
-      <c r="AM97" s="11">
-        <v>6868499</v>
+      <c r="AM97" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN97" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="AO97" s="11" t="s">
-        <v>57</v>
+        <v>7058824</v>
+      </c>
+      <c r="AO97" s="11">
+        <v>6994286</v>
       </c>
       <c r="AP97" s="11">
-        <v>7058824</v>
+        <v>7002746</v>
       </c>
       <c r="AQ97" s="11">
-        <v>6994286</v>
-      </c>
-      <c r="AR97" s="11">
-        <v>7002746</v>
+        <v>6999301</v>
+      </c>
+      <c r="AR97" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS97" s="11">
-        <v>6999301</v>
-      </c>
-      <c r="AT97" s="11" t="s">
-        <v>57</v>
+        <v>2000000</v>
+      </c>
+      <c r="AT97" s="11">
+        <v>8000000</v>
       </c>
       <c r="AU97" s="11">
-        <v>2000000</v>
+        <v>7996779</v>
       </c>
       <c r="AV97" s="11">
         <v>8000000</v>
       </c>
       <c r="AW97" s="11">
-        <v>7996779</v>
-      </c>
-      <c r="AX97" s="11">
-        <v>8000000</v>
-      </c>
-      <c r="AY97" s="11">
         <v>7995363</v>
       </c>
+      <c r="AX97" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY97" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AZ97" s="11" t="s">
         <v>57</v>
       </c>
       <c r="BA97" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BB97" s="11" t="s">
-        <v>57</v>
+      <c r="BB97" s="11">
+        <v>8000832</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>69</v>
       </c>
@@ -13129,14 +13129,14 @@
       <c r="R98" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S98" s="13" t="s">
-        <v>57</v>
+      <c r="S98" s="13">
+        <v>0</v>
       </c>
       <c r="T98" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U98" s="13">
-        <v>0</v>
+      <c r="U98" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V98" s="13" t="s">
         <v>57</v>
@@ -13238,7 +13238,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>70</v>
       </c>
@@ -13327,44 +13327,44 @@
       <c r="AE99" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF99" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG99" s="11" t="s">
-        <v>57</v>
+      <c r="AF99" s="11">
+        <v>7666667</v>
+      </c>
+      <c r="AG99" s="11">
+        <v>7562500</v>
       </c>
       <c r="AH99" s="11">
+        <v>6750000</v>
+      </c>
+      <c r="AI99" s="11">
+        <v>19785276</v>
+      </c>
+      <c r="AJ99" s="11">
+        <v>8666667</v>
+      </c>
+      <c r="AK99" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL99" s="11">
         <v>7666667</v>
       </c>
-      <c r="AI99" s="11">
-        <v>7562500</v>
-      </c>
-      <c r="AJ99" s="11">
-        <v>6750000</v>
-      </c>
-      <c r="AK99" s="11">
-        <v>19785276</v>
-      </c>
-      <c r="AL99" s="11">
-        <v>8666667</v>
-      </c>
       <c r="AM99" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AN99" s="11">
-        <v>7666667</v>
-      </c>
-      <c r="AO99" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP99" s="11">
         <v>19680261</v>
       </c>
-      <c r="AQ99" s="11">
+      <c r="AO99" s="11">
         <v>20000000</v>
       </c>
-      <c r="AR99" s="11">
-        <v>0</v>
+      <c r="AP99" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ99" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR99" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS99" s="11" t="s">
         <v>57</v>
@@ -13375,29 +13375,29 @@
       <c r="AU99" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV99" s="11" t="s">
-        <v>57</v>
+      <c r="AV99" s="11">
+        <v>4031572</v>
       </c>
       <c r="AW99" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX99" s="11">
-        <v>22031690</v>
+      <c r="AX99" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AY99" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AZ99" s="11" t="s">
-        <v>57</v>
+      <c r="AZ99" s="11">
+        <v>22000000</v>
       </c>
       <c r="BA99" s="11" t="s">
         <v>57</v>
       </c>
       <c r="BB99" s="11">
-        <v>22000000</v>
+        <v>21971061</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
         <v>86</v>
       </c>
@@ -13454,7 +13454,7 @@
       <c r="BA100" s="9"/>
       <c r="BB100" s="9"/>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>61</v>
       </c>
@@ -13516,101 +13516,101 @@
       <c r="V101" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W101" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X101" s="11" t="s">
-        <v>57</v>
+      <c r="W101" s="11">
+        <v>2656551</v>
+      </c>
+      <c r="X101" s="11">
+        <v>0</v>
       </c>
       <c r="Y101" s="11">
-        <v>2656551</v>
+        <v>2169900</v>
       </c>
       <c r="Z101" s="11">
-        <v>0</v>
+        <v>2170012</v>
       </c>
       <c r="AA101" s="11">
-        <v>2169900</v>
+        <v>2170394</v>
       </c>
       <c r="AB101" s="11">
-        <v>2170012</v>
+        <v>2170505</v>
       </c>
       <c r="AC101" s="11">
-        <v>2170394</v>
+        <v>2169953</v>
       </c>
       <c r="AD101" s="11">
-        <v>2170505</v>
+        <v>2170123</v>
       </c>
       <c r="AE101" s="11">
-        <v>2169953</v>
+        <v>0</v>
       </c>
       <c r="AF101" s="11">
-        <v>2170123</v>
+        <v>0</v>
       </c>
       <c r="AG101" s="11">
-        <v>0</v>
+        <v>3302731</v>
       </c>
       <c r="AH101" s="11">
-        <v>0</v>
+        <v>3956550</v>
       </c>
       <c r="AI101" s="11">
-        <v>3302731</v>
+        <v>3992195</v>
       </c>
       <c r="AJ101" s="11">
-        <v>3956550</v>
+        <v>3626400</v>
       </c>
       <c r="AK101" s="11">
-        <v>3992195</v>
+        <v>3549704</v>
       </c>
       <c r="AL101" s="11">
-        <v>3626400</v>
+        <v>4000000</v>
       </c>
       <c r="AM101" s="11">
-        <v>3549704</v>
+        <v>4000000</v>
       </c>
       <c r="AN101" s="11">
         <v>4000000</v>
       </c>
       <c r="AO101" s="11">
-        <v>4000000</v>
+        <v>4002467</v>
       </c>
       <c r="AP101" s="11">
-        <v>4000000</v>
+        <v>4000198</v>
       </c>
       <c r="AQ101" s="11">
-        <v>4002467</v>
-      </c>
-      <c r="AR101" s="11">
-        <v>4000198</v>
+        <v>0</v>
+      </c>
+      <c r="AR101" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS101" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT101" s="11" t="s">
-        <v>57</v>
+        <v>6521739</v>
+      </c>
+      <c r="AT101" s="11">
+        <v>6162631</v>
       </c>
       <c r="AU101" s="11">
-        <v>6521739</v>
+        <v>6194960</v>
       </c>
       <c r="AV101" s="11">
-        <v>6162631</v>
+        <v>7643463</v>
       </c>
       <c r="AW101" s="11">
-        <v>6194960</v>
+        <v>0</v>
       </c>
       <c r="AX101" s="11">
-        <v>7643463</v>
+        <v>8300398</v>
       </c>
       <c r="AY101" s="11">
-        <v>0</v>
+        <v>8073025</v>
       </c>
       <c r="AZ101" s="11">
-        <v>8300398</v>
+        <v>8375661</v>
       </c>
       <c r="BA101" s="11">
-        <v>8073025</v>
+        <v>8101210</v>
       </c>
       <c r="BB101" s="11">
-        <v>8375661</v>
+        <v>7562435</v>
       </c>
     </row>
   </sheetData>
